--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qudn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Solutions\GitHub\PersonalDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -737,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,27 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,26 +798,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,7 +1163,7 @@
   <dimension ref="A1:AE87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1190,42 +1196,42 @@
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="20">
+      <c r="C1" s="22">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22">
         <v>2</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22">
         <v>3</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22">
         <v>4</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22">
         <v>5</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22">
         <v>6</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22">
         <v>7</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22">
         <v>8</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20">
+      <c r="R1" s="22"/>
+      <c r="S1" s="22">
         <v>9</v>
       </c>
-      <c r="T1" s="20"/>
+      <c r="T1" s="22"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
         <v>95</v>
@@ -1241,28 +1247,28 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
         <v>5</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="17">
         <v>12</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="17">
         <v>5</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="13">
@@ -1295,36 +1301,43 @@
       <c r="R2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="17">
         <v>1</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="22">
+      <c r="U2" s="23">
         <v>5</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="22" t="s">
         <v>96</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="Y2" s="1">
+        <f>C26</f>
+        <v>15</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>18</v>
+      </c>
       <c r="AA2" s="5">
         <f t="shared" ref="AA2:AA8" si="0">Y2-Z2</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="11">
         <v>15</v>
       </c>
@@ -1355,41 +1368,48 @@
       <c r="R3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="20"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="22"/>
       <c r="X3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="Y3" s="1">
+        <f>C28</f>
+        <v>15</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>73</v>
+      </c>
       <c r="AA3" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="18">
         <v>5</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="18">
         <v>12</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="18">
         <v>5</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="11">
@@ -1422,10 +1442,10 @@
       <c r="R4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4" s="18">
         <v>1</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="U4" s="11">
@@ -1437,22 +1457,29 @@
       <c r="X4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Y4" s="1">
+        <f>C30</f>
+        <v>15</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>90</v>
+      </c>
       <c r="AA4" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="11">
         <v>15</v>
       </c>
@@ -1483,8 +1510,8 @@
       <c r="R5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="28"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="20"/>
       <c r="U5" s="11">
         <v>3</v>
       </c>
@@ -1494,34 +1521,41 @@
       <c r="X5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="Y5" s="1">
+        <f>E27</f>
+        <v>15</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>63</v>
+      </c>
       <c r="AA5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <v>5</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="18">
         <v>12</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="18">
         <v>5</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="11">
@@ -1554,10 +1588,10 @@
       <c r="R6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="18">
         <v>1</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="T6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="U6" s="11">
@@ -1569,21 +1603,28 @@
       <c r="X6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="Y6" s="1">
+        <f>E26</f>
+        <v>15</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
       <c r="AA6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="12">
         <v>15</v>
       </c>
@@ -1614,8 +1655,8 @@
       <c r="R7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S7" s="26"/>
-      <c r="T7" s="29"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="21"/>
       <c r="U7" s="11">
         <v>5</v>
       </c>
@@ -1625,35 +1666,42 @@
       <c r="X7" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="Y7" s="1">
+        <f>E30</f>
+        <v>15</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>32</v>
+      </c>
       <c r="AA7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="14">
@@ -1686,32 +1734,39 @@
       <c r="R8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="17">
         <v>1</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="U8" s="22"/>
-      <c r="V8" s="25"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="35"/>
       <c r="X8" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="Y8" s="1">
+        <f>E28+C2+C4+C6+E2+E4+E6</f>
+        <v>66</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>14</v>
+      </c>
       <c r="AA8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="15">
         <v>0</v>
       </c>
@@ -1742,35 +1797,35 @@
       <c r="R9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="25"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="35"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="28">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18" t="s">
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="15">
@@ -1803,34 +1858,41 @@
       <c r="R10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="18">
         <v>1</v>
       </c>
-      <c r="T10" s="28" t="s">
+      <c r="T10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="25"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="35"/>
       <c r="X10" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="Y10" s="1">
+        <f>G22+I22+G26</f>
+        <v>32</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>14</v>
+      </c>
       <c r="AA10" s="5">
         <f t="shared" ref="AA10:AA16" si="1">Y10-Z10</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="15">
         <v>0</v>
       </c>
@@ -1861,41 +1923,48 @@
       <c r="R11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="25"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="35"/>
       <c r="X11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Y11" s="1">
+        <f>G28</f>
+        <v>15</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>120</v>
+      </c>
       <c r="AA11" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="28">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="15">
@@ -1928,33 +1997,40 @@
       <c r="R12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="18">
-        <v>0</v>
-      </c>
-      <c r="T12" s="31" t="s">
+      <c r="S12" s="28">
+        <v>0</v>
+      </c>
+      <c r="T12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="U12" s="22"/>
-      <c r="V12" s="25"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="35"/>
       <c r="X12" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="Y12" s="1">
+        <f>G30</f>
+        <v>15</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>44</v>
+      </c>
       <c r="AA12" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-29</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="16">
         <v>0</v>
       </c>
@@ -1985,43 +2061,50 @@
       <c r="R13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="19"/>
+      <c r="S13" s="31"/>
       <c r="T13" s="32"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="25"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="35"/>
       <c r="X13" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="Y13" s="1">
+        <f>I27</f>
+        <v>15</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>78</v>
+      </c>
       <c r="AA13" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-63</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="17">
-        <v>0</v>
-      </c>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="14">
@@ -2054,33 +2137,40 @@
       <c r="R14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="17">
-        <v>0</v>
-      </c>
-      <c r="T14" s="33" t="s">
+      <c r="S14" s="27">
+        <v>0</v>
+      </c>
+      <c r="T14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="22"/>
-      <c r="V14" s="25"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
       <c r="X14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="Y14" s="1">
+        <f>I26</f>
+        <v>15</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>32</v>
+      </c>
       <c r="AA14" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="15">
         <v>0</v>
       </c>
@@ -2111,41 +2201,48 @@
       <c r="R15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="25"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
       <c r="X15" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="Y15" s="1">
+        <f>I30</f>
+        <v>15</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>19</v>
+      </c>
       <c r="AA15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="C16" s="28">
+        <v>0</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="15">
@@ -2178,33 +2275,40 @@
       <c r="R16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="25">
+      <c r="S16" s="18">
         <v>1</v>
       </c>
-      <c r="T16" s="28" t="s">
+      <c r="T16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="U16" s="22"/>
-      <c r="V16" s="25"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
       <c r="X16" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="Y16" s="1">
+        <f>I28+G2+G4+G6+I2+I4+I6</f>
+        <v>66</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>51</v>
+      </c>
       <c r="AA16" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="15">
         <v>0</v>
       </c>
@@ -2235,34 +2339,34 @@
       <c r="R17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="25"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="25"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="28">
+        <v>0</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18" t="s">
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18" t="s">
+      <c r="G18" s="28">
+        <v>0</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="15">
@@ -2295,33 +2399,40 @@
       <c r="R18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18" s="18">
         <v>1</v>
       </c>
-      <c r="T18" s="28" t="s">
+      <c r="T18" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="U18" s="22"/>
-      <c r="V18" s="25"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="35"/>
       <c r="X18" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="Y18" s="1">
+        <f>K20+K22+K24+M20+M22+M24+K26</f>
+        <v>66</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>39</v>
+      </c>
       <c r="AA18" s="5">
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="16">
         <v>0</v>
       </c>
@@ -2352,44 +2463,51 @@
       <c r="R19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="S19" s="26"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="25"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="35"/>
       <c r="X19" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Y19" s="1">
+        <f>K28</f>
+        <v>15</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>45</v>
+      </c>
       <c r="AA19" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="2"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="27">
+        <v>0</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>107</v>
       </c>
       <c r="I20" s="14">
@@ -2422,33 +2540,40 @@
       <c r="R20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="17">
         <v>1</v>
       </c>
-      <c r="T20" s="27" t="s">
+      <c r="T20" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="22"/>
-      <c r="V20" s="25"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="35"/>
       <c r="X20" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="Y20" s="1">
+        <f>K30</f>
+        <v>15</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>2</v>
+      </c>
       <c r="AA20" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="15">
         <v>0</v>
       </c>
@@ -2479,41 +2604,48 @@
       <c r="R21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S21" s="25"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="25"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="35"/>
       <c r="X21" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="Y21" s="1">
+        <f>M27</f>
+        <v>15</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>50</v>
+      </c>
       <c r="AA21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="18">
-        <v>0</v>
-      </c>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="28">
+        <v>0</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="18">
         <v>5</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H22" s="18" t="s">
         <v>108</v>
       </c>
       <c r="I22" s="11">
@@ -2546,33 +2678,40 @@
       <c r="R22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S22" s="25">
+      <c r="S22" s="18">
         <v>1</v>
       </c>
-      <c r="T22" s="28" t="s">
+      <c r="T22" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="U22" s="22"/>
-      <c r="V22" s="25"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="35"/>
       <c r="X22" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="Y22" s="1">
+        <f>M10+M26</f>
+        <v>27</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>2</v>
+      </c>
       <c r="AA22" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="11">
         <v>4</v>
       </c>
@@ -2603,13 +2742,20 @@
       <c r="R23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S23" s="25"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="25"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="35"/>
       <c r="X23" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="Y23" s="1">
+        <f>M30</f>
+        <v>15</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>15</v>
+      </c>
       <c r="AA23" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2618,26 +2764,26 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="18">
-        <v>0</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="28">
+        <v>0</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="18">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18" t="s">
+      <c r="G24" s="28">
+        <v>0</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>108</v>
       </c>
       <c r="I24" s="15">
@@ -2670,33 +2816,40 @@
       <c r="R24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S24" s="25">
+      <c r="S24" s="18">
         <v>1</v>
       </c>
-      <c r="T24" s="28" t="s">
+      <c r="T24" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="U24" s="22"/>
-      <c r="V24" s="25"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="35"/>
       <c r="X24" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="Y24" s="1">
+        <f>M28+K2+K4+K6+M2+M4+M6</f>
+        <v>66</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>6</v>
+      </c>
       <c r="AA24" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="16">
         <v>0</v>
       </c>
@@ -2727,24 +2880,24 @@
       <c r="R25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="S25" s="26"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="25"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="35"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="24">
-        <v>15</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="17">
+        <v>15</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>122</v>
       </c>
       <c r="E26" s="13">
@@ -2753,10 +2906,10 @@
       <c r="F26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="24">
-        <v>15</v>
-      </c>
-      <c r="H26" s="24" t="s">
+      <c r="G26" s="17">
+        <v>15</v>
+      </c>
+      <c r="H26" s="17" t="s">
         <v>129</v>
       </c>
       <c r="I26" s="13">
@@ -2765,10 +2918,10 @@
       <c r="J26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="24">
-        <v>15</v>
-      </c>
-      <c r="L26" s="24" t="s">
+      <c r="K26" s="17">
+        <v>15</v>
+      </c>
+      <c r="L26" s="17" t="s">
         <v>136</v>
       </c>
       <c r="M26" s="13">
@@ -2777,270 +2930,303 @@
       <c r="N26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="17">
         <v>5</v>
       </c>
-      <c r="P26" s="24" t="s">
+      <c r="P26" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="Q26" s="24">
-        <v>15</v>
-      </c>
-      <c r="R26" s="24" t="s">
+      <c r="Q26" s="17">
+        <v>15</v>
+      </c>
+      <c r="R26" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="S26" s="24">
+      <c r="S26" s="17">
         <v>1</v>
       </c>
-      <c r="T26" s="27" t="s">
+      <c r="T26" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="U26" s="22"/>
-      <c r="V26" s="20"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="35"/>
       <c r="X26" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>409</v>
+      </c>
       <c r="AA26" s="5">
         <f>Y26-Z26</f>
-        <v>0</v>
+        <v>-409</v>
       </c>
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="11">
         <v>15</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
       <c r="I27" s="11">
         <v>15</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="11">
         <v>15</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="20"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="35"/>
       <c r="X27" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="Y27" s="1">
+        <f>I3+I5+I7+K3+K5+K7+Q16+Q18+U4</f>
+        <v>269</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>9</v>
+      </c>
       <c r="AA27" s="7">
         <f>Y27-Z27</f>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="25">
-        <v>15</v>
-      </c>
-      <c r="D28" s="25" t="s">
+      <c r="C28" s="18">
+        <v>15</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="25">
-        <v>15</v>
-      </c>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="18">
+        <v>15</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="25">
-        <v>15</v>
-      </c>
-      <c r="H28" s="25" t="s">
+      <c r="G28" s="18">
+        <v>15</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="25">
-        <v>15</v>
-      </c>
-      <c r="J28" s="25" t="s">
+      <c r="I28" s="18">
+        <v>15</v>
+      </c>
+      <c r="J28" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="25">
-        <v>15</v>
-      </c>
-      <c r="L28" s="25" t="s">
+      <c r="K28" s="18">
+        <v>15</v>
+      </c>
+      <c r="L28" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="M28" s="25">
-        <v>15</v>
-      </c>
-      <c r="N28" s="25" t="s">
+      <c r="M28" s="18">
+        <v>15</v>
+      </c>
+      <c r="N28" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="18">
         <v>5</v>
       </c>
-      <c r="P28" s="25" t="s">
+      <c r="P28" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="Q28" s="25">
-        <v>15</v>
-      </c>
-      <c r="R28" s="25" t="s">
+      <c r="Q28" s="18">
+        <v>15</v>
+      </c>
+      <c r="R28" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="S28" s="25">
+      <c r="S28" s="18">
         <v>1</v>
       </c>
-      <c r="T28" s="28" t="s">
+      <c r="T28" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="35"/>
       <c r="X28" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="Y28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>141</v>
+      </c>
       <c r="AA28" s="5">
         <f>Y28-Z28</f>
-        <v>0</v>
+        <v>-141</v>
       </c>
       <c r="AB28" s="5"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="35"/>
       <c r="X29" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="Y29" s="1">
+        <f>Q17+Q19+O20+O22+O24+M21+M23+M25</f>
+        <v>186</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>133</v>
+      </c>
       <c r="AA29" s="5">
         <f>Y29-Z29</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="25">
-        <v>15</v>
-      </c>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="18">
+        <v>15</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="25">
-        <v>15</v>
-      </c>
-      <c r="F30" s="25" t="s">
+      <c r="E30" s="18">
+        <v>15</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="25">
-        <v>15</v>
-      </c>
-      <c r="H30" s="25" t="s">
+      <c r="G30" s="18">
+        <v>15</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="25">
-        <v>15</v>
-      </c>
-      <c r="J30" s="25" t="s">
+      <c r="I30" s="18">
+        <v>15</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="25">
-        <v>15</v>
-      </c>
-      <c r="L30" s="25" t="s">
+      <c r="K30" s="18">
+        <v>15</v>
+      </c>
+      <c r="L30" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="25">
-        <v>15</v>
-      </c>
-      <c r="N30" s="25" t="s">
+      <c r="M30" s="18">
+        <v>15</v>
+      </c>
+      <c r="N30" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="18">
         <v>5</v>
       </c>
-      <c r="P30" s="25" t="s">
+      <c r="P30" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="Q30" s="25">
-        <v>15</v>
-      </c>
-      <c r="R30" s="25" t="s">
+      <c r="Q30" s="18">
+        <v>15</v>
+      </c>
+      <c r="R30" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="S30" s="25">
+      <c r="S30" s="18">
         <v>1</v>
       </c>
-      <c r="T30" s="28" t="s">
+      <c r="T30" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="35"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
     </row>
     <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="35"/>
       <c r="X31" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="Y31" s="1">
+        <f>O11+Q10</f>
+        <v>30</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>30</v>
       </c>
       <c r="AA31" s="5">
         <f t="shared" ref="AA31:AA39" si="3">Y31-Z31</f>
@@ -3073,9 +3259,16 @@
       <c r="X32" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="Y32" s="1">
+        <f>M11+O10+Q21+Q23+Q25</f>
+        <v>87</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0</v>
+      </c>
       <c r="AA32" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="AB32" s="5"/>
     </row>
@@ -3104,9 +3297,16 @@
       <c r="X33" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="Y33" s="1">
+        <f>O3+O5+O7+Q2+Q4+Q6+O21+O23+O25+Q20+Q22+Q24</f>
+        <v>144</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>119</v>
+      </c>
       <c r="AA33" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB33" s="5"/>
     </row>
@@ -3135,9 +3335,15 @@
       <c r="X34" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="Y34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>99</v>
+      </c>
       <c r="AA34" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="AB34" s="5"/>
     </row>
@@ -3166,9 +3372,15 @@
       <c r="X35" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>20</v>
+      </c>
       <c r="AA35" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="AB35" s="5"/>
     </row>
@@ -3197,6 +3409,12 @@
       <c r="X36" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Y36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0</v>
+      </c>
       <c r="AA36" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3228,9 +3446,16 @@
       <c r="X37" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="Y37" s="1">
+        <f>Q11</f>
+        <v>24</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>20</v>
+      </c>
       <c r="AA37" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB37" s="5"/>
     </row>
@@ -3258,9 +3483,15 @@
       <c r="X38" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>3</v>
+      </c>
       <c r="AA38" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB38" s="5"/>
     </row>
@@ -3268,9 +3499,15 @@
       <c r="X39" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="Y39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>185</v>
+      </c>
       <c r="AA39" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-185</v>
       </c>
       <c r="AB39" s="5"/>
     </row>
@@ -3282,9 +3519,16 @@
       <c r="X41" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="Y41" s="1">
+        <f>M3+M5+M7+O2+O4+O6+U2</f>
+        <v>32</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>28</v>
+      </c>
       <c r="AA41" s="5">
         <f t="shared" ref="AA41:AA48" si="4">Y41-Z41</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB41" s="5"/>
     </row>
@@ -3292,9 +3536,16 @@
       <c r="X42" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="Y42" s="1">
+        <f>O26+O28+O30+Q26+Q28+Q30</f>
+        <v>60</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>14</v>
+      </c>
       <c r="AA42" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AB42" s="5"/>
     </row>
@@ -3302,9 +3553,16 @@
       <c r="X43" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="Y43" s="1">
+        <f>U7</f>
+        <v>5</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>30</v>
+      </c>
       <c r="AA43" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AB43" s="5"/>
     </row>
@@ -3314,9 +3572,16 @@
       <c r="X44" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="Y44" s="7">
+        <f>Q3+Q5+Q7</f>
+        <v>30</v>
+      </c>
+      <c r="Z44" s="7">
+        <v>39</v>
+      </c>
       <c r="AA44" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3325,9 +3590,15 @@
       <c r="X45" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="Y45" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="7">
+        <v>29</v>
+      </c>
       <c r="AA45" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3336,9 +3607,16 @@
       <c r="X46" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="Y46" s="7">
+        <f>U5+U6</f>
+        <v>9</v>
+      </c>
+      <c r="Z46" s="7">
+        <v>8</v>
+      </c>
       <c r="AA46" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3347,18 +3625,31 @@
       <c r="X47" s="7" t="s">
         <v>72</v>
       </c>
+      <c r="Y47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="7">
+        <v>14</v>
+      </c>
       <c r="AA47" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X48" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="Y48" s="1">
+        <f>S2+S4+S6+S8+S10+S16+S18+S20+S22+S24+S26+S28+S30</f>
+        <v>13</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
       <c r="AA48" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB48" s="5"/>
     </row>
@@ -3519,93 +3810,75 @@
       <c r="AB87" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="178">
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="V26:V27"/>
-    <mergeCell ref="U26:U27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="U8:V25"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G20:G21"/>
+  <mergeCells count="175">
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="G22:G23"/>
@@ -3630,74 +3903,89 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R30:R31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -789,6 +789,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,53 +825,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1247,28 +1247,28 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
         <v>5</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="26">
         <v>12</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="26">
         <v>5</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="13">
@@ -1301,13 +1301,13 @@
       <c r="R2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="26">
         <v>1</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23">
+      <c r="U2" s="24">
         <v>5</v>
       </c>
       <c r="V2" s="22" t="s">
@@ -1321,23 +1321,23 @@
         <v>15</v>
       </c>
       <c r="Z2" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" ref="AA2:AA8" si="0">Y2-Z2</f>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="11">
         <v>15</v>
       </c>
@@ -1368,9 +1368,9 @@
       <c r="R3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="23"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="24"/>
       <c r="V3" s="22"/>
       <c r="X3" s="1" t="s">
         <v>27</v>
@@ -1380,36 +1380,36 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AA3" s="5">
         <f t="shared" si="0"/>
-        <v>-58</v>
+        <v>-65</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="27">
         <v>5</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="27">
         <v>12</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="27">
         <v>5</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="11">
@@ -1442,10 +1442,10 @@
       <c r="R4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="27">
         <v>1</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="30" t="s">
         <v>10</v>
       </c>
       <c r="U4" s="11">
@@ -1462,24 +1462,24 @@
         <v>15</v>
       </c>
       <c r="Z4" s="1">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="AA4" s="5">
         <f t="shared" si="0"/>
-        <v>-75</v>
+        <v>-92</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="11">
         <v>15</v>
       </c>
@@ -1510,8 +1510,8 @@
       <c r="R5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="18"/>
-      <c r="T5" s="20"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="30"/>
       <c r="U5" s="11">
         <v>3</v>
       </c>
@@ -1526,36 +1526,36 @@
         <v>15</v>
       </c>
       <c r="Z5" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="0"/>
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="27">
         <v>12</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="27">
         <v>5</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="11">
@@ -1588,10 +1588,10 @@
       <c r="R6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="27">
         <v>1</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="30" t="s">
         <v>10</v>
       </c>
       <c r="U6" s="11">
@@ -1617,14 +1617,14 @@
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="12">
         <v>15</v>
       </c>
@@ -1655,8 +1655,8 @@
       <c r="R7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="21"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
       <c r="U7" s="11">
         <v>5</v>
       </c>
@@ -1680,28 +1680,28 @@
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27" t="s">
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="14">
@@ -1734,14 +1734,14 @@
       <c r="R8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="26">
         <v>1</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="35"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="18"/>
       <c r="X8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1750,23 +1750,23 @@
         <v>66</v>
       </c>
       <c r="Z8" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA8" s="5">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="15">
         <v>0</v>
       </c>
@@ -1797,35 +1797,35 @@
       <c r="R9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="35"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="18"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="28">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="28">
-        <v>0</v>
-      </c>
-      <c r="F10" s="28" t="s">
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="28">
-        <v>0</v>
-      </c>
-      <c r="H10" s="28" t="s">
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="15">
@@ -1858,14 +1858,14 @@
       <c r="R10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="27">
         <v>1</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="35"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="18"/>
       <c r="X10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1874,25 +1874,25 @@
         <v>32</v>
       </c>
       <c r="Z10" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AA10" s="5">
         <f t="shared" ref="AA10:AA16" si="1">Y10-Z10</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="15">
         <v>0</v>
       </c>
@@ -1923,10 +1923,10 @@
       <c r="R11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="18"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="35"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="18"/>
       <c r="X11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1935,36 +1935,36 @@
         <v>15</v>
       </c>
       <c r="Z11" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="AA11" s="5">
         <f t="shared" si="1"/>
-        <v>-105</v>
+        <v>-109</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="28">
-        <v>0</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="28">
-        <v>0</v>
-      </c>
-      <c r="F12" s="28" t="s">
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="28">
-        <v>0</v>
-      </c>
-      <c r="H12" s="28" t="s">
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="15">
@@ -1997,14 +1997,14 @@
       <c r="R12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="28">
-        <v>0</v>
-      </c>
-      <c r="T12" s="30" t="s">
+      <c r="S12" s="20">
+        <v>0</v>
+      </c>
+      <c r="T12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="U12" s="34"/>
-      <c r="V12" s="35"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="18"/>
       <c r="X12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2013,24 +2013,24 @@
         <v>15</v>
       </c>
       <c r="Z12" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AA12" s="5">
         <f t="shared" si="1"/>
-        <v>-29</v>
+        <v>-33</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="16">
         <v>0</v>
       </c>
@@ -2061,10 +2061,10 @@
       <c r="R13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="35"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="18"/>
       <c r="X13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2083,28 +2083,28 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="27">
-        <v>0</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="27">
-        <v>0</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27" t="s">
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="14">
@@ -2137,14 +2137,14 @@
       <c r="R14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="27">
-        <v>0</v>
-      </c>
-      <c r="T14" s="29" t="s">
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="18"/>
       <c r="X14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2153,24 +2153,24 @@
         <v>15</v>
       </c>
       <c r="Z14" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA14" s="5">
         <f t="shared" si="1"/>
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="15">
         <v>0</v>
       </c>
@@ -2201,10 +2201,10 @@
       <c r="R15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="18"/>
       <c r="X15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2223,26 +2223,26 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="28">
-        <v>0</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="28">
-        <v>0</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="28" t="s">
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="15">
@@ -2275,14 +2275,14 @@
       <c r="R16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="27">
         <v>1</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="18"/>
       <c r="X16" s="1" t="s">
         <v>38</v>
       </c>
@@ -2301,14 +2301,14 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="15">
         <v>0</v>
       </c>
@@ -2339,34 +2339,34 @@
       <c r="R17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="18"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="18"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="28">
-        <v>0</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="28">
-        <v>0</v>
-      </c>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="28">
-        <v>0</v>
-      </c>
-      <c r="H18" s="28" t="s">
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="15">
@@ -2399,14 +2399,14 @@
       <c r="R18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="18">
+      <c r="S18" s="27">
         <v>1</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="18"/>
       <c r="X18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2415,24 +2415,24 @@
         <v>66</v>
       </c>
       <c r="Z18" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA18" s="5">
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="16">
         <v>0</v>
       </c>
@@ -2463,10 +2463,10 @@
       <c r="R19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="S19" s="19"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="35"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="18"/>
       <c r="X19" s="1" t="s">
         <v>41</v>
       </c>
@@ -2475,39 +2475,39 @@
         <v>15</v>
       </c>
       <c r="Z19" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA19" s="5">
         <f t="shared" si="2"/>
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="2"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="27">
-        <v>0</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28" t="s">
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27" t="s">
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>107</v>
       </c>
       <c r="I20" s="14">
@@ -2540,14 +2540,14 @@
       <c r="R20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S20" s="17">
+      <c r="S20" s="26">
         <v>1</v>
       </c>
-      <c r="T20" s="24" t="s">
+      <c r="T20" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="18"/>
       <c r="X20" s="1" t="s">
         <v>42</v>
       </c>
@@ -2556,24 +2556,24 @@
         <v>15</v>
       </c>
       <c r="Z20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA20" s="5">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="15">
         <v>0</v>
       </c>
@@ -2604,10 +2604,10 @@
       <c r="R21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S21" s="18"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="18"/>
       <c r="X21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2626,26 +2626,26 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="28">
-        <v>0</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="20">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="28">
-        <v>0</v>
-      </c>
-      <c r="F22" s="28" t="s">
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="27">
         <v>5</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="27" t="s">
         <v>108</v>
       </c>
       <c r="I22" s="11">
@@ -2678,14 +2678,14 @@
       <c r="R22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S22" s="18">
+      <c r="S22" s="27">
         <v>1</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="U22" s="34"/>
-      <c r="V22" s="35"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="18"/>
       <c r="X22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,24 +2694,24 @@
         <v>27</v>
       </c>
       <c r="Z22" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA22" s="5">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="11">
         <v>4</v>
       </c>
@@ -2742,10 +2742,10 @@
       <c r="R23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="35"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="18"/>
       <c r="X23" s="1" t="s">
         <v>45</v>
       </c>
@@ -2764,26 +2764,26 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="28">
-        <v>0</v>
-      </c>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="28">
-        <v>0</v>
-      </c>
-      <c r="F24" s="28" t="s">
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="28">
-        <v>0</v>
-      </c>
-      <c r="H24" s="28" t="s">
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>108</v>
       </c>
       <c r="I24" s="15">
@@ -2816,14 +2816,14 @@
       <c r="R24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S24" s="18">
+      <c r="S24" s="27">
         <v>1</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="U24" s="34"/>
-      <c r="V24" s="35"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="18"/>
       <c r="X24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2842,14 +2842,14 @@
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="16">
         <v>0</v>
       </c>
@@ -2880,24 +2880,24 @@
       <c r="R25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="S25" s="19"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="35"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="18"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="17">
-        <v>15</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="26">
+        <v>15</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>122</v>
       </c>
       <c r="E26" s="13">
@@ -2906,10 +2906,10 @@
       <c r="F26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="17">
-        <v>15</v>
-      </c>
-      <c r="H26" s="17" t="s">
+      <c r="G26" s="26">
+        <v>15</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>129</v>
       </c>
       <c r="I26" s="13">
@@ -2918,10 +2918,10 @@
       <c r="J26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="17">
-        <v>15</v>
-      </c>
-      <c r="L26" s="17" t="s">
+      <c r="K26" s="26">
+        <v>15</v>
+      </c>
+      <c r="L26" s="26" t="s">
         <v>136</v>
       </c>
       <c r="M26" s="13">
@@ -2930,26 +2930,26 @@
       <c r="N26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O26" s="26">
         <v>5</v>
       </c>
-      <c r="P26" s="17" t="s">
+      <c r="P26" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="Q26" s="17">
-        <v>15</v>
-      </c>
-      <c r="R26" s="17" t="s">
+      <c r="Q26" s="26">
+        <v>15</v>
+      </c>
+      <c r="R26" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="S26" s="17">
+      <c r="S26" s="26">
         <v>1</v>
       </c>
-      <c r="T26" s="24" t="s">
+      <c r="T26" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="U26" s="34"/>
-      <c r="V26" s="35"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="18"/>
       <c r="X26" s="1" t="s">
         <v>47</v>
       </c>
@@ -2957,49 +2957,49 @@
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="AA26" s="5">
         <f>Y26-Z26</f>
-        <v>-409</v>
+        <v>-436</v>
       </c>
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="11">
         <v>15</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="11">
         <v>15</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="11">
         <v>15</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="35"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="18"/>
       <c r="X27" s="1" t="s">
         <v>48</v>
       </c>
@@ -3008,75 +3008,75 @@
         <v>269</v>
       </c>
       <c r="Z27" s="1">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="AA27" s="7">
         <f>Y27-Z27</f>
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="18">
-        <v>15</v>
-      </c>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="27">
+        <v>15</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="18">
-        <v>15</v>
-      </c>
-      <c r="F28" s="18" t="s">
+      <c r="E28" s="27">
+        <v>15</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="18">
-        <v>15</v>
-      </c>
-      <c r="H28" s="18" t="s">
+      <c r="G28" s="27">
+        <v>15</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="18">
-        <v>15</v>
-      </c>
-      <c r="J28" s="18" t="s">
+      <c r="I28" s="27">
+        <v>15</v>
+      </c>
+      <c r="J28" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="18">
-        <v>15</v>
-      </c>
-      <c r="L28" s="18" t="s">
+      <c r="K28" s="27">
+        <v>15</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="M28" s="18">
-        <v>15</v>
-      </c>
-      <c r="N28" s="18" t="s">
+      <c r="M28" s="27">
+        <v>15</v>
+      </c>
+      <c r="N28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="27">
         <v>5</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="Q28" s="18">
-        <v>15</v>
-      </c>
-      <c r="R28" s="18" t="s">
+      <c r="Q28" s="27">
+        <v>15</v>
+      </c>
+      <c r="R28" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="S28" s="18">
+      <c r="S28" s="27">
         <v>1</v>
       </c>
-      <c r="T28" s="20" t="s">
+      <c r="T28" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="U28" s="34"/>
-      <c r="V28" s="35"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="18"/>
       <c r="X28" s="1" t="s">
         <v>49</v>
       </c>
@@ -3084,37 +3084,37 @@
         <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AA28" s="5">
         <f>Y28-Z28</f>
-        <v>-141</v>
+        <v>-145</v>
       </c>
       <c r="AB28" s="5"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="35"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="18"/>
       <c r="X29" s="1" t="s">
         <v>50</v>
       </c>
@@ -3123,101 +3123,101 @@
         <v>186</v>
       </c>
       <c r="Z29" s="1">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AA29" s="5">
         <f>Y29-Z29</f>
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="18">
-        <v>15</v>
-      </c>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="27">
+        <v>15</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="18">
-        <v>15</v>
-      </c>
-      <c r="F30" s="18" t="s">
+      <c r="E30" s="27">
+        <v>15</v>
+      </c>
+      <c r="F30" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="18">
-        <v>15</v>
-      </c>
-      <c r="H30" s="18" t="s">
+      <c r="G30" s="27">
+        <v>15</v>
+      </c>
+      <c r="H30" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="18">
-        <v>15</v>
-      </c>
-      <c r="J30" s="18" t="s">
+      <c r="I30" s="27">
+        <v>15</v>
+      </c>
+      <c r="J30" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="18">
-        <v>15</v>
-      </c>
-      <c r="L30" s="18" t="s">
+      <c r="K30" s="27">
+        <v>15</v>
+      </c>
+      <c r="L30" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="18">
-        <v>15</v>
-      </c>
-      <c r="N30" s="18" t="s">
+      <c r="M30" s="27">
+        <v>15</v>
+      </c>
+      <c r="N30" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="27">
         <v>5</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="P30" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="Q30" s="18">
-        <v>15</v>
-      </c>
-      <c r="R30" s="18" t="s">
+      <c r="Q30" s="27">
+        <v>15</v>
+      </c>
+      <c r="R30" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S30" s="27">
         <v>1</v>
       </c>
-      <c r="T30" s="20" t="s">
+      <c r="T30" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="U30" s="34"/>
-      <c r="V30" s="35"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="18"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
     </row>
     <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="35"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="18"/>
       <c r="X31" s="1" t="s">
         <v>51</v>
       </c>
@@ -3226,11 +3226,11 @@
         <v>30</v>
       </c>
       <c r="Z31" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA31" s="5">
         <f t="shared" ref="AA31:AA39" si="3">Y31-Z31</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB31" s="5"/>
     </row>
@@ -3264,11 +3264,11 @@
         <v>87</v>
       </c>
       <c r="Z32" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA32" s="5">
         <f t="shared" si="3"/>
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="AB32" s="5"/>
     </row>
@@ -3339,11 +3339,11 @@
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AA34" s="5">
         <f t="shared" si="3"/>
-        <v>-99</v>
+        <v>-91</v>
       </c>
       <c r="AB34" s="5"/>
     </row>
@@ -3376,11 +3376,11 @@
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="3"/>
-        <v>-20</v>
+        <v>-12</v>
       </c>
       <c r="AB35" s="5"/>
     </row>
@@ -3413,11 +3413,11 @@
         <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA36" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB36" s="5"/>
     </row>
@@ -3451,11 +3451,11 @@
         <v>24</v>
       </c>
       <c r="Z37" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA37" s="7">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB37" s="5"/>
     </row>
@@ -3487,11 +3487,11 @@
         <v>0</v>
       </c>
       <c r="Z38" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AA38" s="5">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-30</v>
       </c>
       <c r="AB38" s="5"/>
     </row>
@@ -3503,11 +3503,11 @@
         <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AA39" s="5">
         <f t="shared" si="3"/>
-        <v>-185</v>
+        <v>-190</v>
       </c>
       <c r="AB39" s="5"/>
     </row>
@@ -3524,11 +3524,11 @@
         <v>32</v>
       </c>
       <c r="Z41" s="1">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AA41" s="5">
         <f t="shared" ref="AA41:AA48" si="4">Y41-Z41</f>
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="AB41" s="5"/>
     </row>
@@ -3541,11 +3541,11 @@
         <v>60</v>
       </c>
       <c r="Z42" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AA42" s="5">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AB42" s="5"/>
     </row>
@@ -3558,11 +3558,11 @@
         <v>5</v>
       </c>
       <c r="Z43" s="1">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AA43" s="5">
         <f t="shared" si="4"/>
-        <v>-25</v>
+        <v>-36</v>
       </c>
       <c r="AB43" s="5"/>
     </row>
@@ -3577,11 +3577,11 @@
         <v>30</v>
       </c>
       <c r="Z44" s="7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AA44" s="7">
         <f t="shared" si="4"/>
-        <v>-9</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3594,11 +3594,11 @@
         <v>0</v>
       </c>
       <c r="Z45" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AA45" s="7">
         <f t="shared" si="4"/>
-        <v>-29</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3612,11 +3612,11 @@
         <v>9</v>
       </c>
       <c r="Z46" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA46" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3629,11 +3629,11 @@
         <v>0</v>
       </c>
       <c r="Z47" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AA47" s="7">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
@@ -3811,20 +3811,143 @@
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
@@ -3849,143 +3972,20 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -795,16 +795,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -816,34 +822,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,42 +1196,42 @@
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="22">
+      <c r="C1" s="28">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28">
         <v>2</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28">
         <v>3</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28">
         <v>4</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28">
         <v>5</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28">
         <v>6</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28">
         <v>7</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28">
         <v>8</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28">
         <v>9</v>
       </c>
-      <c r="T1" s="22"/>
+      <c r="T1" s="28"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
         <v>95</v>
@@ -1247,28 +1247,28 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23">
         <v>5</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="23">
         <v>12</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="23">
         <v>5</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="13">
@@ -1301,16 +1301,16 @@
       <c r="R2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="23">
         <v>1</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="26">
         <v>5</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="V2" s="28" t="s">
         <v>96</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -1321,23 +1321,23 @@
         <v>15</v>
       </c>
       <c r="Z2" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" ref="AA2:AA8" si="0">Y2-Z2</f>
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="11">
         <v>15</v>
       </c>
@@ -1368,10 +1368,10 @@
       <c r="R3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="22"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="28"/>
       <c r="X3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1380,36 +1380,36 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA3" s="5">
         <f t="shared" si="0"/>
-        <v>-65</v>
+        <v>-67</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="21">
         <v>5</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <v>12</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="21">
         <v>5</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="11">
@@ -1442,10 +1442,10 @@
       <c r="R4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="21">
         <v>1</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="20" t="s">
         <v>10</v>
       </c>
       <c r="U4" s="11">
@@ -1462,24 +1462,24 @@
         <v>15</v>
       </c>
       <c r="Z4" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA4" s="5">
         <f t="shared" si="0"/>
-        <v>-92</v>
+        <v>-93</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="11">
         <v>15</v>
       </c>
@@ -1510,8 +1510,8 @@
       <c r="R5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="20"/>
       <c r="U5" s="11">
         <v>3</v>
       </c>
@@ -1536,26 +1536,26 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="21">
         <v>5</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="21">
         <v>12</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="21">
         <v>5</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="11">
@@ -1588,10 +1588,10 @@
       <c r="R6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="21">
         <v>1</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="T6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="U6" s="11">
@@ -1617,14 +1617,14 @@
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="12">
         <v>15</v>
       </c>
@@ -1655,8 +1655,8 @@
       <c r="R7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="24"/>
       <c r="U7" s="11">
         <v>5</v>
       </c>
@@ -1680,28 +1680,28 @@
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="B8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="14">
@@ -1734,10 +1734,10 @@
       <c r="R8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="23">
         <v>1</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="19" t="s">
         <v>90</v>
       </c>
       <c r="U8" s="17"/>
@@ -1750,23 +1750,23 @@
         <v>66</v>
       </c>
       <c r="Z8" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AA8" s="5">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="15">
         <v>0</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="R9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="30"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="20"/>
       <c r="U9" s="17"/>
       <c r="V9" s="18"/>
       <c r="AA9" s="5"/>
@@ -1806,26 +1806,26 @@
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="15">
@@ -1858,10 +1858,10 @@
       <c r="R10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10" s="21">
         <v>1</v>
       </c>
-      <c r="T10" s="30" t="s">
+      <c r="T10" s="20" t="s">
         <v>82</v>
       </c>
       <c r="U10" s="17"/>
@@ -1885,14 +1885,14 @@
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="15">
         <v>0</v>
       </c>
@@ -1923,8 +1923,8 @@
       <c r="R11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="27"/>
-      <c r="T11" s="30"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20"/>
       <c r="U11" s="17"/>
       <c r="V11" s="18"/>
       <c r="X11" s="1" t="s">
@@ -1945,26 +1945,26 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="15">
@@ -1997,10 +1997,10 @@
       <c r="R12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="20">
-        <v>0</v>
-      </c>
-      <c r="T12" s="33" t="s">
+      <c r="S12" s="30">
+        <v>0</v>
+      </c>
+      <c r="T12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="U12" s="17"/>
@@ -2023,14 +2023,14 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
       <c r="I13" s="16">
         <v>0</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="R13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="21"/>
+      <c r="S13" s="33"/>
       <c r="T13" s="34"/>
       <c r="U13" s="17"/>
       <c r="V13" s="18"/>
@@ -2083,28 +2083,28 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="29">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="14">
@@ -2137,10 +2137,10 @@
       <c r="R14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="35" t="s">
+      <c r="S14" s="29">
+        <v>0</v>
+      </c>
+      <c r="T14" s="31" t="s">
         <v>10</v>
       </c>
       <c r="U14" s="17"/>
@@ -2163,14 +2163,14 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="15">
         <v>0</v>
       </c>
@@ -2201,8 +2201,8 @@
       <c r="R15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="20"/>
-      <c r="T15" s="33"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="32"/>
       <c r="U15" s="17"/>
       <c r="V15" s="18"/>
       <c r="X15" s="1" t="s">
@@ -2223,26 +2223,26 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="30">
+        <v>0</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="30">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="20">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="15">
@@ -2275,10 +2275,10 @@
       <c r="R16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="27">
+      <c r="S16" s="21">
         <v>1</v>
       </c>
-      <c r="T16" s="30" t="s">
+      <c r="T16" s="20" t="s">
         <v>82</v>
       </c>
       <c r="U16" s="17"/>
@@ -2291,24 +2291,24 @@
         <v>66</v>
       </c>
       <c r="Z16" s="1">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="AA16" s="5">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>-23</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="15">
         <v>0</v>
       </c>
@@ -2339,34 +2339,34 @@
       <c r="R17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="27"/>
-      <c r="T17" s="30"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="20"/>
       <c r="U17" s="17"/>
       <c r="V17" s="18"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="30">
+        <v>0</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="20">
-        <v>0</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="30">
+        <v>0</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
-      <c r="H18" s="20" t="s">
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="15">
@@ -2399,10 +2399,10 @@
       <c r="R18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="27">
+      <c r="S18" s="21">
         <v>1</v>
       </c>
-      <c r="T18" s="30" t="s">
+      <c r="T18" s="20" t="s">
         <v>82</v>
       </c>
       <c r="U18" s="17"/>
@@ -2425,14 +2425,14 @@
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
       <c r="I19" s="16">
         <v>0</v>
       </c>
@@ -2463,8 +2463,8 @@
       <c r="R19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="S19" s="28"/>
-      <c r="T19" s="31"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="24"/>
       <c r="U19" s="17"/>
       <c r="V19" s="18"/>
       <c r="X19" s="1" t="s">
@@ -2486,28 +2486,28 @@
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="19">
-        <v>0</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="29">
+        <v>0</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="29">
+        <v>0</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="29">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29" t="s">
         <v>107</v>
       </c>
       <c r="I20" s="14">
@@ -2540,10 +2540,10 @@
       <c r="R20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="23">
         <v>1</v>
       </c>
-      <c r="T20" s="29" t="s">
+      <c r="T20" s="19" t="s">
         <v>118</v>
       </c>
       <c r="U20" s="17"/>
@@ -2566,14 +2566,14 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="15">
         <v>0</v>
       </c>
@@ -2604,8 +2604,8 @@
       <c r="R21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S21" s="27"/>
-      <c r="T21" s="30"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="20"/>
       <c r="U21" s="17"/>
       <c r="V21" s="18"/>
       <c r="X21" s="1" t="s">
@@ -2626,26 +2626,26 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="30">
+        <v>0</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="20">
-        <v>0</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="30">
+        <v>0</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="21">
         <v>5</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="21" t="s">
         <v>108</v>
       </c>
       <c r="I22" s="11">
@@ -2678,10 +2678,10 @@
       <c r="R22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22" s="21">
         <v>1</v>
       </c>
-      <c r="T22" s="30" t="s">
+      <c r="T22" s="20" t="s">
         <v>118</v>
       </c>
       <c r="U22" s="17"/>
@@ -2704,14 +2704,14 @@
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="11">
         <v>4</v>
       </c>
@@ -2742,8 +2742,8 @@
       <c r="R23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S23" s="27"/>
-      <c r="T23" s="30"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="20"/>
       <c r="U23" s="17"/>
       <c r="V23" s="18"/>
       <c r="X23" s="1" t="s">
@@ -2764,26 +2764,26 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="30">
+        <v>0</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20" t="s">
+      <c r="E24" s="30">
+        <v>0</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="20" t="s">
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>108</v>
       </c>
       <c r="I24" s="15">
@@ -2816,10 +2816,10 @@
       <c r="R24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="21">
         <v>1</v>
       </c>
-      <c r="T24" s="30" t="s">
+      <c r="T24" s="20" t="s">
         <v>118</v>
       </c>
       <c r="U24" s="17"/>
@@ -2832,24 +2832,24 @@
         <v>66</v>
       </c>
       <c r="Z24" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AA24" s="5">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="16">
         <v>0</v>
       </c>
@@ -2880,24 +2880,24 @@
       <c r="R25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="S25" s="28"/>
-      <c r="T25" s="31"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="24"/>
       <c r="U25" s="17"/>
       <c r="V25" s="18"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="26">
-        <v>15</v>
-      </c>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="23">
+        <v>15</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>122</v>
       </c>
       <c r="E26" s="13">
@@ -2906,10 +2906,10 @@
       <c r="F26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="26">
-        <v>15</v>
-      </c>
-      <c r="H26" s="26" t="s">
+      <c r="G26" s="23">
+        <v>15</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>129</v>
       </c>
       <c r="I26" s="13">
@@ -2918,10 +2918,10 @@
       <c r="J26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="26">
-        <v>15</v>
-      </c>
-      <c r="L26" s="26" t="s">
+      <c r="K26" s="23">
+        <v>15</v>
+      </c>
+      <c r="L26" s="23" t="s">
         <v>136</v>
       </c>
       <c r="M26" s="13">
@@ -2930,22 +2930,22 @@
       <c r="N26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="23">
         <v>5</v>
       </c>
-      <c r="P26" s="26" t="s">
+      <c r="P26" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="Q26" s="26">
-        <v>15</v>
-      </c>
-      <c r="R26" s="26" t="s">
+      <c r="Q26" s="23">
+        <v>15</v>
+      </c>
+      <c r="R26" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26" s="23">
         <v>1</v>
       </c>
-      <c r="T26" s="29" t="s">
+      <c r="T26" s="19" t="s">
         <v>118</v>
       </c>
       <c r="U26" s="17"/>
@@ -2957,47 +2957,47 @@
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="AA26" s="5">
         <f>Y26-Z26</f>
-        <v>-436</v>
+        <v>-448</v>
       </c>
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="11">
         <v>15</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="11">
         <v>15</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="11">
         <v>15</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="30"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="20"/>
       <c r="U27" s="17"/>
       <c r="V27" s="18"/>
       <c r="X27" s="1" t="s">
@@ -3008,71 +3008,71 @@
         <v>269</v>
       </c>
       <c r="Z27" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AA27" s="7">
         <f>Y27-Z27</f>
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="27">
-        <v>15</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="21">
+        <v>15</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="27">
-        <v>15</v>
-      </c>
-      <c r="F28" s="27" t="s">
+      <c r="E28" s="21">
+        <v>15</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="27">
-        <v>15</v>
-      </c>
-      <c r="H28" s="27" t="s">
+      <c r="G28" s="21">
+        <v>15</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="27">
-        <v>15</v>
-      </c>
-      <c r="J28" s="27" t="s">
+      <c r="I28" s="21">
+        <v>15</v>
+      </c>
+      <c r="J28" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="27">
-        <v>15</v>
-      </c>
-      <c r="L28" s="27" t="s">
+      <c r="K28" s="21">
+        <v>15</v>
+      </c>
+      <c r="L28" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="M28" s="27">
-        <v>15</v>
-      </c>
-      <c r="N28" s="27" t="s">
+      <c r="M28" s="21">
+        <v>15</v>
+      </c>
+      <c r="N28" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="27">
+      <c r="O28" s="21">
         <v>5</v>
       </c>
-      <c r="P28" s="27" t="s">
+      <c r="P28" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="Q28" s="27">
-        <v>15</v>
-      </c>
-      <c r="R28" s="27" t="s">
+      <c r="Q28" s="21">
+        <v>15</v>
+      </c>
+      <c r="R28" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="S28" s="27">
+      <c r="S28" s="21">
         <v>1</v>
       </c>
-      <c r="T28" s="30" t="s">
+      <c r="T28" s="20" t="s">
         <v>145</v>
       </c>
       <c r="U28" s="17"/>
@@ -3093,26 +3093,26 @@
       <c r="AB28" s="5"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="30"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="20"/>
       <c r="U29" s="17"/>
       <c r="V29" s="18"/>
       <c r="X29" s="1" t="s">
@@ -3123,71 +3123,71 @@
         <v>186</v>
       </c>
       <c r="Z29" s="1">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AA29" s="5">
         <f>Y29-Z29</f>
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="27">
-        <v>15</v>
-      </c>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="21">
+        <v>15</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="27">
-        <v>15</v>
-      </c>
-      <c r="F30" s="27" t="s">
+      <c r="E30" s="21">
+        <v>15</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="27">
-        <v>15</v>
-      </c>
-      <c r="H30" s="27" t="s">
+      <c r="G30" s="21">
+        <v>15</v>
+      </c>
+      <c r="H30" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="27">
-        <v>15</v>
-      </c>
-      <c r="J30" s="27" t="s">
+      <c r="I30" s="21">
+        <v>15</v>
+      </c>
+      <c r="J30" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="27">
-        <v>15</v>
-      </c>
-      <c r="L30" s="27" t="s">
+      <c r="K30" s="21">
+        <v>15</v>
+      </c>
+      <c r="L30" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="27">
-        <v>15</v>
-      </c>
-      <c r="N30" s="27" t="s">
+      <c r="M30" s="21">
+        <v>15</v>
+      </c>
+      <c r="N30" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O30" s="21">
         <v>5</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="Q30" s="27">
-        <v>15</v>
-      </c>
-      <c r="R30" s="27" t="s">
+      <c r="Q30" s="21">
+        <v>15</v>
+      </c>
+      <c r="R30" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="S30" s="27">
+      <c r="S30" s="21">
         <v>1</v>
       </c>
-      <c r="T30" s="30" t="s">
+      <c r="T30" s="20" t="s">
         <v>118</v>
       </c>
       <c r="U30" s="17"/>
@@ -3196,26 +3196,26 @@
       <c r="AB30" s="5"/>
     </row>
     <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="31"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="24"/>
       <c r="U31" s="17"/>
       <c r="V31" s="18"/>
       <c r="X31" s="1" t="s">
@@ -3302,11 +3302,11 @@
         <v>144</v>
       </c>
       <c r="Z33" s="1">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AA33" s="6">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AB33" s="5"/>
     </row>
@@ -3413,11 +3413,11 @@
         <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA36" s="5">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="AB36" s="5"/>
     </row>
@@ -3524,11 +3524,11 @@
         <v>32</v>
       </c>
       <c r="Z41" s="1">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AA41" s="5">
         <f t="shared" ref="AA41:AA48" si="4">Y41-Z41</f>
-        <v>-9</v>
+        <v>-17</v>
       </c>
       <c r="AB41" s="5"/>
     </row>
@@ -3558,11 +3558,11 @@
         <v>5</v>
       </c>
       <c r="Z43" s="1">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA43" s="5">
         <f t="shared" si="4"/>
-        <v>-36</v>
+        <v>-39</v>
       </c>
       <c r="AB43" s="5"/>
     </row>
@@ -3577,11 +3577,11 @@
         <v>30</v>
       </c>
       <c r="Z44" s="7">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA44" s="7">
         <f t="shared" si="4"/>
-        <v>-12</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3629,11 +3629,11 @@
         <v>0</v>
       </c>
       <c r="Z47" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA47" s="7">
         <f t="shared" si="4"/>
-        <v>-20</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
@@ -3811,89 +3811,74 @@
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="G22:G23"/>
@@ -3918,74 +3903,89 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="T30:T31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -795,22 +795,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -822,28 +816,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1196,42 +1196,42 @@
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="28">
+      <c r="C1" s="22">
         <v>1</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22">
         <v>5</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22">
         <v>6</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22">
         <v>7</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28">
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22">
         <v>8</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28">
+      <c r="R1" s="22"/>
+      <c r="S1" s="22">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
+      <c r="T1" s="22"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
         <v>95</v>
@@ -1247,28 +1247,28 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23">
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
         <v>5</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="26">
         <v>12</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="26">
         <v>5</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="13">
@@ -1301,16 +1301,16 @@
       <c r="R2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="26">
         <v>1</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="26">
+      <c r="U2" s="24">
         <v>5</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="22" t="s">
         <v>96</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -1321,23 +1321,23 @@
         <v>15</v>
       </c>
       <c r="Z2" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" ref="AA2:AA8" si="0">Y2-Z2</f>
-        <v>-15</v>
+        <v>-22</v>
       </c>
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="11">
         <v>15</v>
       </c>
@@ -1368,10 +1368,10 @@
       <c r="R3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="21"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="28"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="22"/>
       <c r="X3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1380,36 +1380,36 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AA3" s="5">
         <f t="shared" si="0"/>
-        <v>-67</v>
+        <v>-72</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="27">
         <v>5</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="27">
         <v>12</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="27">
         <v>5</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="11">
@@ -1442,10 +1442,10 @@
       <c r="R4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="27">
         <v>1</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="30" t="s">
         <v>10</v>
       </c>
       <c r="U4" s="11">
@@ -1462,24 +1462,24 @@
         <v>15</v>
       </c>
       <c r="Z4" s="1">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="AA4" s="5">
         <f t="shared" si="0"/>
-        <v>-93</v>
+        <v>-105</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="11">
         <v>15</v>
       </c>
@@ -1510,8 +1510,8 @@
       <c r="R5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="20"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="30"/>
       <c r="U5" s="11">
         <v>3</v>
       </c>
@@ -1536,26 +1536,26 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="27">
         <v>12</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="27">
         <v>5</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="11">
@@ -1588,10 +1588,10 @@
       <c r="R6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="27">
         <v>1</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="30" t="s">
         <v>10</v>
       </c>
       <c r="U6" s="11">
@@ -1617,14 +1617,14 @@
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="12">
         <v>15</v>
       </c>
@@ -1655,8 +1655,8 @@
       <c r="R7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="S7" s="22"/>
-      <c r="T7" s="24"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
       <c r="U7" s="11">
         <v>5</v>
       </c>
@@ -1680,28 +1680,28 @@
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="29">
-        <v>0</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="29">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="29">
-        <v>0</v>
-      </c>
-      <c r="H8" s="29" t="s">
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="14">
@@ -1734,10 +1734,10 @@
       <c r="R8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="26">
         <v>1</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" s="29" t="s">
         <v>90</v>
       </c>
       <c r="U8" s="17"/>
@@ -1759,14 +1759,14 @@
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="15">
         <v>0</v>
       </c>
@@ -1797,8 +1797,8 @@
       <c r="R9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="20"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="30"/>
       <c r="U9" s="17"/>
       <c r="V9" s="18"/>
       <c r="AA9" s="5"/>
@@ -1806,26 +1806,26 @@
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="15">
@@ -1858,10 +1858,10 @@
       <c r="R10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="27">
         <v>1</v>
       </c>
-      <c r="T10" s="20" t="s">
+      <c r="T10" s="30" t="s">
         <v>82</v>
       </c>
       <c r="U10" s="17"/>
@@ -1885,14 +1885,14 @@
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="15">
         <v>0</v>
       </c>
@@ -1923,8 +1923,8 @@
       <c r="R11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="21"/>
-      <c r="T11" s="20"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="30"/>
       <c r="U11" s="17"/>
       <c r="V11" s="18"/>
       <c r="X11" s="1" t="s">
@@ -1945,26 +1945,26 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="15">
@@ -1997,10 +1997,10 @@
       <c r="R12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="30">
-        <v>0</v>
-      </c>
-      <c r="T12" s="32" t="s">
+      <c r="S12" s="20">
+        <v>0</v>
+      </c>
+      <c r="T12" s="33" t="s">
         <v>16</v>
       </c>
       <c r="U12" s="17"/>
@@ -2023,14 +2023,14 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="16">
         <v>0</v>
       </c>
@@ -2061,7 +2061,7 @@
       <c r="R13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="33"/>
+      <c r="S13" s="21"/>
       <c r="T13" s="34"/>
       <c r="U13" s="17"/>
       <c r="V13" s="18"/>
@@ -2083,28 +2083,28 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="29" t="s">
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="29">
-        <v>0</v>
-      </c>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="29">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29" t="s">
+      <c r="G14" s="19">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="I14" s="14">
@@ -2137,10 +2137,10 @@
       <c r="R14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="29">
-        <v>0</v>
-      </c>
-      <c r="T14" s="31" t="s">
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="35" t="s">
         <v>10</v>
       </c>
       <c r="U14" s="17"/>
@@ -2163,14 +2163,14 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="15">
         <v>0</v>
       </c>
@@ -2201,8 +2201,8 @@
       <c r="R15" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="30"/>
-      <c r="T15" s="32"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="33"/>
       <c r="U15" s="17"/>
       <c r="V15" s="18"/>
       <c r="X15" s="1" t="s">
@@ -2223,26 +2223,26 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="30">
-        <v>0</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="30">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I16" s="15">
@@ -2275,10 +2275,10 @@
       <c r="R16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="27">
         <v>1</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="30" t="s">
         <v>82</v>
       </c>
       <c r="U16" s="17"/>
@@ -2301,14 +2301,14 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="15">
         <v>0</v>
       </c>
@@ -2339,34 +2339,34 @@
       <c r="R17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="21"/>
-      <c r="T17" s="20"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="30"/>
       <c r="U17" s="17"/>
       <c r="V17" s="18"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="30">
-        <v>0</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="30">
-        <v>0</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="s">
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I18" s="15">
@@ -2399,10 +2399,10 @@
       <c r="R18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="27">
         <v>1</v>
       </c>
-      <c r="T18" s="20" t="s">
+      <c r="T18" s="30" t="s">
         <v>82</v>
       </c>
       <c r="U18" s="17"/>
@@ -2425,14 +2425,14 @@
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="16">
         <v>0</v>
       </c>
@@ -2463,8 +2463,8 @@
       <c r="R19" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="S19" s="22"/>
-      <c r="T19" s="24"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="31"/>
       <c r="U19" s="17"/>
       <c r="V19" s="18"/>
       <c r="X19" s="1" t="s">
@@ -2486,28 +2486,28 @@
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="29">
-        <v>0</v>
-      </c>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="29">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="29">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="s">
+      <c r="G20" s="19">
+        <v>0</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>107</v>
       </c>
       <c r="I20" s="14">
@@ -2540,10 +2540,10 @@
       <c r="R20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="26">
         <v>1</v>
       </c>
-      <c r="T20" s="19" t="s">
+      <c r="T20" s="29" t="s">
         <v>118</v>
       </c>
       <c r="U20" s="17"/>
@@ -2566,14 +2566,14 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="15">
         <v>0</v>
       </c>
@@ -2604,8 +2604,8 @@
       <c r="R21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S21" s="21"/>
-      <c r="T21" s="20"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="30"/>
       <c r="U21" s="17"/>
       <c r="V21" s="18"/>
       <c r="X21" s="1" t="s">
@@ -2626,26 +2626,26 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="30">
-        <v>0</v>
-      </c>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="20">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="30">
-        <v>0</v>
-      </c>
-      <c r="F22" s="30" t="s">
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="27">
         <v>5</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="27" t="s">
         <v>108</v>
       </c>
       <c r="I22" s="11">
@@ -2678,10 +2678,10 @@
       <c r="R22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="27">
         <v>1</v>
       </c>
-      <c r="T22" s="20" t="s">
+      <c r="T22" s="30" t="s">
         <v>118</v>
       </c>
       <c r="U22" s="17"/>
@@ -2704,14 +2704,14 @@
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="11">
         <v>4</v>
       </c>
@@ -2742,8 +2742,8 @@
       <c r="R23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="S23" s="21"/>
-      <c r="T23" s="20"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="30"/>
       <c r="U23" s="17"/>
       <c r="V23" s="18"/>
       <c r="X23" s="1" t="s">
@@ -2764,26 +2764,26 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="30">
-        <v>0</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="30">
-        <v>0</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="30">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="s">
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="20" t="s">
         <v>108</v>
       </c>
       <c r="I24" s="15">
@@ -2816,10 +2816,10 @@
       <c r="R24" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="27">
         <v>1</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="30" t="s">
         <v>118</v>
       </c>
       <c r="U24" s="17"/>
@@ -2842,14 +2842,14 @@
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="16">
         <v>0</v>
       </c>
@@ -2880,24 +2880,24 @@
       <c r="R25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="S25" s="22"/>
-      <c r="T25" s="24"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="31"/>
       <c r="U25" s="17"/>
       <c r="V25" s="18"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="23">
-        <v>15</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="26">
+        <v>15</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>122</v>
       </c>
       <c r="E26" s="13">
@@ -2906,10 +2906,10 @@
       <c r="F26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="23">
-        <v>15</v>
-      </c>
-      <c r="H26" s="23" t="s">
+      <c r="G26" s="26">
+        <v>15</v>
+      </c>
+      <c r="H26" s="26" t="s">
         <v>129</v>
       </c>
       <c r="I26" s="13">
@@ -2918,10 +2918,10 @@
       <c r="J26" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="K26" s="23">
-        <v>15</v>
-      </c>
-      <c r="L26" s="23" t="s">
+      <c r="K26" s="26">
+        <v>15</v>
+      </c>
+      <c r="L26" s="26" t="s">
         <v>136</v>
       </c>
       <c r="M26" s="13">
@@ -2930,22 +2930,22 @@
       <c r="N26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="O26" s="23">
+      <c r="O26" s="26">
         <v>5</v>
       </c>
-      <c r="P26" s="23" t="s">
+      <c r="P26" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="Q26" s="23">
-        <v>15</v>
-      </c>
-      <c r="R26" s="23" t="s">
+      <c r="Q26" s="26">
+        <v>15</v>
+      </c>
+      <c r="R26" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="26">
         <v>1</v>
       </c>
-      <c r="T26" s="19" t="s">
+      <c r="T26" s="29" t="s">
         <v>118</v>
       </c>
       <c r="U26" s="17"/>
@@ -2957,47 +2957,47 @@
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AA26" s="5">
         <f>Y26-Z26</f>
-        <v>-448</v>
+        <v>-452</v>
       </c>
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="11">
         <v>15</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
       <c r="I27" s="11">
         <v>15</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="11">
         <v>15</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="20"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="30"/>
       <c r="U27" s="17"/>
       <c r="V27" s="18"/>
       <c r="X27" s="1" t="s">
@@ -3008,71 +3008,71 @@
         <v>269</v>
       </c>
       <c r="Z27" s="1">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="AA27" s="7">
         <f>Y27-Z27</f>
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="21">
-        <v>15</v>
-      </c>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="27">
+        <v>15</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="21">
-        <v>15</v>
-      </c>
-      <c r="F28" s="21" t="s">
+      <c r="E28" s="27">
+        <v>15</v>
+      </c>
+      <c r="F28" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="G28" s="21">
-        <v>15</v>
-      </c>
-      <c r="H28" s="21" t="s">
+      <c r="G28" s="27">
+        <v>15</v>
+      </c>
+      <c r="H28" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="21">
-        <v>15</v>
-      </c>
-      <c r="J28" s="21" t="s">
+      <c r="I28" s="27">
+        <v>15</v>
+      </c>
+      <c r="J28" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="21">
-        <v>15</v>
-      </c>
-      <c r="L28" s="21" t="s">
+      <c r="K28" s="27">
+        <v>15</v>
+      </c>
+      <c r="L28" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="M28" s="21">
-        <v>15</v>
-      </c>
-      <c r="N28" s="21" t="s">
+      <c r="M28" s="27">
+        <v>15</v>
+      </c>
+      <c r="N28" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="27">
         <v>5</v>
       </c>
-      <c r="P28" s="21" t="s">
+      <c r="P28" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="Q28" s="21">
-        <v>15</v>
-      </c>
-      <c r="R28" s="21" t="s">
+      <c r="Q28" s="27">
+        <v>15</v>
+      </c>
+      <c r="R28" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="27">
         <v>1</v>
       </c>
-      <c r="T28" s="20" t="s">
+      <c r="T28" s="30" t="s">
         <v>145</v>
       </c>
       <c r="U28" s="17"/>
@@ -3084,35 +3084,35 @@
         <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AA28" s="5">
         <f>Y28-Z28</f>
-        <v>-145</v>
+        <v>-150</v>
       </c>
       <c r="AB28" s="5"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="20"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="30"/>
       <c r="U29" s="17"/>
       <c r="V29" s="18"/>
       <c r="X29" s="1" t="s">
@@ -3132,62 +3132,62 @@
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="21">
-        <v>15</v>
-      </c>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="27">
+        <v>15</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="21">
-        <v>15</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="E30" s="27">
+        <v>15</v>
+      </c>
+      <c r="F30" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="G30" s="21">
-        <v>15</v>
-      </c>
-      <c r="H30" s="21" t="s">
+      <c r="G30" s="27">
+        <v>15</v>
+      </c>
+      <c r="H30" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="I30" s="21">
-        <v>15</v>
-      </c>
-      <c r="J30" s="21" t="s">
+      <c r="I30" s="27">
+        <v>15</v>
+      </c>
+      <c r="J30" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="21">
-        <v>15</v>
-      </c>
-      <c r="L30" s="21" t="s">
+      <c r="K30" s="27">
+        <v>15</v>
+      </c>
+      <c r="L30" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="M30" s="21">
-        <v>15</v>
-      </c>
-      <c r="N30" s="21" t="s">
+      <c r="M30" s="27">
+        <v>15</v>
+      </c>
+      <c r="N30" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="O30" s="21">
+      <c r="O30" s="27">
         <v>5</v>
       </c>
-      <c r="P30" s="21" t="s">
+      <c r="P30" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="Q30" s="21">
-        <v>15</v>
-      </c>
-      <c r="R30" s="21" t="s">
+      <c r="Q30" s="27">
+        <v>15</v>
+      </c>
+      <c r="R30" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30" s="27">
         <v>1</v>
       </c>
-      <c r="T30" s="20" t="s">
+      <c r="T30" s="30" t="s">
         <v>118</v>
       </c>
       <c r="U30" s="17"/>
@@ -3196,26 +3196,26 @@
       <c r="AB30" s="5"/>
     </row>
     <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="24"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="31"/>
       <c r="U31" s="17"/>
       <c r="V31" s="18"/>
       <c r="X31" s="1" t="s">
@@ -3451,11 +3451,11 @@
         <v>24</v>
       </c>
       <c r="Z37" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA37" s="7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="AB37" s="5"/>
     </row>
@@ -3524,11 +3524,11 @@
         <v>32</v>
       </c>
       <c r="Z41" s="1">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AA41" s="5">
         <f t="shared" ref="AA41:AA48" si="4">Y41-Z41</f>
-        <v>-17</v>
+        <v>-22</v>
       </c>
       <c r="AB41" s="5"/>
     </row>
@@ -3541,11 +3541,11 @@
         <v>60</v>
       </c>
       <c r="Z42" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AA42" s="5">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB42" s="5"/>
     </row>
@@ -3558,11 +3558,11 @@
         <v>5</v>
       </c>
       <c r="Z43" s="1">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AA43" s="5">
         <f t="shared" si="4"/>
-        <v>-39</v>
+        <v>-42</v>
       </c>
       <c r="AB43" s="5"/>
     </row>
@@ -3577,11 +3577,11 @@
         <v>30</v>
       </c>
       <c r="Z44" s="7">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AA44" s="7">
         <f t="shared" si="4"/>
-        <v>-14</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3612,11 +3612,11 @@
         <v>9</v>
       </c>
       <c r="Z46" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AA46" s="7">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3629,11 +3629,11 @@
         <v>0</v>
       </c>
       <c r="Z47" s="7">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA47" s="7">
         <f t="shared" si="4"/>
-        <v>-21</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
@@ -3645,11 +3645,11 @@
         <v>13</v>
       </c>
       <c r="Z48" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA48" s="5">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB48" s="5"/>
     </row>
@@ -3811,20 +3811,143 @@
     </row>
   </sheetData>
   <mergeCells count="175">
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
@@ -3849,143 +3972,20 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>技能1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,11 +100,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>玉藻前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑之辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓之辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪之辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑之辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术之辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀之辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑之魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓之魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪之魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑之魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术之魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀之魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂之魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂之辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑之秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓之秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪之秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑之秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术之秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀之秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂之秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄之证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚影之尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界树种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼魂提灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八连双晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇之宝玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间齿轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁断书页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工幼体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨蹄铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮神心脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>龙之逆鳞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔石</t>
+    <t>传承结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源赖光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战马幼角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之泪石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑兽脂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之逆鳞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼魂提灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼魂提灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界树种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界树种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界树种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁断书页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,383 +344,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>凶骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚影之尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉藻前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑之辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓之辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪之辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑之辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术之辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀之辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑之魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓之魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪之魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑之魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术之魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀之魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂之魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂之辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑之秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓之秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪之秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑之秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术之秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀之秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂之秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄之证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凶骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚影之尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界树种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼魂提灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八连双晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇之宝玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤凰羽毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无间齿轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁断书页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人工幼体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陨蹄铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛮神心脏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之逆鳞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传承结晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>差额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>源赖光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战马幼角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血之泪石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑兽脂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之逆鳞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之逆鳞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凶骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之逆鳞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凶骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凶骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚影之尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚影之尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传承结晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼魂提灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼魂提灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界树种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界树种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界树种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁断书页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传承结晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2</t>
+    <t>血之泪石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凶骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血之泪石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血之泪石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两仪式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辉石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤凰羽毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤凰羽毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚影之尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚影之尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八连双晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八连双晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼魂提灯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -737,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,6 +654,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,79 +1059,79 @@
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="22">
+      <c r="C1" s="23">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23">
         <v>2</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23">
         <v>3</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23">
         <v>4</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23">
         <v>5</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23">
         <v>6</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23">
         <v>7</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23">
         <v>8</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23">
         <v>9</v>
       </c>
-      <c r="T1" s="22"/>
+      <c r="T1" s="23"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="A2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27">
         <v>5</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="27">
         <v>12</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="27">
         <v>5</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="13">
@@ -1301,43 +1164,43 @@
       <c r="R2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="27">
         <v>1</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="25">
         <v>5</v>
       </c>
-      <c r="V2" s="22" t="s">
-        <v>96</v>
+      <c r="V2" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Y2" s="1">
-        <f>C26</f>
+        <f>C14</f>
         <v>15</v>
       </c>
       <c r="Z2" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" ref="AA2:AA8" si="0">Y2-Z2</f>
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="11">
         <v>15</v>
       </c>
@@ -1366,50 +1229,50 @@
         <v>10</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="S3" s="28"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="23"/>
       <c r="X3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="1">
-        <f>C28</f>
+        <f>C16</f>
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA3" s="5">
         <f t="shared" si="0"/>
-        <v>-72</v>
+        <v>-73</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="28">
         <v>5</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="28">
         <v>12</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="28">
         <v>5</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="28" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="11">
@@ -1442,44 +1305,44 @@
       <c r="R4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="28">
         <v>1</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="U4" s="11">
         <v>29</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="1">
-        <f>C30</f>
+        <f>C18</f>
         <v>15</v>
       </c>
       <c r="Z4" s="1">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AA4" s="5">
         <f t="shared" si="0"/>
-        <v>-105</v>
+        <v>-110</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="11">
         <v>15</v>
       </c>
@@ -1508,21 +1371,21 @@
         <v>10</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" s="27"/>
-      <c r="T5" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="S5" s="28"/>
+      <c r="T5" s="31"/>
       <c r="U5" s="11">
         <v>3</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y5" s="1">
-        <f>E27</f>
+        <f>E15</f>
         <v>15</v>
       </c>
       <c r="Z5" s="1">
@@ -1536,26 +1399,26 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="28">
         <v>5</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="28">
         <v>12</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="28">
         <v>5</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="28" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="11">
@@ -1588,23 +1451,23 @@
       <c r="R6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6" s="28">
         <v>1</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="T6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="U6" s="11">
         <v>6</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Y6" s="1">
-        <f>E26</f>
+        <f>E14</f>
         <v>15</v>
       </c>
       <c r="Z6" s="1">
@@ -1617,14 +1480,14 @@
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="12">
         <v>15</v>
       </c>
@@ -1653,21 +1516,21 @@
         <v>10</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
+        <v>62</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="32"/>
       <c r="U7" s="11">
         <v>5</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Y7" s="1">
-        <f>E30</f>
+        <f>E18</f>
         <v>15</v>
       </c>
       <c r="Z7" s="1">
@@ -1680,28 +1543,28 @@
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="19">
-        <v>0</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="A8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="14">
@@ -1720,33 +1583,33 @@
         <v>0</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="O8" s="14">
         <v>0</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="14">
         <v>0</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="S8" s="26">
-        <v>1</v>
-      </c>
-      <c r="T8" s="29" t="s">
-        <v>90</v>
+        <v>74</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="36" t="s">
+        <v>76</v>
       </c>
       <c r="U8" s="17"/>
       <c r="V8" s="18"/>
       <c r="X8" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Y8" s="1">
-        <f>E28+C2+C4+C6+E2+E4+E6</f>
+        <f>E16+C2+C4+C6+E2+E4+E6</f>
         <v>66</v>
       </c>
       <c r="Z8" s="1">
@@ -1759,14 +1622,14 @@
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="15">
         <v>0</v>
       </c>
@@ -1783,22 +1646,22 @@
         <v>0</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="O9" s="15">
         <v>0</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="15">
         <v>0</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="30"/>
+        <v>75</v>
+      </c>
+      <c r="S9" s="21"/>
+      <c r="T9" s="34"/>
       <c r="U9" s="17"/>
       <c r="V9" s="18"/>
       <c r="AA9" s="5"/>
@@ -1806,26 +1669,26 @@
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="15">
@@ -1844,55 +1707,55 @@
         <v>12</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="O10" s="11">
         <v>10</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="11">
         <v>22</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S10" s="27">
+        <v>73</v>
+      </c>
+      <c r="S10" s="28">
         <v>1</v>
       </c>
-      <c r="T10" s="30" t="s">
-        <v>82</v>
+      <c r="T10" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="U10" s="17"/>
       <c r="V10" s="18"/>
       <c r="X10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y10" s="1">
-        <f>G22+I22+G26</f>
-        <v>32</v>
+        <f>G14</f>
+        <v>15</v>
       </c>
       <c r="Z10" s="1">
         <v>17</v>
       </c>
       <c r="AA10" s="5">
         <f t="shared" ref="AA10:AA16" si="1">Y10-Z10</f>
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="15">
         <v>0</v>
       </c>
@@ -1909,29 +1772,29 @@
         <v>5</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="O11" s="11">
         <v>8</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="11">
         <v>24</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="S11" s="27"/>
-      <c r="T11" s="30"/>
+        <v>75</v>
+      </c>
+      <c r="S11" s="28"/>
+      <c r="T11" s="31"/>
       <c r="U11" s="17"/>
       <c r="V11" s="18"/>
       <c r="X11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Y11" s="1">
-        <f>G28</f>
+        <f>G16</f>
         <v>15</v>
       </c>
       <c r="Z11" s="1">
@@ -1945,26 +1808,26 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="15">
@@ -1997,19 +1860,19 @@
       <c r="R12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="20">
-        <v>0</v>
-      </c>
-      <c r="T12" s="33" t="s">
+      <c r="S12" s="21">
+        <v>0</v>
+      </c>
+      <c r="T12" s="34" t="s">
         <v>16</v>
       </c>
       <c r="U12" s="17"/>
       <c r="V12" s="18"/>
       <c r="X12" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Y12" s="1">
-        <f>G30</f>
+        <f>G18</f>
         <v>15</v>
       </c>
       <c r="Z12" s="1">
@@ -2023,14 +1886,14 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="16">
         <v>0</v>
       </c>
@@ -2061,15 +1924,15 @@
       <c r="R13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="21"/>
-      <c r="T13" s="34"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="35"/>
       <c r="U13" s="17"/>
       <c r="V13" s="18"/>
       <c r="X13" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Y13" s="1">
-        <f>I27</f>
+        <f>I15</f>
         <v>15</v>
       </c>
       <c r="Z13" s="1">
@@ -2083,73 +1946,73 @@
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="27">
+        <v>15</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="13">
+        <v>15</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="27">
+        <v>15</v>
+      </c>
+      <c r="H14" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="19">
-        <v>0</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>10</v>
+      <c r="I14" s="13">
+        <v>15</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="27">
+        <v>15</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="M14" s="13">
+        <v>15</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="27">
+        <v>5</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>15</v>
+      </c>
+      <c r="R14" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="S14" s="27">
+        <v>1</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="U14" s="17"/>
       <c r="V14" s="18"/>
       <c r="X14" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Y14" s="1">
-        <f>I26</f>
+        <f>I14</f>
         <v>15</v>
       </c>
       <c r="Z14" s="1">
@@ -2163,53 +2026,45 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="15">
-        <v>0</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>0</v>
-      </c>
-      <c r="R15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="20"/>
-      <c r="T15" s="33"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="11">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="11">
+        <v>15</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="11">
+        <v>15</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="31"/>
       <c r="U15" s="17"/>
       <c r="V15" s="18"/>
       <c r="X15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="Y15" s="1">
-        <f>I30</f>
+        <f>I18</f>
         <v>15</v>
       </c>
       <c r="Z15" s="1">
@@ -2223,255 +2078,215 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="28">
+        <v>15</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="28">
+        <v>15</v>
+      </c>
+      <c r="F16" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="20">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="15">
-        <v>0</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>54</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="S16" s="27">
+      <c r="G16" s="28">
+        <v>15</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="28">
+        <v>15</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="28">
+        <v>15</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="28">
+        <v>15</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="28">
+        <v>5</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="28">
+        <v>15</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="S16" s="28">
         <v>1</v>
       </c>
-      <c r="T16" s="30" t="s">
-        <v>82</v>
+      <c r="T16" s="31" t="s">
+        <v>110</v>
       </c>
       <c r="U16" s="17"/>
       <c r="V16" s="18"/>
       <c r="X16" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y16" s="1">
-        <f>I28+G2+G4+G6+I2+I4+I6</f>
+        <f>I16+G2+G4+G6+I2+I4+I6</f>
         <v>66</v>
       </c>
       <c r="Z16" s="1">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="AA16" s="5">
         <f t="shared" si="1"/>
-        <v>-23</v>
+        <v>-41</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="15">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="15">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="15">
-        <v>0</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>48</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" s="27"/>
-      <c r="T17" s="30"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="31"/>
       <c r="U17" s="17"/>
       <c r="V17" s="18"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="28">
+        <v>15</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="28">
+        <v>15</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="20">
-        <v>0</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="15">
-        <v>0</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O18" s="15">
-        <v>0</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>54</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" s="27">
+      <c r="G18" s="28">
+        <v>15</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="28">
+        <v>15</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18" s="28">
+        <v>15</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="28">
+        <v>15</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="28">
+        <v>5</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>15</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="S18" s="28">
         <v>1</v>
       </c>
-      <c r="T18" s="30" t="s">
-        <v>82</v>
+      <c r="T18" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="U18" s="17"/>
       <c r="V18" s="18"/>
       <c r="X18" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Y18" s="1">
-        <f>K20+K22+K24+M20+M22+M24+K26</f>
-        <v>66</v>
+        <f>K14</f>
+        <v>15</v>
       </c>
       <c r="Z18" s="1">
         <v>41</v>
       </c>
       <c r="AA18" s="5">
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
-        <v>25</v>
+        <v>-26</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="16">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="16">
-        <v>0</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="12">
-        <v>48</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="S19" s="28"/>
-      <c r="T19" s="31"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="32"/>
       <c r="U19" s="17"/>
       <c r="V19" s="18"/>
       <c r="X19" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Y19" s="1">
-        <f>K28</f>
+        <f>K16</f>
         <v>15</v>
       </c>
       <c r="Z19" s="1">
@@ -2486,73 +2301,33 @@
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="19">
-        <v>0</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="13">
-        <v>5</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="13">
-        <v>12</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="O20" s="13">
-        <v>20</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>18</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="S20" s="26">
-        <v>1</v>
-      </c>
-      <c r="T20" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="U20" s="17"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
       <c r="V20" s="18"/>
       <c r="X20" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y20" s="1">
-        <f>K30</f>
+        <f>K18</f>
         <v>15</v>
       </c>
       <c r="Z20" s="1">
@@ -2566,53 +2341,33 @@
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="15">
-        <v>0</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="11">
-        <v>8</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M21" s="11">
-        <v>10</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="O21" s="11">
-        <v>6</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>24</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="S21" s="27"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="17"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
       <c r="V21" s="18"/>
       <c r="X21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Y21" s="1">
-        <f>M27</f>
+        <f>M15</f>
         <v>15</v>
       </c>
       <c r="Z21" s="1">
@@ -2626,71 +2381,33 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
-      <c r="B22" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="20">
-        <v>0</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="27">
-        <v>5</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="11">
-        <v>12</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="11">
-        <v>5</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M22" s="11">
-        <v>12</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O22" s="11">
-        <v>20</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>18</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="S22" s="27">
-        <v>1</v>
-      </c>
-      <c r="T22" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="U22" s="17"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
       <c r="V22" s="18"/>
       <c r="X22" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Y22" s="1">
-        <f>M10+M26</f>
+        <f>M14+M10</f>
         <v>27</v>
       </c>
       <c r="Z22" s="1">
@@ -2704,53 +2421,33 @@
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="11">
-        <v>4</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K23" s="11">
-        <v>8</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M23" s="11">
-        <v>10</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="O23" s="11">
-        <v>6</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>24</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="S23" s="27"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="17"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="18"/>
       <c r="X23" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Y23" s="1">
-        <f>M30</f>
+        <f>M18</f>
         <v>15</v>
       </c>
       <c r="Z23" s="1">
@@ -2764,71 +2461,33 @@
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="K24" s="11">
-        <v>5</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="M24" s="11">
-        <v>12</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O24" s="11">
-        <v>20</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>18</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="S24" s="27">
-        <v>1</v>
-      </c>
-      <c r="T24" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="U24" s="17"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
       <c r="V24" s="18"/>
       <c r="X24" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y24" s="1">
-        <f>M28+K2+K4+K6+M2+M4+M6</f>
+        <f>M16+K2+K4+K6+M2+M4+M6</f>
         <v>66</v>
       </c>
       <c r="Z24" s="1">
@@ -2841,244 +2500,123 @@
       <c r="AB24" s="5"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="16">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="12">
-        <v>8</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M25" s="12">
-        <v>10</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="O25" s="12">
-        <v>6</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>24</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="S25" s="28"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="17"/>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="18"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" s="26">
-        <v>15</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="13">
-        <v>15</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="26">
-        <v>15</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" s="13">
-        <v>15</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K26" s="26">
-        <v>15</v>
-      </c>
-      <c r="L26" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="M26" s="13">
-        <v>15</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="O26" s="26">
-        <v>5</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="26">
-        <v>15</v>
-      </c>
-      <c r="R26" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="S26" s="26">
-        <v>1</v>
-      </c>
-      <c r="T26" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="U26" s="17"/>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
       <c r="V26" s="18"/>
       <c r="X26" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Y26" s="1">
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AA26" s="5">
         <f>Y26-Z26</f>
-        <v>-452</v>
+        <v>-459</v>
       </c>
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="24"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="11">
-        <v>15</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="11">
-        <v>15</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="11">
-        <v>15</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="17"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="18"/>
       <c r="X27" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y27" s="1">
-        <f>I3+I5+I7+K3+K5+K7+Q16+Q18+U4</f>
-        <v>269</v>
+        <f>I3+I5+I7+K3+K5+K7+U4</f>
+        <v>161</v>
       </c>
       <c r="Z27" s="1">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="AA27" s="7">
         <f>Y27-Z27</f>
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="27">
-        <v>15</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="27">
-        <v>15</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="27">
-        <v>15</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" s="27">
-        <v>15</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="K28" s="27">
-        <v>15</v>
-      </c>
-      <c r="L28" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="M28" s="27">
-        <v>15</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="O28" s="27">
-        <v>5</v>
-      </c>
-      <c r="P28" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q28" s="27">
-        <v>15</v>
-      </c>
-      <c r="R28" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="S28" s="27">
-        <v>1</v>
-      </c>
-      <c r="T28" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="U28" s="17"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="18"/>
       <c r="X28" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="Y28" s="1">
         <v>0</v>
@@ -3093,148 +2631,76 @@
       <c r="AB28" s="5"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="17"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
       <c r="V29" s="18"/>
       <c r="X29" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Y29" s="1">
-        <f>Q17+Q19+O20+O22+O24+M21+M23+M25</f>
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="AA29" s="5">
         <f>Y29-Z29</f>
-        <v>35</v>
+        <v>-62</v>
       </c>
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="27">
-        <v>15</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="27">
-        <v>15</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="27">
-        <v>15</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="27">
-        <v>15</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="27">
-        <v>15</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="M30" s="27">
-        <v>15</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="O30" s="27">
-        <v>5</v>
-      </c>
-      <c r="P30" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q30" s="27">
-        <v>15</v>
-      </c>
-      <c r="R30" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="S30" s="27">
-        <v>1</v>
-      </c>
-      <c r="T30" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="U30" s="17"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
       <c r="V30" s="18"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="17"/>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
       <c r="V31" s="18"/>
       <c r="X31" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Y31" s="1">
         <f>O11+Q10</f>
         <v>30</v>
       </c>
       <c r="Z31" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AA31" s="5">
         <f t="shared" ref="AA31:AA39" si="3">Y31-Z31</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="AB31" s="5"/>
     </row>
-    <row r="32" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3246,29 +2712,30 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
       <c r="V32" s="4"/>
       <c r="X32" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Y32" s="1">
-        <f>M11+O10+Q21+Q23+Q25</f>
-        <v>87</v>
+        <f>M11+O10</f>
+        <v>15</v>
       </c>
       <c r="Z32" s="1">
         <v>20</v>
       </c>
       <c r="AA32" s="5">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>-5</v>
       </c>
       <c r="AB32" s="5"/>
     </row>
@@ -3295,18 +2762,18 @@
       <c r="T33" s="7"/>
       <c r="V33" s="4"/>
       <c r="X33" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y33" s="1">
-        <f>O3+O5+O7+Q2+Q4+Q6+O21+O23+O25+Q20+Q22+Q24</f>
-        <v>144</v>
+        <f>O3+O5+O7+Q2+Q4+Q6</f>
+        <v>72</v>
       </c>
       <c r="Z33" s="1">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AA33" s="6">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>-62</v>
       </c>
       <c r="AB33" s="5"/>
     </row>
@@ -3333,7 +2800,7 @@
       <c r="T34" s="7"/>
       <c r="V34" s="4"/>
       <c r="X34" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Y34" s="1">
         <v>0</v>
@@ -3370,17 +2837,17 @@
       <c r="T35" s="7"/>
       <c r="V35" s="4"/>
       <c r="X35" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA35" s="6">
         <f t="shared" si="3"/>
-        <v>-12</v>
+        <v>-17</v>
       </c>
       <c r="AB35" s="5"/>
     </row>
@@ -3407,7 +2874,7 @@
       <c r="T36" s="7"/>
       <c r="V36" s="4"/>
       <c r="X36" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Y36" s="1">
         <v>0</v>
@@ -3444,7 +2911,7 @@
       <c r="T37" s="7"/>
       <c r="V37" s="4"/>
       <c r="X37" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Y37" s="1">
         <f>Q11</f>
@@ -3481,7 +2948,7 @@
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="X38" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Y38" s="1">
         <v>0</v>
@@ -3497,7 +2964,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X39" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
@@ -3517,52 +2984,52 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X41" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y41" s="1">
         <f>M3+M5+M7+O2+O4+O6+U2</f>
         <v>32</v>
       </c>
       <c r="Z41" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA41" s="5">
         <f t="shared" ref="AA41:AA48" si="4">Y41-Z41</f>
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="AB41" s="5"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X42" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="Y42" s="1">
-        <f>O26+O28+O30+Q26+Q28+Q30</f>
+        <f>O14+O16+O18+Q14+Q16+Q18</f>
         <v>60</v>
       </c>
       <c r="Z42" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA42" s="5">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB42" s="5"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X43" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Y43" s="1">
         <f>U7</f>
         <v>5</v>
       </c>
       <c r="Z43" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AA43" s="5">
         <f t="shared" si="4"/>
-        <v>-42</v>
+        <v>-44</v>
       </c>
       <c r="AB43" s="5"/>
     </row>
@@ -3570,10 +3037,10 @@
       <c r="U44" s="8"/>
       <c r="W44" s="8"/>
       <c r="X44" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Y44" s="7">
-        <f>Q3+Q5+Q7</f>
+        <f>Q7+Q5+Q3</f>
         <v>30</v>
       </c>
       <c r="Z44" s="7">
@@ -3588,7 +3055,7 @@
       <c r="U45" s="8"/>
       <c r="W45" s="8"/>
       <c r="X45" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Y45" s="7">
         <v>0</v>
@@ -3605,7 +3072,7 @@
       <c r="U46" s="8"/>
       <c r="W46" s="8"/>
       <c r="X46" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Y46" s="7">
         <f>U5+U6</f>
@@ -3623,33 +3090,33 @@
       <c r="U47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y47" s="7">
         <v>0</v>
       </c>
       <c r="Z47" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA47" s="7">
         <f t="shared" si="4"/>
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X48" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Y48" s="1">
-        <f>S2+S4+S6+S8+S10+S16+S18+S20+S22+S24+S26+S28+S30</f>
-        <v>13</v>
+        <f>S2+S4+S6+S10+S14+S16+S18</f>
+        <v>7</v>
       </c>
       <c r="Z48" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="5">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB48" s="5"/>
     </row>
@@ -3810,94 +3277,65 @@
       <c r="AB87" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P30:P31"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="Q28:Q29"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="R28:R29"/>
-    <mergeCell ref="R30:R31"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="S28:S29"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="S24:S25"/>
+  <mergeCells count="119">
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="V2:V3"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="S18:S19"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="T10:T11"/>
     <mergeCell ref="U2:U3"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -3941,21 +3379,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="S4:S5"/>
@@ -3972,20 +3395,8 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
   <si>
     <t>技能1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,58 @@
   </si>
   <si>
     <t>无间齿轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓呆毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -479,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -540,53 +592,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y41" sqref="Y41:Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,42 +996,42 @@
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="27">
+      <c r="C1" s="23">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23">
         <v>2</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23">
         <v>3</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23">
         <v>4</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23">
         <v>5</v>
       </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23">
         <v>6</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23">
         <v>7</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23">
         <v>8</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23">
         <v>9</v>
       </c>
-      <c r="T1" s="27"/>
+      <c r="T1" s="23"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
         <v>57</v>
@@ -989,28 +1047,28 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="33">
+        <v>0</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28">
-        <v>0</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28">
-        <v>0</v>
-      </c>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="33">
+        <v>0</v>
+      </c>
+      <c r="H2" s="33" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="14">
@@ -1046,7 +1104,7 @@
       <c r="S2" s="24">
         <v>1</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="T2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="U2" s="18"/>
@@ -1054,9 +1112,6 @@
       <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
       <c r="Z2" s="1">
         <v>41</v>
       </c>
@@ -1067,14 +1122,14 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="15">
         <v>0</v>
       </c>
@@ -1105,16 +1160,13 @@
       <c r="R3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="21"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="29"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="X3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
       <c r="Z3" s="1">
         <v>107</v>
       </c>
@@ -1126,26 +1178,26 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29">
-        <v>0</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="29">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="29">
-        <v>0</v>
-      </c>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="15">
@@ -1178,7 +1230,7 @@
       <c r="R4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="26">
         <v>0</v>
       </c>
       <c r="T4" s="30" t="s">
@@ -1189,9 +1241,6 @@
       <c r="X4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
       <c r="Z4" s="1">
         <v>142</v>
       </c>
@@ -1203,14 +1252,14 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="15">
         <v>0</v>
       </c>
@@ -1241,15 +1290,12 @@
       <c r="R5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="29"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="30"/>
       <c r="U5" s="11"/>
       <c r="X5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
       <c r="Z5" s="1">
         <v>64</v>
       </c>
@@ -1261,38 +1307,38 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29">
-        <v>0</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="29">
-        <v>0</v>
-      </c>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="29">
-        <v>0</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="18">
-        <v>12</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="18">
-        <v>5</v>
-      </c>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="20" t="s">
         <v>5</v>
       </c>
       <c r="M6" s="18">
@@ -1313,10 +1359,10 @@
       <c r="R6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="25">
         <v>1</v>
       </c>
-      <c r="T6" s="21" t="s">
+      <c r="T6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="U6" s="11"/>
@@ -1324,9 +1370,6 @@
       <c r="X6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
       <c r="Z6" s="1">
         <v>20</v>
       </c>
@@ -1337,24 +1380,24 @@
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="19">
-        <v>15</v>
-      </c>
-      <c r="J7" s="19" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="19">
-        <v>29</v>
-      </c>
-      <c r="L7" s="19" t="s">
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="M7" s="19">
@@ -1375,16 +1418,13 @@
       <c r="R7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="25"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="31"/>
       <c r="U7" s="11"/>
       <c r="V7" s="10"/>
       <c r="X7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
       <c r="Z7" s="1">
         <v>22</v>
       </c>
@@ -1419,10 +1459,10 @@
       <c r="H8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="35">
-        <v>0</v>
-      </c>
-      <c r="J8" s="35" t="s">
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>66</v>
       </c>
       <c r="K8" s="16">
@@ -1460,9 +1500,6 @@
       <c r="X8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
       <c r="Z8" s="1">
         <v>55</v>
       </c>
@@ -1473,18 +1510,18 @@
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="35">
-        <v>0</v>
-      </c>
-      <c r="J9" s="35" t="s">
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>67</v>
       </c>
       <c r="K9" s="16">
@@ -1511,8 +1548,8 @@
       <c r="R9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="AA9" s="5"/>
@@ -1520,8 +1557,8 @@
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="34">
@@ -1542,40 +1579,40 @@
       <c r="H10" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="35">
-        <v>0</v>
-      </c>
-      <c r="J10" s="35" t="s">
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="35">
-        <v>0</v>
-      </c>
-      <c r="L10" s="35" t="s">
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="35">
-        <v>0</v>
-      </c>
-      <c r="N10" s="35" t="s">
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="35">
-        <v>0</v>
-      </c>
-      <c r="P10" s="35" t="s">
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="16">
-        <v>15</v>
-      </c>
-      <c r="R10" s="16" t="s">
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="27">
-        <v>1</v>
-      </c>
-      <c r="T10" s="27" t="s">
+      <c r="S10" s="34">
+        <v>0</v>
+      </c>
+      <c r="T10" s="34" t="s">
         <v>80</v>
       </c>
       <c r="U10" s="16"/>
@@ -1583,70 +1620,63 @@
       <c r="X10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y10" s="1">
-        <f>I12</f>
-        <v>12</v>
-      </c>
       <c r="Z10" s="1">
         <v>8</v>
       </c>
       <c r="AA10" s="5">
         <f t="shared" ref="AA10:AA16" si="1">Y10-Z10</f>
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
-      <c r="I11" s="35">
-        <v>0</v>
-      </c>
-      <c r="J11" s="35" t="s">
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="35">
-        <v>0</v>
-      </c>
-      <c r="L11" s="35" t="s">
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="35">
-        <v>0</v>
-      </c>
-      <c r="N11" s="35" t="s">
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="35">
-        <v>0</v>
-      </c>
-      <c r="P11" s="35" t="s">
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="16">
-        <v>24</v>
-      </c>
-      <c r="R11" s="16" t="s">
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="X11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
       <c r="Z11" s="1">
         <v>113</v>
       </c>
@@ -1658,8 +1688,8 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="34">
@@ -1680,10 +1710,10 @@
       <c r="H12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="16">
-        <v>12</v>
-      </c>
-      <c r="J12" s="16" t="s">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="16">
@@ -1710,10 +1740,10 @@
       <c r="R12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="S12" s="27">
+      <c r="S12" s="23">
         <v>1</v>
       </c>
-      <c r="T12" s="27" t="s">
+      <c r="T12" s="23" t="s">
         <v>79</v>
       </c>
       <c r="U12" s="16"/>
@@ -1721,9 +1751,6 @@
       <c r="X12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y12" s="1">
-        <v>0</v>
-      </c>
       <c r="Z12" s="1">
         <v>53</v>
       </c>
@@ -1735,18 +1762,18 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
-      <c r="I13" s="16">
-        <v>5</v>
-      </c>
-      <c r="J13" s="16" t="s">
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>67</v>
       </c>
       <c r="K13" s="16">
@@ -1773,15 +1800,12 @@
       <c r="R13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="X13" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>63</v>
@@ -1819,9 +1843,6 @@
       <c r="X14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
       <c r="Z14" s="1">
         <v>58</v>
       </c>
@@ -1833,34 +1854,63 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="A15" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="23">
+        <v>5</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="23">
+        <v>12</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="23">
+        <v>5</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="16">
+        <v>12</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="16">
+        <v>5</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="16">
+        <v>12</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
+      <c r="S15" s="23">
+        <v>1</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="X15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y15" s="1">
-        <v>0</v>
-      </c>
       <c r="Z15" s="1">
         <v>12</v>
       </c>
@@ -1872,14 +1922,14 @@
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
@@ -1890,62 +1940,88 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16"/>
       <c r="X16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y16" s="1">
-        <f>I6</f>
-        <v>12</v>
-      </c>
       <c r="Z16" s="1">
         <v>119</v>
       </c>
       <c r="AA16" s="5">
         <f t="shared" si="1"/>
-        <v>-107</v>
+        <v>-119</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="23">
+        <v>5</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="23">
+        <v>12</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="23">
+        <v>5</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="16">
+        <v>12</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="16">
+        <v>5</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="16">
+        <v>12</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
+      <c r="S17" s="23">
+        <v>1</v>
+      </c>
+      <c r="T17" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -1956,56 +2032,79 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
       <c r="U18" s="16"/>
       <c r="V18" s="16"/>
       <c r="X18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y18" s="1">
-        <f>K8+K12+M8+M12</f>
-        <v>34</v>
-      </c>
       <c r="Z18" s="1">
         <v>27</v>
       </c>
       <c r="AA18" s="5">
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
-        <v>7</v>
+        <v>-27</v>
       </c>
       <c r="AB18" s="5"/>
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="23">
+        <v>5</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="23">
+        <v>12</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="23">
+        <v>5</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="16">
+        <v>12</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="16">
+        <v>5</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="16">
+        <v>12</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>90</v>
+      </c>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
+      <c r="S19" s="23">
+        <v>1</v>
+      </c>
+      <c r="T19" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="U19" s="16"/>
       <c r="V19" s="16"/>
       <c r="X19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
       <c r="Z19" s="1">
         <v>51</v>
       </c>
@@ -2018,14 +2117,14 @@
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -2036,15 +2135,12 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
       <c r="U20" s="13"/>
       <c r="V20" s="12"/>
       <c r="X20" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>9</v>
@@ -2082,9 +2178,6 @@
       <c r="X21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y21" s="1">
-        <v>0</v>
-      </c>
       <c r="Z21" s="1">
         <v>35</v>
       </c>
@@ -2121,9 +2214,6 @@
       <c r="X22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="1">
-        <v>0</v>
-      </c>
       <c r="Z22" s="1">
         <v>0</v>
       </c>
@@ -2160,9 +2250,6 @@
       <c r="X23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y23" s="1">
-        <v>0</v>
-      </c>
       <c r="Z23" s="1">
         <v>0</v>
       </c>
@@ -2199,16 +2286,12 @@
       <c r="X24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y24" s="1">
-        <f>K6+M6+M2</f>
-        <v>29</v>
-      </c>
       <c r="Z24" s="1">
         <v>5</v>
       </c>
       <c r="AA24" s="5">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>-5</v>
       </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="2"/>
@@ -2265,9 +2348,6 @@
       <c r="X26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y26" s="1">
-        <v>0</v>
-      </c>
       <c r="Z26" s="1">
         <v>499</v>
       </c>
@@ -2303,16 +2383,12 @@
       <c r="X27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="1">
-        <f>I7+K7</f>
-        <v>44</v>
-      </c>
       <c r="Z27" s="1">
         <v>3</v>
       </c>
       <c r="AA27" s="7">
         <f>Y27-Z27</f>
-        <v>41</v>
+        <v>-3</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
@@ -2331,9 +2407,6 @@
       <c r="X28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y28" s="1">
-        <v>0</v>
-      </c>
       <c r="Z28" s="1">
         <v>203</v>
       </c>
@@ -2358,9 +2431,6 @@
       <c r="X29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y29" s="1">
-        <v>0</v>
-      </c>
       <c r="Z29" s="1">
         <v>103</v>
       </c>
@@ -2399,9 +2469,6 @@
       <c r="V31" s="12"/>
       <c r="X31" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>0</v>
       </c>
       <c r="Z31" s="1">
         <v>1</v>
@@ -2438,16 +2505,12 @@
       <c r="X32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y32" s="1">
-        <f>I13+K13+K9</f>
-        <v>25</v>
-      </c>
       <c r="Z32" s="1">
         <v>28</v>
       </c>
       <c r="AA32" s="5">
         <f t="shared" si="3"/>
-        <v>-3</v>
+        <v>-28</v>
       </c>
       <c r="AB32" s="5"/>
     </row>
@@ -2476,16 +2539,12 @@
       <c r="X33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Y33" s="1">
-        <f>O3+O7+Q2+Q6+M9+M13+O8+O12</f>
-        <v>78</v>
-      </c>
       <c r="Z33" s="1">
         <v>150</v>
       </c>
       <c r="AA33" s="6">
         <f t="shared" si="3"/>
-        <v>-72</v>
+        <v>-150</v>
       </c>
       <c r="AB33" s="5"/>
     </row>
@@ -2514,16 +2573,12 @@
       <c r="X34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y34" s="1">
-        <f>O9+O13+Q8+Q10+Q12</f>
-        <v>55</v>
-      </c>
       <c r="Z34" s="1">
         <v>144</v>
       </c>
       <c r="AA34" s="5">
         <f t="shared" si="3"/>
-        <v>-89</v>
+        <v>-144</v>
       </c>
       <c r="AB34" s="5"/>
     </row>
@@ -2552,9 +2607,6 @@
       <c r="X35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y35" s="1">
-        <v>0</v>
-      </c>
       <c r="Z35" s="1">
         <v>56</v>
       </c>
@@ -2589,16 +2641,12 @@
       <c r="X36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Y36" s="1">
-        <f>Q9+Q11+Q13</f>
-        <v>72</v>
-      </c>
       <c r="Z36" s="1">
         <v>30</v>
       </c>
       <c r="AA36" s="5">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>-30</v>
       </c>
       <c r="AB36" s="5"/>
     </row>
@@ -2627,9 +2675,6 @@
       <c r="X37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y37" s="1">
-        <v>0</v>
-      </c>
       <c r="Z37" s="1">
         <v>34</v>
       </c>
@@ -2663,9 +2708,6 @@
       <c r="X38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y38" s="1">
-        <v>0</v>
-      </c>
       <c r="Z38" s="1">
         <v>79</v>
       </c>
@@ -2679,9 +2721,6 @@
       <c r="X39" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y39" s="1">
-        <v>0</v>
-      </c>
       <c r="Z39" s="1">
         <v>205</v>
       </c>
@@ -2699,16 +2738,12 @@
       <c r="X41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Y41" s="1">
-        <f>O2+O6+M3+M7</f>
-        <v>18</v>
-      </c>
       <c r="Z41" s="1">
         <v>69</v>
       </c>
       <c r="AA41" s="5">
         <f t="shared" ref="AA41:AA48" si="4">Y41-Z41</f>
-        <v>-51</v>
+        <v>-69</v>
       </c>
       <c r="AB41" s="5"/>
     </row>
@@ -2716,9 +2751,6 @@
       <c r="X42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y42" s="1">
-        <v>0</v>
-      </c>
       <c r="Z42" s="1">
         <v>1</v>
       </c>
@@ -2731,9 +2763,6 @@
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X43" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>0</v>
       </c>
       <c r="Z43" s="1">
         <v>93</v>
@@ -2750,16 +2779,12 @@
       <c r="X44" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="Y44" s="7">
-        <f>Q3+Q7</f>
-        <v>20</v>
-      </c>
       <c r="Z44" s="7">
         <v>61</v>
       </c>
       <c r="AA44" s="7">
         <f t="shared" si="4"/>
-        <v>-41</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -2768,9 +2793,6 @@
       <c r="X45" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Y45" s="7">
-        <v>0</v>
-      </c>
       <c r="Z45" s="7">
         <v>76</v>
       </c>
@@ -2785,9 +2807,6 @@
       <c r="X46" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Y46" s="7">
-        <v>0</v>
-      </c>
       <c r="Z46" s="7">
         <v>39</v>
       </c>
@@ -2802,9 +2821,6 @@
       <c r="X47" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Y47" s="7">
-        <v>0</v>
-      </c>
       <c r="Z47" s="7">
         <v>52</v>
       </c>
@@ -2817,16 +2833,12 @@
       <c r="X48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Y48" s="1">
-        <f>S2+S6+S8+S10+S12</f>
-        <v>5</v>
-      </c>
       <c r="Z48" s="1">
         <v>2</v>
       </c>
       <c r="AA48" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="AB48" s="5"/>
     </row>
@@ -2987,29 +2999,57 @@
       <c r="AB87" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
+  <mergeCells count="93">
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
@@ -3023,36 +3063,36 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="7875"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24780" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
   <si>
     <t>技能1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,13 +399,73 @@
   </si>
   <si>
     <t>传承结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追忆贝壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追忆贝壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲虫雕像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封魔之灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚者之锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战马幼角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战马幼角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之逆鳞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +493,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,40 +667,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -645,6 +693,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,11 +1037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y41" sqref="Y41:Y48"/>
+      <selection activeCell="AB54" sqref="AB54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,42 +1074,42 @@
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="23">
+      <c r="C1" s="26">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26">
         <v>2</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26">
         <v>3</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26">
         <v>4</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26">
         <v>5</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26">
         <v>6</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26">
         <v>7</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26">
         <v>8</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26">
         <v>9</v>
       </c>
-      <c r="T1" s="23"/>
+      <c r="T1" s="26"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
         <v>57</v>
@@ -1047,28 +1125,28 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="33">
-        <v>0</v>
-      </c>
-      <c r="D2" s="33" t="s">
+      <c r="B2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="33">
-        <v>0</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="32">
+        <v>0</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33">
-        <v>0</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="32">
+        <v>0</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="14">
@@ -1101,10 +1179,10 @@
       <c r="R2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="28">
         <v>1</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="37" t="s">
         <v>6</v>
       </c>
       <c r="U2" s="18"/>
@@ -1112,24 +1190,27 @@
       <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
       <c r="Z2" s="1">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" ref="AA2:AA8" si="0">Y2-Z2</f>
-        <v>-41</v>
+        <v>-68</v>
       </c>
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="15">
         <v>0</v>
       </c>
@@ -1160,44 +1241,48 @@
       <c r="R3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="29"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="38"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="X3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="Y3" s="1">
+        <f>C15+C17+C19+E15+E17+E19</f>
+        <v>51</v>
+      </c>
       <c r="Z3" s="1">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AA3" s="5">
         <f t="shared" si="0"/>
-        <v>-107</v>
+        <v>-61</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="26">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="33">
+        <v>0</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="15">
@@ -1230,10 +1315,10 @@
       <c r="R4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="26">
-        <v>0</v>
-      </c>
-      <c r="T4" s="30" t="s">
+      <c r="S4" s="33">
+        <v>0</v>
+      </c>
+      <c r="T4" s="39" t="s">
         <v>6</v>
       </c>
       <c r="U4" s="11"/>
@@ -1241,25 +1326,28 @@
       <c r="X4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
       <c r="Z4" s="1">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="AA4" s="5">
         <f t="shared" si="0"/>
-        <v>-142</v>
+        <v>-162</v>
       </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="15">
         <v>0</v>
       </c>
@@ -1290,43 +1378,46 @@
       <c r="R5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="26"/>
-      <c r="T5" s="30"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="39"/>
       <c r="U5" s="11"/>
       <c r="X5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
       <c r="Z5" s="1">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="0"/>
-        <v>-64</v>
+        <v>-57</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="26">
-        <v>0</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+      <c r="H6" s="33" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="20">
@@ -1341,10 +1432,10 @@
       <c r="L6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="18">
-        <v>12</v>
-      </c>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="23">
+        <v>0</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="18">
@@ -1359,10 +1450,10 @@
       <c r="R6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="35">
         <v>1</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="T6" s="38" t="s">
         <v>6</v>
       </c>
       <c r="U6" s="11"/>
@@ -1370,24 +1461,27 @@
       <c r="X6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
       <c r="Z6" s="1">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="5">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-34</v>
       </c>
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="21">
         <v>0</v>
       </c>
@@ -1400,10 +1494,10 @@
       <c r="L7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="19">
-        <v>3</v>
-      </c>
-      <c r="N7" s="19" t="s">
+      <c r="M7" s="24">
+        <v>0</v>
+      </c>
+      <c r="N7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="19">
@@ -1418,45 +1512,48 @@
       <c r="R7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="31"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="11"/>
       <c r="V7" s="10"/>
       <c r="X7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
       <c r="Z7" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AA7" s="5">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>-33</v>
       </c>
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="34">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="34">
-        <v>0</v>
-      </c>
-      <c r="F8" s="34" t="s">
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="34">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>65</v>
       </c>
       <c r="I8" s="22">
@@ -1465,22 +1562,22 @@
       <c r="J8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="16">
-        <v>5</v>
-      </c>
-      <c r="L8" s="16" t="s">
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="16">
-        <v>12</v>
-      </c>
-      <c r="N8" s="16" t="s">
+      <c r="M8" s="25">
+        <v>0</v>
+      </c>
+      <c r="N8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="16">
-        <v>10</v>
-      </c>
-      <c r="P8" s="16" t="s">
+      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="16">
@@ -1489,10 +1586,10 @@
       <c r="R8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="24">
+      <c r="S8" s="28">
         <v>1</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="28" t="s">
         <v>79</v>
       </c>
       <c r="U8" s="16"/>
@@ -1500,46 +1597,49 @@
       <c r="X8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
       <c r="Z8" s="1">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AA8" s="5">
         <f t="shared" si="0"/>
-        <v>-55</v>
+        <v>-64</v>
       </c>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="22">
         <v>0</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="16">
-        <v>10</v>
-      </c>
-      <c r="L9" s="16" t="s">
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="16">
-        <v>5</v>
-      </c>
-      <c r="N9" s="16" t="s">
+      <c r="M9" s="25">
+        <v>0</v>
+      </c>
+      <c r="N9" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="16">
-        <v>5</v>
-      </c>
-      <c r="P9" s="16" t="s">
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="16">
@@ -1548,8 +1648,8 @@
       <c r="R9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="AA9" s="5"/>
@@ -1557,26 +1657,26 @@
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="34">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="34" t="s">
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="34">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34" t="s">
+      <c r="G10" s="27">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>66</v>
       </c>
       <c r="I10" s="22">
@@ -1609,10 +1709,10 @@
       <c r="R10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="34">
-        <v>0</v>
-      </c>
-      <c r="T10" s="34" t="s">
+      <c r="S10" s="27">
+        <v>0</v>
+      </c>
+      <c r="T10" s="27" t="s">
         <v>80</v>
       </c>
       <c r="U10" s="16"/>
@@ -1620,26 +1720,29 @@
       <c r="X10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
       <c r="Z10" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AA10" s="5">
         <f t="shared" ref="AA10:AA16" si="1">Y10-Z10</f>
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="2"/>
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="22">
         <v>0</v>
       </c>
@@ -1670,44 +1773,48 @@
       <c r="R11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="X11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="Y11" s="1">
+        <f>G15+G17+G19+I19+I17+I15</f>
+        <v>51</v>
+      </c>
       <c r="Z11" s="1">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AA11" s="5">
         <f t="shared" si="1"/>
-        <v>-113</v>
+        <v>-67</v>
       </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34" t="s">
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="22">
@@ -1740,10 +1847,10 @@
       <c r="R12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="26">
         <v>1</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="T12" s="26" t="s">
         <v>79</v>
       </c>
       <c r="U12" s="16"/>
@@ -1751,25 +1858,28 @@
       <c r="X12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
       <c r="Z12" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AA12" s="5">
         <f t="shared" si="1"/>
-        <v>-53</v>
+        <v>-56</v>
       </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="22">
         <v>0</v>
       </c>
@@ -1800,19 +1910,22 @@
       <c r="R13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="X13" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
       <c r="Z13" s="1">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="AA13" s="5">
         <f t="shared" si="1"/>
-        <v>-63</v>
+        <v>-69</v>
       </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="2"/>
@@ -1843,39 +1956,42 @@
       <c r="X14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
       <c r="Z14" s="1">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="AA14" s="5">
         <f t="shared" si="1"/>
-        <v>-58</v>
+        <v>-70</v>
       </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="26">
         <v>5</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="26">
         <v>12</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="26">
         <v>5</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I15" s="16">
@@ -1896,88 +2012,130 @@
       <c r="N15" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="23">
+      <c r="O15" s="16">
+        <v>10</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>11</v>
+      </c>
+      <c r="R15" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="S15" s="26">
         <v>1</v>
       </c>
-      <c r="T15" s="23" t="s">
+      <c r="T15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
+      <c r="U15" s="16">
+        <v>8</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="X15" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
       <c r="Z15" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA15" s="5">
         <f t="shared" si="1"/>
-        <v>-12</v>
+        <v>-16</v>
       </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="16">
+        <v>12</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="16">
+        <v>24</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" s="16">
+        <v>5</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="16">
+        <v>4</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>10</v>
+      </c>
+      <c r="R16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="16">
+        <v>24</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="X16" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
       <c r="Z16" s="1">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="AA16" s="5">
         <f t="shared" si="1"/>
-        <v>-119</v>
+        <v>-165</v>
       </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="26">
         <v>5</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="26">
         <v>12</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="26">
         <v>5</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I17" s="16">
@@ -1998,78 +2156,118 @@
       <c r="N17" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="23">
+      <c r="O17" s="16">
+        <v>10</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>11</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="26">
         <v>1</v>
       </c>
-      <c r="T17" s="23" t="s">
+      <c r="T17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
+      <c r="U17" s="16">
+        <v>10</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="16">
+        <v>12</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="16">
+        <v>24</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" s="16">
+        <v>5</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" s="16">
+        <v>4</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>10</v>
+      </c>
+      <c r="R18" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="16">
+        <v>20</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="X18" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Y18" s="1">
+        <f>K12+M12</f>
+        <v>17</v>
+      </c>
       <c r="Z18" s="1">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AA18" s="5">
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
-        <v>-27</v>
-      </c>
-      <c r="AB18" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="AB18" s="41"/>
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="26">
         <v>5</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="26">
         <v>12</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="26">
         <v>5</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="26" t="s">
         <v>87</v>
       </c>
       <c r="I19" s="16">
@@ -2090,64 +2288,103 @@
       <c r="N19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="23">
+      <c r="O19" s="16">
+        <v>10</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>11</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="S19" s="26">
         <v>1</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
+      <c r="U19" s="16">
+        <v>5</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="X19" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="Y19" s="1">
+        <f>K15+K17+K19+M15+M17+M19</f>
+        <v>51</v>
+      </c>
       <c r="Z19" s="1">
         <v>51</v>
       </c>
       <c r="AA19" s="5">
         <f t="shared" si="2"/>
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="5"/>
       <c r="AC19" s="2"/>
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="13">
+        <v>12</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="13">
+        <v>24</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="13">
+        <v>5</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" s="13">
+        <v>4</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>10</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
       <c r="U20" s="13"/>
       <c r="V20" s="12"/>
       <c r="X20" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
       <c r="Z20" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA20" s="5">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="2"/>
@@ -2178,12 +2415,15 @@
       <c r="X21" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
       <c r="Z21" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA21" s="5">
         <f t="shared" si="2"/>
-        <v>-35</v>
+        <v>-36</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="2"/>
@@ -2214,12 +2454,15 @@
       <c r="X22" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
       <c r="Z22" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA22" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="2"/>
@@ -2250,6 +2493,9 @@
       <c r="X23" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
       <c r="Z23" s="1">
         <v>0</v>
       </c>
@@ -2286,14 +2532,18 @@
       <c r="X24" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="Y24" s="1">
+        <f>M2</f>
+        <v>12</v>
+      </c>
       <c r="Z24" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA24" s="5">
         <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="AB24" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="AB24" s="41"/>
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
@@ -2348,12 +2598,15 @@
       <c r="X26" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="Y26" s="1">
+        <v>0</v>
+      </c>
       <c r="Z26" s="1">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="AA26" s="5">
         <f>Y26-Z26</f>
-        <v>-499</v>
+        <v>-479</v>
       </c>
       <c r="AB26" s="5"/>
     </row>
@@ -2383,12 +2636,15 @@
       <c r="X27" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
       <c r="Z27" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AA27" s="7">
         <f>Y27-Z27</f>
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="AB27" s="5"/>
     </row>
@@ -2407,12 +2663,16 @@
       <c r="X28" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="Y28" s="1">
+        <f>I16+I18+I20+K16+K18+K20+U16</f>
+        <v>132</v>
+      </c>
       <c r="Z28" s="1">
-        <v>203</v>
+        <v>295</v>
       </c>
       <c r="AA28" s="5">
         <f>Y28-Z28</f>
-        <v>-203</v>
+        <v>-163</v>
       </c>
       <c r="AB28" s="5"/>
     </row>
@@ -2431,12 +2691,15 @@
       <c r="X29" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="Y29" s="1">
+        <v>0</v>
+      </c>
       <c r="Z29" s="1">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="AA29" s="5">
         <f>Y29-Z29</f>
-        <v>-103</v>
+        <v>-125</v>
       </c>
       <c r="AB29" s="5"/>
     </row>
@@ -2470,11 +2733,14 @@
       <c r="X31" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="Y31" s="1">
+        <v>0</v>
+      </c>
       <c r="Z31" s="1">
         <v>1</v>
       </c>
       <c r="AA31" s="5">
-        <f t="shared" ref="AA31:AA39" si="3">Y31-Z31</f>
+        <f t="shared" ref="AA31:AA40" si="3">Y31-Z31</f>
         <v>-1</v>
       </c>
       <c r="AB31" s="5"/>
@@ -2503,14 +2769,17 @@
       <c r="U32" s="13"/>
       <c r="V32" s="4"/>
       <c r="X32" s="1" t="s">
-        <v>36</v>
+        <v>101</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AA32" s="5">
-        <f t="shared" si="3"/>
-        <v>-28</v>
+        <f>Y32-Z32</f>
+        <v>-11</v>
       </c>
       <c r="AB32" s="5"/>
     </row>
@@ -2537,16 +2806,20 @@
       <c r="T33" s="7"/>
       <c r="V33" s="4"/>
       <c r="X33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="Y33" s="1">
+        <f>K13</f>
+        <v>10</v>
       </c>
       <c r="Z33" s="1">
-        <v>150</v>
-      </c>
-      <c r="AA33" s="6">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="5">
         <f t="shared" si="3"/>
-        <v>-150</v>
-      </c>
-      <c r="AB33" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="AB33" s="41"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
@@ -2571,14 +2844,18 @@
       <c r="T34" s="7"/>
       <c r="V34" s="4"/>
       <c r="X34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="Y34" s="1">
+        <f>O3+O7+Q2+Q6+M13+O12</f>
+        <v>63</v>
       </c>
       <c r="Z34" s="1">
-        <v>144</v>
-      </c>
-      <c r="AA34" s="5">
+        <v>167</v>
+      </c>
+      <c r="AA34" s="6">
         <f t="shared" si="3"/>
-        <v>-144</v>
+        <v>-104</v>
       </c>
       <c r="AB34" s="5"/>
     </row>
@@ -2605,14 +2882,18 @@
       <c r="T35" s="7"/>
       <c r="V35" s="4"/>
       <c r="X35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="Y35" s="1">
+        <f>Q8+Q12+O13</f>
+        <v>35</v>
       </c>
       <c r="Z35" s="1">
-        <v>56</v>
-      </c>
-      <c r="AA35" s="6">
+        <v>121</v>
+      </c>
+      <c r="AA35" s="5">
         <f t="shared" si="3"/>
-        <v>-56</v>
+        <v>-86</v>
       </c>
       <c r="AB35" s="5"/>
     </row>
@@ -2639,14 +2920,17 @@
       <c r="T36" s="7"/>
       <c r="V36" s="4"/>
       <c r="X36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <v>30</v>
-      </c>
-      <c r="AA36" s="5">
+        <v>57</v>
+      </c>
+      <c r="AA36" s="6">
         <f t="shared" si="3"/>
-        <v>-30</v>
+        <v>-57</v>
       </c>
       <c r="AB36" s="5"/>
     </row>
@@ -2673,16 +2957,20 @@
       <c r="T37" s="7"/>
       <c r="V37" s="4"/>
       <c r="X37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="Y37" s="1">
+        <f>Q9+Q13</f>
+        <v>48</v>
       </c>
       <c r="Z37" s="1">
-        <v>34</v>
-      </c>
-      <c r="AA37" s="7">
+        <v>9</v>
+      </c>
+      <c r="AA37" s="5">
         <f t="shared" si="3"/>
-        <v>-34</v>
-      </c>
-      <c r="AB37" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="AB37" s="41"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -2706,203 +2994,296 @@
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="X38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
       </c>
       <c r="Z38" s="1">
-        <v>79</v>
-      </c>
-      <c r="AA38" s="5">
+        <v>37</v>
+      </c>
+      <c r="AA38" s="7">
         <f t="shared" si="3"/>
-        <v>-79</v>
+        <v>-37</v>
       </c>
       <c r="AB38" s="5"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X39" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AA39" s="5">
         <f t="shared" si="3"/>
+        <v>-80</v>
+      </c>
+      <c r="AB39" s="5"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>205</v>
+      </c>
+      <c r="AA40" s="5">
+        <f t="shared" si="3"/>
         <v>-205</v>
       </c>
-      <c r="AB39" s="5"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>69</v>
-      </c>
-      <c r="AA41" s="5">
-        <f t="shared" ref="AA41:AA48" si="4">Y41-Z41</f>
-        <v>-69</v>
-      </c>
+      <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="Y42" s="1">
+        <f>O2+O6+M3</f>
+        <v>15</v>
       </c>
       <c r="Z42" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="AA42" s="5">
-        <f t="shared" si="4"/>
-        <v>-1</v>
+        <f t="shared" ref="AA42:AA52" si="4">Y42-Z42</f>
+        <v>-52</v>
       </c>
       <c r="AB42" s="5"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X43" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
+      </c>
+      <c r="Y43" s="1">
+        <f>U17+U18</f>
+        <v>30</v>
       </c>
       <c r="Z43" s="1">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="AA43" s="5">
-        <f t="shared" si="4"/>
-        <v>-93</v>
-      </c>
-      <c r="AB43" s="5"/>
+        <f>Y43-Z43</f>
+        <v>22</v>
+      </c>
+      <c r="AB43" s="41"/>
     </row>
     <row r="44" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U44" s="8"/>
       <c r="W44" s="8"/>
-      <c r="X44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z44" s="7">
-        <v>61</v>
-      </c>
-      <c r="AA44" s="7">
+      <c r="X44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="5">
         <f t="shared" si="4"/>
-        <v>-61</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U45" s="8"/>
       <c r="W45" s="8"/>
-      <c r="X45" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z45" s="7">
-        <v>76</v>
-      </c>
-      <c r="AA45" s="7">
+      <c r="X45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y45" s="1">
+        <f>U19</f>
+        <v>5</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>92</v>
+      </c>
+      <c r="AA45" s="5">
         <f t="shared" si="4"/>
-        <v>-76</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U46" s="8"/>
       <c r="W46" s="8"/>
       <c r="X46" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="Y46" s="7">
+        <f>Q3+Q7+Q16+Q18+Q20</f>
+        <v>50</v>
       </c>
       <c r="Z46" s="7">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AA46" s="7">
         <f t="shared" si="4"/>
-        <v>-39</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U47" s="8"/>
       <c r="W47" s="8"/>
       <c r="X47" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="Y47" s="7">
+        <f>O16+O18+O20+Q15+Q17+Q19</f>
+        <v>45</v>
       </c>
       <c r="Z47" s="7">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="AA47" s="7">
         <f t="shared" si="4"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="X48" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="7">
+        <v>52</v>
+      </c>
+      <c r="AA48" s="7">
+        <f t="shared" si="4"/>
         <v>-52</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X48" s="1" t="s">
+      <c r="AB48" s="5"/>
+    </row>
+    <row r="49" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y49" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="7">
+        <v>53</v>
+      </c>
+      <c r="AA49" s="7">
+        <f t="shared" si="4"/>
+        <v>-53</v>
+      </c>
+      <c r="AB49" s="5"/>
+    </row>
+    <row r="50" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="5">
+        <f>Y50-Z50</f>
+        <v>-1</v>
+      </c>
+      <c r="AB50" s="5"/>
+    </row>
+    <row r="51" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA51" s="5">
+        <f>Y51-Z51</f>
+        <v>-10</v>
+      </c>
+      <c r="AB51" s="5"/>
+    </row>
+    <row r="52" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Z48" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA48" s="5">
+      <c r="Y52" s="1">
+        <f>S2+S6+S8+S12+S15+S17+S19</f>
+        <v>7</v>
+      </c>
+      <c r="Z52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="5">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="AB48" s="5"/>
-    </row>
-    <row r="49" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-    </row>
-    <row r="50" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-    </row>
-    <row r="51" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-    </row>
-    <row r="52" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-    </row>
-    <row r="53" spans="27:28" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="AB52" s="41"/>
+    </row>
+    <row r="53" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
     </row>
-    <row r="54" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-    </row>
-    <row r="55" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA55" s="5"/>
+    <row r="54" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="X54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y54" s="1">
+        <f>M16+M18+M20+O15+O17+O19+U15</f>
+        <v>53</v>
+      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="5">
+        <f>Y54-Z54</f>
+        <v>53</v>
+      </c>
+      <c r="AB54" s="41"/>
+    </row>
+    <row r="55" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AB55" s="5"/>
     </row>
-    <row r="56" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA56" s="5"/>
+    <row r="56" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AB56" s="5"/>
     </row>
-    <row r="57" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA57" s="5"/>
+    <row r="57" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AB57" s="5"/>
     </row>
-    <row r="58" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA58" s="5"/>
+    <row r="58" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AB58" s="5"/>
     </row>
-    <row r="59" spans="27:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
     </row>
-    <row r="60" spans="27:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
     </row>
-    <row r="61" spans="27:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
     </row>
-    <row r="62" spans="27:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
     </row>
-    <row r="63" spans="27:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
     </row>
-    <row r="64" spans="27:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
     </row>
@@ -2998,73 +3379,32 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
     </row>
+    <row r="88" spans="27:28" x14ac:dyDescent="0.2">
+      <c r="AA88" s="5"/>
+    </row>
+    <row r="89" spans="27:28" x14ac:dyDescent="0.2">
+      <c r="AA89" s="5"/>
+    </row>
+    <row r="90" spans="27:28" x14ac:dyDescent="0.2">
+      <c r="AA90" s="5"/>
+    </row>
+    <row r="91" spans="27:28" x14ac:dyDescent="0.2">
+      <c r="AA91" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B6:B7"/>
@@ -3081,18 +3421,71 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S15:S16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="127">
   <si>
     <t>技能1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,6 +459,78 @@
   </si>
   <si>
     <t>龙之逆鳞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚影之尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮神心脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凶骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚影之尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间齿轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间齿轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之爪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,10 +751,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -693,36 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1119,7 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB54" sqref="AB54"/>
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1074,42 +1152,42 @@
     <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
-      <c r="C1" s="26">
+      <c r="C1" s="29">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29">
         <v>2</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29">
         <v>3</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29">
         <v>4</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26">
+      <c r="J1" s="29"/>
+      <c r="K1" s="29">
         <v>5</v>
       </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29">
         <v>6</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26">
+      <c r="N1" s="29"/>
+      <c r="O1" s="29">
         <v>7</v>
       </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29">
         <v>8</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26">
+      <c r="R1" s="29"/>
+      <c r="S1" s="29">
         <v>9</v>
       </c>
-      <c r="T1" s="26"/>
+      <c r="T1" s="29"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10" t="s">
         <v>57</v>
@@ -1125,28 +1203,28 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32">
-        <v>0</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40">
+        <v>0</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32">
-        <v>0</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="40">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32">
-        <v>0</v>
-      </c>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="40">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="14">
@@ -1179,10 +1257,10 @@
       <c r="R2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="28">
+      <c r="S2" s="30">
         <v>1</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="34" t="s">
         <v>6</v>
       </c>
       <c r="U2" s="18"/>
@@ -1203,14 +1281,14 @@
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="15">
         <v>0</v>
       </c>
@@ -1241,8 +1319,8 @@
       <c r="R3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="35"/>
-      <c r="T3" s="38"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="35"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16"/>
       <c r="X3" s="1" t="s">
@@ -1263,26 +1341,26 @@
       <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="33">
-        <v>0</v>
-      </c>
-      <c r="H4" s="33" t="s">
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="15">
@@ -1315,10 +1393,10 @@
       <c r="R4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="33">
-        <v>0</v>
-      </c>
-      <c r="T4" s="39" t="s">
+      <c r="S4" s="32">
+        <v>0</v>
+      </c>
+      <c r="T4" s="36" t="s">
         <v>6</v>
       </c>
       <c r="U4" s="11"/>
@@ -1340,14 +1418,14 @@
       <c r="AC4" s="2"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
       <c r="I5" s="15">
         <v>0</v>
       </c>
@@ -1378,8 +1456,8 @@
       <c r="R5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="33"/>
-      <c r="T5" s="39"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="36"/>
       <c r="U5" s="11"/>
       <c r="X5" s="1" t="s">
         <v>13</v>
@@ -1398,26 +1476,26 @@
       <c r="AC5" s="2"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="33">
-        <v>0</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="33">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="33">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33" t="s">
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="20">
@@ -1450,10 +1528,10 @@
       <c r="R6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="35">
+      <c r="S6" s="31">
         <v>1</v>
       </c>
-      <c r="T6" s="38" t="s">
+      <c r="T6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="U6" s="11"/>
@@ -1474,14 +1552,14 @@
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="21">
         <v>0</v>
       </c>
@@ -1512,48 +1590,49 @@
       <c r="R7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="36"/>
-      <c r="T7" s="40"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="37"/>
       <c r="U7" s="11"/>
       <c r="V7" s="10"/>
       <c r="X7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <f>C22+C24+C26+E22+E24+E26</f>
+        <v>51</v>
       </c>
       <c r="Z7" s="1">
         <v>33</v>
       </c>
       <c r="AA7" s="5">
         <f t="shared" si="0"/>
-        <v>-33</v>
-      </c>
-      <c r="AB7" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="38">
+        <v>0</v>
+      </c>
+      <c r="D8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="38">
+        <v>0</v>
+      </c>
+      <c r="F8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27" t="s">
+      <c r="G8" s="38">
+        <v>0</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>65</v>
       </c>
       <c r="I8" s="22">
@@ -1586,10 +1665,10 @@
       <c r="R8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="30">
         <v>1</v>
       </c>
-      <c r="T8" s="28" t="s">
+      <c r="T8" s="30" t="s">
         <v>79</v>
       </c>
       <c r="U8" s="16"/>
@@ -1610,14 +1689,14 @@
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="22">
         <v>0</v>
       </c>
@@ -1648,8 +1727,8 @@
       <c r="R9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
       <c r="AA9" s="5"/>
@@ -1657,26 +1736,26 @@
       <c r="AE9" s="2"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="27">
-        <v>0</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="38">
+        <v>0</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="27">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="38">
+        <v>0</v>
+      </c>
+      <c r="F10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="27">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27" t="s">
+      <c r="G10" s="38">
+        <v>0</v>
+      </c>
+      <c r="H10" s="38" t="s">
         <v>66</v>
       </c>
       <c r="I10" s="22">
@@ -1709,10 +1788,10 @@
       <c r="R10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="27">
-        <v>0</v>
-      </c>
-      <c r="T10" s="27" t="s">
+      <c r="S10" s="38">
+        <v>0</v>
+      </c>
+      <c r="T10" s="38" t="s">
         <v>80</v>
       </c>
       <c r="U10" s="16"/>
@@ -1735,14 +1814,14 @@
       <c r="AE10" s="2"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="22">
         <v>0</v>
       </c>
@@ -1773,8 +1852,8 @@
       <c r="R11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
       <c r="X11" s="1" t="s">
@@ -1795,26 +1874,26 @@
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="27">
-        <v>0</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="38">
+        <v>0</v>
+      </c>
+      <c r="D12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="38">
+        <v>0</v>
+      </c>
+      <c r="F12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="27">
-        <v>0</v>
-      </c>
-      <c r="H12" s="27" t="s">
+      <c r="G12" s="38">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38" t="s">
         <v>66</v>
       </c>
       <c r="I12" s="22">
@@ -1847,10 +1926,10 @@
       <c r="R12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="29">
         <v>1</v>
       </c>
-      <c r="T12" s="26" t="s">
+      <c r="T12" s="29" t="s">
         <v>79</v>
       </c>
       <c r="U12" s="16"/>
@@ -1872,14 +1951,14 @@
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="22">
         <v>0</v>
       </c>
@@ -1910,8 +1989,8 @@
       <c r="R13" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="X13" s="1" t="s">
@@ -1970,28 +2049,28 @@
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="29">
         <v>5</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="29">
         <v>12</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="29">
         <v>5</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="29" t="s">
         <v>87</v>
       </c>
       <c r="I15" s="16">
@@ -2024,10 +2103,10 @@
       <c r="R15" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="29">
         <v>1</v>
       </c>
-      <c r="T15" s="26" t="s">
+      <c r="T15" s="29" t="s">
         <v>92</v>
       </c>
       <c r="U15" s="16">
@@ -2040,27 +2119,28 @@
         <v>21</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <f>G22+G24+G26+I22+I24+I26</f>
+        <v>51</v>
       </c>
       <c r="Z15" s="1">
         <v>16</v>
       </c>
       <c r="AA15" s="5">
         <f t="shared" si="1"/>
-        <v>-16</v>
-      </c>
-      <c r="AB15" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="AB15" s="28"/>
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="16">
         <v>12</v>
       </c>
@@ -2091,8 +2171,8 @@
       <c r="R16" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
       <c r="U16" s="16">
         <v>24</v>
       </c>
@@ -2116,26 +2196,26 @@
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="29">
         <v>5</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="29">
         <v>12</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="29">
         <v>5</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="29" t="s">
         <v>87</v>
       </c>
       <c r="I17" s="16">
@@ -2168,10 +2248,10 @@
       <c r="R17" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="29">
         <v>1</v>
       </c>
-      <c r="T17" s="26" t="s">
+      <c r="T17" s="29" t="s">
         <v>93</v>
       </c>
       <c r="U17" s="16">
@@ -2184,14 +2264,14 @@
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="16">
         <v>12</v>
       </c>
@@ -2222,8 +2302,8 @@
       <c r="R18" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
       <c r="U18" s="16">
         <v>20</v>
       </c>
@@ -2244,30 +2324,30 @@
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
         <v>7</v>
       </c>
-      <c r="AB18" s="41"/>
+      <c r="AB18" s="28"/>
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="29">
         <v>5</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="29">
         <v>12</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="29">
         <v>5</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="29" t="s">
         <v>87</v>
       </c>
       <c r="I19" s="16">
@@ -2300,10 +2380,10 @@
       <c r="R19" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="29">
         <v>1</v>
       </c>
-      <c r="T19" s="26" t="s">
+      <c r="T19" s="29" t="s">
         <v>93</v>
       </c>
       <c r="U19" s="16">
@@ -2331,14 +2411,14 @@
       <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="13">
         <v>12</v>
       </c>
@@ -2369,8 +2449,8 @@
       <c r="R20" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
       <c r="U20" s="13"/>
       <c r="V20" s="12"/>
       <c r="X20" s="1" t="s">
@@ -2429,28 +2509,72 @@
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="12"/>
+      <c r="A22" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="29">
+        <v>5</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="29">
+        <v>12</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="29">
+        <v>5</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="26">
+        <v>12</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="26">
+        <v>5</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="26">
+        <v>12</v>
+      </c>
+      <c r="N22" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="26">
+        <v>29</v>
+      </c>
+      <c r="P22" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>8</v>
+      </c>
+      <c r="R22" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="S22" s="29">
+        <v>1</v>
+      </c>
+      <c r="T22" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="U22" s="13">
+        <v>22</v>
+      </c>
+      <c r="V22" s="27" t="s">
+        <v>122</v>
+      </c>
       <c r="X22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,67 +2592,134 @@
       <c r="AC22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="12"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="26">
+        <v>10</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K23" s="26">
+        <v>20</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M23" s="26">
+        <v>15</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" s="26">
+        <v>3</v>
+      </c>
+      <c r="P23" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>15</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="13">
+        <v>20</v>
+      </c>
+      <c r="V23" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="X23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <f>K22+K24+K26+M22+M24+M26</f>
+        <v>51</v>
       </c>
       <c r="Z23" s="1">
         <v>0</v>
       </c>
       <c r="AA23" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="AB23" s="28"/>
       <c r="AC23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="12"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="29">
+        <v>5</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="29">
+        <v>12</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="29">
+        <v>5</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="26">
+        <v>12</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="26">
+        <v>5</v>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="26">
+        <v>12</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" s="26">
+        <v>29</v>
+      </c>
+      <c r="P24" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>8</v>
+      </c>
+      <c r="R24" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="S24" s="29">
+        <v>1</v>
+      </c>
+      <c r="T24" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="U24" s="13">
+        <v>5</v>
+      </c>
+      <c r="V24" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="X24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2543,58 +2734,124 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AB24" s="41"/>
+      <c r="AB24" s="28"/>
       <c r="AC24" s="2"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="12"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="26">
+        <v>10</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="26">
+        <v>20</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="26">
+        <v>15</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O25" s="26">
+        <v>3</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>15</v>
+      </c>
+      <c r="R25" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="13">
+        <v>10</v>
+      </c>
+      <c r="V25" s="27" t="s">
+        <v>125</v>
+      </c>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="12"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="29">
+        <v>5</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="29">
+        <v>12</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="29">
+        <v>5</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="26">
+        <v>12</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="26">
+        <v>5</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="26">
+        <v>12</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O26" s="26">
+        <v>29</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>8</v>
+      </c>
+      <c r="R26" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="S26" s="29">
+        <v>1</v>
+      </c>
+      <c r="T26" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="U26" s="13">
+        <v>8</v>
+      </c>
+      <c r="V26" s="27" t="s">
+        <v>126</v>
+      </c>
       <c r="X26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2611,42 +2868,63 @@
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="26">
+        <v>10</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="26">
+        <v>20</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" s="26">
+        <v>15</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O27" s="26">
+        <v>3</v>
+      </c>
+      <c r="P27" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>15</v>
+      </c>
+      <c r="R27" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
       <c r="U27" s="13"/>
       <c r="V27" s="12"/>
       <c r="X27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <f>M23+M25+M27+O22+O24+O26+U22</f>
+        <v>154</v>
       </c>
       <c r="Z27" s="1">
         <v>13</v>
       </c>
       <c r="AA27" s="7">
         <f>Y27-Z27</f>
-        <v>-13</v>
-      </c>
-      <c r="AB27" s="5"/>
+        <v>141</v>
+      </c>
+      <c r="AB27" s="28"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="L28" s="13"/>
@@ -2692,14 +2970,15 @@
         <v>34</v>
       </c>
       <c r="Y29" s="1">
-        <v>0</v>
+        <f>I23+I25+I27+K23+K25+K27+U23</f>
+        <v>110</v>
       </c>
       <c r="Z29" s="1">
         <v>125</v>
       </c>
       <c r="AA29" s="5">
         <f>Y29-Z29</f>
-        <v>-125</v>
+        <v>-15</v>
       </c>
       <c r="AB29" s="5"/>
     </row>
@@ -2819,7 +3098,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="AB33" s="41"/>
+      <c r="AB33" s="28"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
@@ -2960,17 +3239,17 @@
         <v>40</v>
       </c>
       <c r="Y37" s="1">
-        <f>Q9+Q13</f>
-        <v>48</v>
+        <f>Q9+Q13+U24+U25</f>
+        <v>63</v>
       </c>
       <c r="Z37" s="1">
         <v>9</v>
       </c>
       <c r="AA37" s="5">
         <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="AB37" s="41"/>
+        <v>54</v>
+      </c>
+      <c r="AB37" s="28"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -3049,15 +3328,15 @@
         <v>44</v>
       </c>
       <c r="Y42" s="1">
-        <f>O2+O6+M3</f>
-        <v>15</v>
+        <f>M3+O2+O6+Q23+Q25+Q27+U26</f>
+        <v>68</v>
       </c>
       <c r="Z42" s="1">
         <v>67</v>
       </c>
       <c r="AA42" s="5">
         <f t="shared" ref="AA42:AA52" si="4">Y42-Z42</f>
-        <v>-52</v>
+        <v>1</v>
       </c>
       <c r="AB42" s="5"/>
     </row>
@@ -3076,7 +3355,7 @@
         <f>Y43-Z43</f>
         <v>22</v>
       </c>
-      <c r="AB43" s="41"/>
+      <c r="AB43" s="28"/>
     </row>
     <row r="44" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U44" s="8"/>
@@ -3085,15 +3364,17 @@
         <v>45</v>
       </c>
       <c r="Y44" s="1">
-        <v>0</v>
+        <f>O23+O25+O27+Q22+Q24+Q26</f>
+        <v>33</v>
       </c>
       <c r="Z44" s="1">
         <v>1</v>
       </c>
       <c r="AA44" s="5">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AB44" s="28"/>
     </row>
     <row r="45" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="U45" s="8"/>
@@ -3218,17 +3499,17 @@
         <v>47</v>
       </c>
       <c r="Y52" s="1">
-        <f>S2+S6+S8+S12+S15+S17+S19</f>
-        <v>7</v>
+        <f>S2+S6+S8+S12+S15+S17+S19+S22+S24+S26</f>
+        <v>10</v>
       </c>
       <c r="Z52" s="1">
         <v>1</v>
       </c>
       <c r="AA52" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="AB52" s="41"/>
+        <v>9</v>
+      </c>
+      <c r="AB52" s="28"/>
     </row>
     <row r="53" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AA53" s="5"/>
@@ -3249,7 +3530,7 @@
         <f>Y54-Z54</f>
         <v>53</v>
       </c>
-      <c r="AB54" s="41"/>
+      <c r="AB54" s="28"/>
     </row>
     <row r="55" spans="24:28" x14ac:dyDescent="0.2">
       <c r="AB55" s="5"/>
@@ -3392,19 +3673,100 @@
       <c r="AA91" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="121">
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B6:B7"/>
@@ -3421,71 +3783,18 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -538,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +549,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -669,138 +677,81 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE91"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="Z53" sqref="Z53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1143,53 +1094,48 @@
     <col min="18" max="18" width="9" style="1"/>
     <col min="19" max="19" width="4" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="4" style="8" customWidth="1"/>
-    <col min="22" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="9" style="8"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="21" max="21" width="4" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="29">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2">
         <v>3</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2">
         <v>4</v>
       </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2">
         <v>5</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2">
         <v>6</v>
       </c>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2">
         <v>7</v>
       </c>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2">
         <v>8</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2">
         <v>9</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10" t="s">
+      <c r="T1" s="2"/>
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -1202,69 +1148,68 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="40">
-        <v>0</v>
-      </c>
-      <c r="D2" s="40" t="s">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40">
-        <v>0</v>
-      </c>
-      <c r="F2" s="40" t="s">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="40">
-        <v>0</v>
-      </c>
-      <c r="H2" s="40" t="s">
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="14">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="17">
-        <v>12</v>
-      </c>
-      <c r="N2" s="17" t="s">
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="17">
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>18</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="30">
-        <v>1</v>
-      </c>
-      <c r="T2" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="16"/>
+      <c r="U2" s="8"/>
       <c r="X2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1272,57 +1217,54 @@
         <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>68</v>
-      </c>
-      <c r="AA2" s="5">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA8" si="0">Y2-Z2</f>
-        <v>-68</v>
-      </c>
-      <c r="AB2" s="5"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15" t="s">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="15">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="18">
-        <v>3</v>
-      </c>
-      <c r="N3" s="18" t="s">
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="18">
-        <v>6</v>
-      </c>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="18">
-        <v>10</v>
-      </c>
-      <c r="R3" s="18" t="s">
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="13"/>
       <c r="X3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1333,74 +1275,71 @@
       <c r="Z3" s="1">
         <v>112</v>
       </c>
-      <c r="AA3" s="5">
+      <c r="AA3" s="1">
         <f t="shared" si="0"/>
         <v>-61</v>
       </c>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="31" t="s">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="32">
-        <v>0</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="32">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32" t="s">
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="32">
-        <v>0</v>
-      </c>
-      <c r="H4" s="32" t="s">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="12">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="15">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="15">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15" t="s">
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
-      <c r="R4" s="15" t="s">
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="32">
-        <v>0</v>
-      </c>
-      <c r="T4" s="36" t="s">
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="10"/>
+      <c r="U4" s="8"/>
       <c r="X4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1408,57 +1347,55 @@
         <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>162</v>
-      </c>
-      <c r="AA4" s="5">
+        <v>165</v>
+      </c>
+      <c r="AA4" s="1">
         <f t="shared" si="0"/>
-        <v>-162</v>
-      </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15" t="s">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15" t="s">
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="15">
-        <v>0</v>
-      </c>
-      <c r="P5" s="15" t="s">
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="15">
-        <v>0</v>
-      </c>
-      <c r="R5" s="15" t="s">
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="32"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="8"/>
       <c r="X5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1468,74 +1405,71 @@
       <c r="Z5" s="1">
         <v>57</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="1">
         <f t="shared" si="0"/>
         <v>-57</v>
       </c>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="31" t="s">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="32">
-        <v>0</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="32">
-        <v>0</v>
-      </c>
-      <c r="F6" s="32" t="s">
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="32">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="20">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="20" t="s">
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="23">
-        <v>0</v>
-      </c>
-      <c r="N6" s="23" t="s">
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="11">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="18">
-        <v>18</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="31">
-        <v>1</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="10"/>
+      <c r="U6" s="8"/>
       <c r="X6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1543,136 +1477,132 @@
         <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>34</v>
-      </c>
-      <c r="AA6" s="5">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="1">
         <f t="shared" si="0"/>
-        <v>-34</v>
-      </c>
-      <c r="AB6" s="5"/>
-    </row>
-    <row r="7" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21" t="s">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="21">
-        <v>0</v>
-      </c>
-      <c r="L7" s="21" t="s">
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="24">
-        <v>0</v>
-      </c>
-      <c r="N7" s="24" t="s">
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="19">
-        <v>6</v>
-      </c>
-      <c r="P7" s="19" t="s">
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="19">
-        <v>10</v>
-      </c>
-      <c r="R7" s="19" t="s">
+      <c r="Q7" s="18">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="S7" s="33"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="10"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="8"/>
       <c r="X7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Y7" s="1">
         <f>C22+C24+C26+E22+E24+E26</f>
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="Z7" s="1">
-        <v>33</v>
-      </c>
-      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AB7" s="28"/>
-    </row>
-    <row r="8" spans="1:31" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB7" s="19"/>
+    </row>
+    <row r="8" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="38">
-        <v>0</v>
-      </c>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="20">
+        <v>0</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="38">
-        <v>0</v>
-      </c>
-      <c r="F8" s="38" t="s">
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="38">
-        <v>0</v>
-      </c>
-      <c r="H8" s="38" t="s">
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="22">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22" t="s">
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="25">
-        <v>0</v>
-      </c>
-      <c r="L8" s="25" t="s">
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="25">
-        <v>0</v>
-      </c>
-      <c r="N8" s="25" t="s">
+      <c r="M8" s="21">
+        <v>0</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="25">
-        <v>0</v>
-      </c>
-      <c r="P8" s="25" t="s">
+      <c r="O8" s="21">
+        <v>0</v>
+      </c>
+      <c r="P8" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="1">
         <v>15</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="4">
         <v>1</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="T8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
       <c r="X8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1680,122 +1610,114 @@
         <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA8" s="5">
+        <v>67</v>
+      </c>
+      <c r="AA8" s="1">
         <f t="shared" si="0"/>
-        <v>-64</v>
-      </c>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="22">
-        <v>0</v>
-      </c>
-      <c r="J9" s="22" t="s">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="25">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25" t="s">
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="25">
-        <v>0</v>
-      </c>
-      <c r="N9" s="25" t="s">
+      <c r="M9" s="21">
+        <v>0</v>
+      </c>
+      <c r="N9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="25">
-        <v>0</v>
-      </c>
-      <c r="P9" s="25" t="s">
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="1">
         <v>24</v>
       </c>
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AE9" s="2"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29" t="s">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="38">
-        <v>0</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="20">
+        <v>0</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="38">
-        <v>0</v>
-      </c>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="38">
-        <v>0</v>
-      </c>
-      <c r="H10" s="38" t="s">
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="I10" s="21">
+        <v>0</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22" t="s">
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22" t="s">
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="22">
-        <v>0</v>
-      </c>
-      <c r="P10" s="22" t="s">
+      <c r="O10" s="21">
+        <v>0</v>
+      </c>
+      <c r="P10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="22">
-        <v>0</v>
-      </c>
-      <c r="R10" s="22" t="s">
+      <c r="Q10" s="21">
+        <v>0</v>
+      </c>
+      <c r="R10" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="38">
-        <v>0</v>
-      </c>
-      <c r="T10" s="38" t="s">
+      <c r="S10" s="20">
+        <v>0</v>
+      </c>
+      <c r="T10" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
       <c r="X10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1803,59 +1725,54 @@
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="5">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="1">
         <f t="shared" ref="AA10:AA16" si="1">Y10-Z10</f>
-        <v>-5</v>
-      </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="2"/>
-      <c r="AE10" s="2"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="22">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22" t="s">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="22" t="s">
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22" t="s">
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="22">
-        <v>0</v>
-      </c>
-      <c r="P11" s="22" t="s">
+      <c r="O11" s="21">
+        <v>0</v>
+      </c>
+      <c r="P11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="22">
-        <v>0</v>
-      </c>
-      <c r="R11" s="22" t="s">
+      <c r="Q11" s="21">
+        <v>0</v>
+      </c>
+      <c r="R11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
       <c r="X11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,74 +1783,70 @@
       <c r="Z11" s="1">
         <v>118</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="1">
         <f t="shared" si="1"/>
         <v>-67</v>
       </c>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="2"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29" t="s">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="38">
-        <v>0</v>
-      </c>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="38">
-        <v>0</v>
-      </c>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="38">
-        <v>0</v>
-      </c>
-      <c r="H12" s="38" t="s">
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="1">
         <v>5</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="1">
         <v>12</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="1">
         <v>10</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="1">
         <v>15</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S12" s="29">
+      <c r="S12" s="2">
         <v>1</v>
       </c>
-      <c r="T12" s="29" t="s">
+      <c r="T12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
       <c r="X12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1943,56 +1856,52 @@
       <c r="Z12" s="1">
         <v>56</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="1">
         <f t="shared" si="1"/>
         <v>-56</v>
       </c>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="2"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="22">
-        <v>0</v>
-      </c>
-      <c r="J13" s="22" t="s">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="1">
         <v>10</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="1">
         <v>5</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="1">
         <v>5</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="1">
         <v>24</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
       <c r="X13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2002,36 +1911,12 @@
       <c r="Z13" s="1">
         <v>69</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="1">
         <f t="shared" si="1"/>
         <v>-69</v>
       </c>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="X14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2039,80 +1924,78 @@
         <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>70</v>
-      </c>
-      <c r="AA14" s="5">
+        <v>85</v>
+      </c>
+      <c r="AA14" s="1">
         <f t="shared" si="1"/>
-        <v>-70</v>
-      </c>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="2">
         <v>12</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="2">
         <v>5</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="1">
         <v>12</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="1">
         <v>5</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="1">
         <v>12</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="1">
         <v>10</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="P15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="1">
         <v>11</v>
       </c>
-      <c r="R15" s="16" t="s">
+      <c r="R15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="S15" s="29">
+      <c r="S15" s="2">
         <v>1</v>
       </c>
-      <c r="T15" s="29" t="s">
+      <c r="T15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="1">
         <v>8</v>
       </c>
-      <c r="V15" s="16" t="s">
+      <c r="V15" s="1" t="s">
         <v>96</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -2120,63 +2003,62 @@
       </c>
       <c r="Y15" s="1">
         <f>G22+G24+G26+I22+I24+I26</f>
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="Z15" s="1">
-        <v>16</v>
-      </c>
-      <c r="AA15" s="5">
+        <v>3</v>
+      </c>
+      <c r="AA15" s="1">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="2"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="16">
+        <v>14</v>
+      </c>
+      <c r="AB15" s="19"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1">
         <v>12</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="1">
         <v>24</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="1">
         <v>5</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="1">
         <v>4</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="P16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="1">
         <v>10</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="R16" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="16">
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="1">
         <v>24</v>
       </c>
-      <c r="V16" s="16" t="s">
+      <c r="V16" s="1" t="s">
         <v>106</v>
       </c>
       <c r="X16" s="1" t="s">
@@ -2186,128 +2068,124 @@
         <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>165</v>
-      </c>
-      <c r="AA16" s="5">
+        <v>185</v>
+      </c>
+      <c r="AA16" s="1">
         <f t="shared" si="1"/>
-        <v>-165</v>
-      </c>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="2"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29" t="s">
+        <v>-185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="2">
         <v>5</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="2">
         <v>12</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="2">
         <v>5</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="1">
         <v>12</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="1">
         <v>5</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="1">
         <v>12</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="1">
         <v>10</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="P17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="1">
         <v>11</v>
       </c>
-      <c r="R17" s="16" t="s">
+      <c r="R17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S17" s="29">
+      <c r="S17" s="2">
         <v>1</v>
       </c>
-      <c r="T17" s="29" t="s">
+      <c r="T17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U17" s="16">
+      <c r="U17" s="1">
         <v>10</v>
       </c>
-      <c r="V17" s="16" t="s">
+      <c r="V17" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="16">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="1">
         <v>12</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="1">
         <v>24</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="1">
         <v>5</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="1">
         <v>4</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="P18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="1">
         <v>10</v>
       </c>
-      <c r="R18" s="16" t="s">
+      <c r="R18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S18" s="29"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="16">
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="1">
         <v>20</v>
       </c>
-      <c r="V18" s="16" t="s">
+      <c r="V18" s="1" t="s">
         <v>107</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -2320,76 +2198,75 @@
       <c r="Z18" s="1">
         <v>10</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AA18" s="1">
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
         <v>7</v>
       </c>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="2"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29" t="s">
+      <c r="AB18" s="19"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="2">
         <v>5</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="2">
         <v>12</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="1">
         <v>12</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="1">
         <v>5</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="1">
         <v>12</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="1">
         <v>10</v>
       </c>
-      <c r="P19" s="16" t="s">
+      <c r="P19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="1">
         <v>11</v>
       </c>
-      <c r="R19" s="16" t="s">
+      <c r="R19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="2">
         <v>1</v>
       </c>
-      <c r="T19" s="29" t="s">
+      <c r="T19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U19" s="1">
         <v>5</v>
       </c>
-      <c r="V19" s="16" t="s">
+      <c r="V19" s="1" t="s">
         <v>108</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -2402,57 +2279,53 @@
       <c r="Z19" s="1">
         <v>51</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="2"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="13">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="1">
         <v>12</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="1">
         <v>24</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="1">
         <v>5</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="1">
         <v>4</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="Q20" s="1">
         <v>10</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="12"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="V20" s="22"/>
       <c r="X20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2460,38 +2333,15 @@
         <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="5">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="1">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="2"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="12"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V21" s="22"/>
       <c r="X21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2501,78 +2351,76 @@
       <c r="Z21" s="1">
         <v>36</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AA21" s="1">
         <f t="shared" si="2"/>
         <v>-36</v>
       </c>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="2"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="20">
+        <v>0</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="1">
         <v>5</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="29">
+      <c r="L22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="1">
         <v>12</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="29">
-        <v>5</v>
-      </c>
-      <c r="H22" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="26">
-        <v>12</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="26">
-        <v>5</v>
-      </c>
-      <c r="L22" s="26" t="s">
+      <c r="N22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="26">
-        <v>12</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="O22" s="26">
+      <c r="O22" s="1">
         <v>29</v>
       </c>
-      <c r="P22" s="26" t="s">
+      <c r="P22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="1">
         <v>8</v>
       </c>
-      <c r="R22" s="26" t="s">
+      <c r="R22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="2">
         <v>1</v>
       </c>
-      <c r="T22" s="29" t="s">
+      <c r="T22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="1">
         <v>22</v>
       </c>
-      <c r="V22" s="27" t="s">
+      <c r="V22" s="8" t="s">
         <v>122</v>
       </c>
       <c r="X22" s="1" t="s">
@@ -2582,60 +2430,58 @@
         <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="5">
+        <v>19</v>
+      </c>
+      <c r="AA22" s="1">
         <f t="shared" si="2"/>
-        <v>-4</v>
-      </c>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="2"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="26">
-        <v>10</v>
-      </c>
-      <c r="J23" s="26" t="s">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="1">
         <v>20</v>
       </c>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="1">
         <v>15</v>
       </c>
-      <c r="N23" s="26" t="s">
+      <c r="N23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="1">
         <v>3</v>
       </c>
-      <c r="P23" s="26" t="s">
+      <c r="P23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="1">
         <v>15</v>
       </c>
-      <c r="R23" s="26" t="s">
+      <c r="R23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="13">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="1">
         <v>20</v>
       </c>
-      <c r="V23" s="27" t="s">
+      <c r="V23" s="8" t="s">
         <v>123</v>
       </c>
       <c r="X23" s="1" t="s">
@@ -2646,78 +2492,77 @@
         <v>51</v>
       </c>
       <c r="Z23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="1">
         <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="2"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB23" s="19"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="1">
         <v>5</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="29">
+      <c r="L24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M24" s="1">
         <v>12</v>
       </c>
-      <c r="F24" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="29">
+      <c r="N24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" s="1">
+        <v>29</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>8</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S24" s="2">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U24" s="1">
         <v>5</v>
       </c>
-      <c r="H24" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="26">
-        <v>12</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" s="26">
-        <v>5</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="M24" s="26">
-        <v>12</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="O24" s="26">
-        <v>29</v>
-      </c>
-      <c r="P24" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>8</v>
-      </c>
-      <c r="R24" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="S24" s="29">
-        <v>1</v>
-      </c>
-      <c r="T24" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="U24" s="13">
-        <v>5</v>
-      </c>
-      <c r="V24" s="27" t="s">
+      <c r="V24" s="8" t="s">
         <v>124</v>
       </c>
       <c r="X24" s="1" t="s">
@@ -2725,131 +2570,128 @@
       </c>
       <c r="Y24" s="1">
         <f>M2</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="19"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="1">
+        <v>20</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="1">
+        <v>15</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O25" s="1">
+        <v>3</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>15</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="1">
+        <v>10</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="2">
         <v>12</v>
       </c>
-      <c r="Z24" s="1">
-        <v>9</v>
-      </c>
-      <c r="AA24" s="5">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="2"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="26">
-        <v>10</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="K25" s="26">
-        <v>20</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="M25" s="26">
-        <v>15</v>
-      </c>
-      <c r="N25" s="26" t="s">
+      <c r="F26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="1">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="1">
+        <v>12</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O26" s="1">
+        <v>29</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O25" s="26">
-        <v>3</v>
-      </c>
-      <c r="P25" s="26" t="s">
+      <c r="Q26" s="1">
+        <v>8</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q25" s="26">
-        <v>15</v>
-      </c>
-      <c r="R25" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="13">
-        <v>10</v>
-      </c>
-      <c r="V25" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="29">
-        <v>5</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="29">
-        <v>12</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="29">
-        <v>5</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I26" s="26">
-        <v>12</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="26">
-        <v>5</v>
-      </c>
-      <c r="L26" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="M26" s="26">
-        <v>12</v>
-      </c>
-      <c r="N26" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="O26" s="26">
-        <v>29</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q26" s="26">
+      <c r="S26" s="2">
+        <v>1</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U26" s="1">
         <v>8</v>
       </c>
-      <c r="R26" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="S26" s="29">
-        <v>1</v>
-      </c>
-      <c r="T26" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="U26" s="13">
-        <v>8</v>
-      </c>
-      <c r="V26" s="27" t="s">
+      <c r="V26" s="8" t="s">
         <v>126</v>
       </c>
       <c r="X26" s="1" t="s">
@@ -2859,57 +2701,55 @@
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>479</v>
-      </c>
-      <c r="AA26" s="5">
+        <v>482</v>
+      </c>
+      <c r="AA26" s="1">
         <f>Y26-Z26</f>
-        <v>-479</v>
-      </c>
-      <c r="AB26" s="5"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="26">
+        <v>-482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="1">
         <v>10</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="1">
         <v>20</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M27" s="26">
+      <c r="M27" s="1">
         <v>15</v>
       </c>
-      <c r="N27" s="26" t="s">
+      <c r="N27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="1">
         <v>3</v>
       </c>
-      <c r="P27" s="26" t="s">
+      <c r="P27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q27" s="26">
+      <c r="Q27" s="1">
         <v>15</v>
       </c>
-      <c r="R27" s="26" t="s">
+      <c r="R27" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="12"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="V27" s="22"/>
       <c r="X27" s="1" t="s">
         <v>32</v>
       </c>
@@ -2918,26 +2758,16 @@
         <v>154</v>
       </c>
       <c r="Z27" s="1">
-        <v>13</v>
-      </c>
-      <c r="AA27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1">
         <f>Y27-Z27</f>
-        <v>141</v>
-      </c>
-      <c r="AB27" s="28"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="AB27" s="19"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V28" s="22"/>
       <c r="X28" s="1" t="s">
         <v>33</v>
       </c>
@@ -2946,69 +2776,35 @@
         <v>132</v>
       </c>
       <c r="Z28" s="1">
-        <v>295</v>
-      </c>
-      <c r="AA28" s="5">
+        <v>307</v>
+      </c>
+      <c r="AA28" s="1">
         <f>Y28-Z28</f>
-        <v>-163</v>
-      </c>
-      <c r="AB28" s="5"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="12"/>
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V29" s="22"/>
       <c r="X29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Y29" s="1">
         <f>I23+I25+I27+K23+K25+K27+U23</f>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Z29" s="1">
-        <v>125</v>
-      </c>
-      <c r="AA29" s="5">
+        <v>101</v>
+      </c>
+      <c r="AA29" s="1">
         <f>Y29-Z29</f>
-        <v>-15</v>
-      </c>
-      <c r="AB29" s="5"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="12"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="12"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V30" s="22"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="V31" s="22"/>
       <c r="X31" s="1" t="s">
         <v>35</v>
       </c>
@@ -3016,37 +2812,14 @@
         <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA31" s="1">
         <f t="shared" ref="AA31:AA40" si="3">Y31-Z31</f>
-        <v>-1</v>
-      </c>
-      <c r="AB31" s="5"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="4"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X32" s="1" t="s">
         <v>101</v>
       </c>
@@ -3054,36 +2827,15 @@
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>11</v>
-      </c>
-      <c r="AA32" s="5">
+        <v>25</v>
+      </c>
+      <c r="AA32" s="1">
         <f>Y32-Z32</f>
-        <v>-11</v>
-      </c>
-      <c r="AB32" s="5"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="V33" s="4"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="33" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="F33" s="23"/>
       <c r="X33" s="1" t="s">
         <v>36</v>
       </c>
@@ -3092,74 +2844,31 @@
         <v>10</v>
       </c>
       <c r="Z33" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA33" s="5">
+        <v>6</v>
+      </c>
+      <c r="AA33" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="AB33" s="28"/>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="V34" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="AB33" s="19"/>
+    </row>
+    <row r="34" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Y34" s="1">
         <f>O3+O7+Q2+Q6+M13+O12</f>
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="Z34" s="1">
-        <v>167</v>
-      </c>
-      <c r="AA34" s="6">
+        <v>120</v>
+      </c>
+      <c r="AA34" s="1">
         <f t="shared" si="3"/>
-        <v>-104</v>
-      </c>
-      <c r="AB34" s="5"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="V35" s="4"/>
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="35" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X35" s="1" t="s">
         <v>38</v>
       </c>
@@ -3168,36 +2877,14 @@
         <v>35</v>
       </c>
       <c r="Z35" s="1">
-        <v>121</v>
-      </c>
-      <c r="AA35" s="5">
+        <v>123</v>
+      </c>
+      <c r="AA35" s="1">
         <f t="shared" si="3"/>
-        <v>-86</v>
-      </c>
-      <c r="AB35" s="5"/>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="V36" s="4"/>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="36" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X36" s="1" t="s">
         <v>39</v>
       </c>
@@ -3207,34 +2894,12 @@
       <c r="Z36" s="1">
         <v>57</v>
       </c>
-      <c r="AA36" s="6">
+      <c r="AA36" s="1">
         <f t="shared" si="3"/>
         <v>-57</v>
       </c>
-      <c r="AB36" s="5"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="V37" s="4"/>
+    </row>
+    <row r="37" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X37" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,35 +2908,15 @@
         <v>63</v>
       </c>
       <c r="Z37" s="1">
-        <v>9</v>
-      </c>
-      <c r="AA37" s="5">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="1">
         <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="AB37" s="28"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="AB37" s="19"/>
+    </row>
+    <row r="38" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X38" s="1" t="s">
         <v>41</v>
       </c>
@@ -3281,13 +2926,12 @@
       <c r="Z38" s="1">
         <v>37</v>
       </c>
-      <c r="AA38" s="7">
+      <c r="AA38" s="1">
         <f t="shared" si="3"/>
         <v>-37</v>
       </c>
-      <c r="AB38" s="5"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X39" s="1" t="s">
         <v>42</v>
       </c>
@@ -3297,13 +2941,12 @@
       <c r="Z39" s="1">
         <v>80</v>
       </c>
-      <c r="AA39" s="5">
+      <c r="AA39" s="1">
         <f t="shared" si="3"/>
         <v>-80</v>
       </c>
-      <c r="AB39" s="5"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X40" s="1" t="s">
         <v>43</v>
       </c>
@@ -3313,72 +2956,62 @@
       <c r="Z40" s="1">
         <v>205</v>
       </c>
-      <c r="AA40" s="5">
+      <c r="AA40" s="1">
         <f t="shared" si="3"/>
         <v>-205</v>
       </c>
-      <c r="AB40" s="5"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Y42" s="1">
         <f>M3+O2+O6+Q23+Q25+Q27+U26</f>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="Z42" s="1">
-        <v>67</v>
-      </c>
-      <c r="AA42" s="5">
+        <v>54</v>
+      </c>
+      <c r="AA42" s="1">
         <f t="shared" ref="AA42:AA52" si="4">Y42-Z42</f>
-        <v>1</v>
-      </c>
-      <c r="AB42" s="5"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y43" s="1">
+        <f>O23+O25+O27+Q22+Q24+Q26</f>
+        <v>33</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>10</v>
+      </c>
+      <c r="AA43" s="1">
+        <f>Y43-Z43</f>
+        <v>23</v>
+      </c>
+      <c r="AB43" s="19"/>
+    </row>
+    <row r="44" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="X44" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="Y44" s="1">
         <f>U17+U18</f>
         <v>30</v>
       </c>
-      <c r="Z43" s="1">
-        <v>8</v>
-      </c>
-      <c r="AA43" s="5">
-        <f>Y43-Z43</f>
-        <v>22</v>
-      </c>
-      <c r="AB43" s="28"/>
-    </row>
-    <row r="44" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="U44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y44" s="1">
-        <f>O23+O25+O27+Q22+Q24+Q26</f>
-        <v>33</v>
-      </c>
       <c r="Z44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="5">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="AB44" s="28"/>
-    </row>
-    <row r="45" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="U45" s="8"/>
-      <c r="W45" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="AA44" s="1">
+        <f>Y44-Z44</f>
+        <v>15</v>
+      </c>
+      <c r="AB44" s="19"/>
+    </row>
+    <row r="45" spans="6:28" x14ac:dyDescent="0.2">
       <c r="X45" s="1" t="s">
         <v>46</v>
       </c>
@@ -3389,78 +3022,72 @@
       <c r="Z45" s="1">
         <v>92</v>
       </c>
-      <c r="AA45" s="5">
+      <c r="AA45" s="1">
         <f t="shared" si="4"/>
         <v>-87</v>
       </c>
     </row>
-    <row r="46" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="U46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="7" t="s">
+    <row r="46" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="X46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y46" s="7">
+      <c r="Y46" s="1">
         <f>Q3+Q7+Q16+Q18+Q20</f>
-        <v>50</v>
-      </c>
-      <c r="Z46" s="7">
-        <v>63</v>
-      </c>
-      <c r="AA46" s="7">
+        <v>30</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>43</v>
+      </c>
+      <c r="AA46" s="1">
         <f t="shared" si="4"/>
         <v>-13</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="U47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="7" t="s">
+    <row r="47" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="X47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y47" s="7">
+      <c r="Y47" s="1">
         <f>O16+O18+O20+Q15+Q17+Q19</f>
         <v>45</v>
       </c>
-      <c r="Z47" s="7">
+      <c r="Z47" s="1">
         <v>76</v>
       </c>
-      <c r="AA47" s="7">
+      <c r="AA47" s="1">
         <f t="shared" si="4"/>
         <v>-31</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="X48" s="7" t="s">
+    <row r="48" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="X48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Y48" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="7">
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
         <v>52</v>
       </c>
-      <c r="AA48" s="7">
+      <c r="AA48" s="1">
         <f t="shared" si="4"/>
         <v>-52</v>
       </c>
-      <c r="AB48" s="5"/>
     </row>
     <row r="49" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="X49" s="7" t="s">
+      <c r="X49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Y49" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="7">
-        <v>53</v>
-      </c>
-      <c r="AA49" s="7">
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>55</v>
+      </c>
+      <c r="AA49" s="1">
         <f t="shared" si="4"/>
-        <v>-53</v>
-      </c>
-      <c r="AB49" s="5"/>
+        <v>-55</v>
+      </c>
     </row>
     <row r="50" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X50" s="1" t="s">
@@ -3472,11 +3099,10 @@
       <c r="Z50" s="1">
         <v>1</v>
       </c>
-      <c r="AA50" s="5">
+      <c r="AA50" s="1">
         <f>Y50-Z50</f>
         <v>-1</v>
       </c>
-      <c r="AB50" s="5"/>
     </row>
     <row r="51" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X51" s="1" t="s">
@@ -3488,11 +3114,10 @@
       <c r="Z51" s="1">
         <v>10</v>
       </c>
-      <c r="AA51" s="5">
+      <c r="AA51" s="1">
         <f>Y51-Z51</f>
         <v>-10</v>
       </c>
-      <c r="AB51" s="5"/>
     </row>
     <row r="52" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X52" s="1" t="s">
@@ -3500,20 +3125,16 @@
       </c>
       <c r="Y52" s="1">
         <f>S2+S6+S8+S12+S15+S17+S19+S22+S24+S26</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z52" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB52" s="28"/>
-    </row>
-    <row r="53" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
+      <c r="AB52" s="19"/>
     </row>
     <row r="54" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X54" s="1" t="s">
@@ -3526,203 +3147,62 @@
       <c r="Z54" s="1">
         <v>0</v>
       </c>
-      <c r="AA54" s="5">
+      <c r="AA54" s="1">
         <f>Y54-Z54</f>
         <v>53</v>
       </c>
-      <c r="AB54" s="28"/>
-    </row>
-    <row r="55" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AB55" s="5"/>
-    </row>
-    <row r="56" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AB56" s="5"/>
-    </row>
-    <row r="57" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AB57" s="5"/>
-    </row>
-    <row r="58" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AB58" s="5"/>
-    </row>
-    <row r="59" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-    </row>
-    <row r="60" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-    </row>
-    <row r="61" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-    </row>
-    <row r="62" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-    </row>
-    <row r="63" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
-    </row>
-    <row r="64" spans="24:28" x14ac:dyDescent="0.2">
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-    </row>
-    <row r="65" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5"/>
-    </row>
-    <row r="66" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
-    </row>
-    <row r="67" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
-    </row>
-    <row r="68" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="5"/>
-    </row>
-    <row r="69" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
-    </row>
-    <row r="70" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
-    </row>
-    <row r="71" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
-    </row>
-    <row r="72" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-    </row>
-    <row r="73" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
-    </row>
-    <row r="74" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
-    </row>
-    <row r="75" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
-    </row>
-    <row r="76" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-    </row>
-    <row r="77" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-    </row>
-    <row r="78" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-    </row>
-    <row r="79" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
-    </row>
-    <row r="80" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
-    </row>
-    <row r="81" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
-    </row>
-    <row r="82" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-    </row>
-    <row r="83" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-    </row>
-    <row r="84" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-    </row>
-    <row r="85" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
-    </row>
-    <row r="86" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
-    </row>
-    <row r="87" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-    </row>
-    <row r="88" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA88" s="5"/>
-    </row>
-    <row r="89" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA89" s="5"/>
-    </row>
-    <row r="90" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA90" s="5"/>
-    </row>
-    <row r="91" spans="27:28" x14ac:dyDescent="0.2">
-      <c r="AA91" s="5"/>
+      <c r="AB54" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
@@ -3747,54 +3227,55 @@
     <mergeCell ref="T10:T11"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="145">
   <si>
     <t>技能1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,18 +450,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龙之牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骑士勋章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙之逆鳞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>杰克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +519,90 @@
   </si>
   <si>
     <t>混沌之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉藻前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界树种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界树种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮神心脏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传承结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战马幼角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战马幼角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追忆贝壳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +807,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,12 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="Z53" sqref="Z53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1270,14 +1339,14 @@
       </c>
       <c r="Y3" s="1">
         <f>C15+C17+C19+E15+E17+E19</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>112</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="0"/>
-        <v>-61</v>
+        <v>-112</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -1524,7 +1593,7 @@
         <v>52</v>
       </c>
       <c r="S7" s="17"/>
-      <c r="T7" s="24"/>
+      <c r="T7" s="19"/>
       <c r="U7" s="8"/>
       <c r="X7" s="1" t="s">
         <v>15</v>
@@ -1540,7 +1609,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="AB7" s="19"/>
+      <c r="AB7" s="20"/>
     </row>
     <row r="8" spans="1:28" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -1549,46 +1618,46 @@
       <c r="B8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="20">
-        <v>0</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="21">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21" t="s">
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="21">
-        <v>0</v>
-      </c>
-      <c r="L8" s="21" t="s">
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="21">
-        <v>0</v>
-      </c>
-      <c r="N8" s="21" t="s">
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="21">
-        <v>0</v>
-      </c>
-      <c r="P8" s="21" t="s">
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22" t="s">
         <v>72</v>
       </c>
       <c r="Q8" s="1">
@@ -1620,34 +1689,34 @@
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="21">
-        <v>0</v>
-      </c>
-      <c r="L9" s="21" t="s">
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="21">
-        <v>0</v>
-      </c>
-      <c r="N9" s="21" t="s">
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="21">
-        <v>0</v>
-      </c>
-      <c r="P9" s="21" t="s">
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22" t="s">
         <v>74</v>
       </c>
       <c r="Q9" s="1">
@@ -1664,58 +1733,58 @@
       <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="21">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20" t="s">
+      <c r="G10" s="21">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21" t="s">
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="21">
-        <v>0</v>
-      </c>
-      <c r="L10" s="21" t="s">
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="21">
-        <v>0</v>
-      </c>
-      <c r="N10" s="21" t="s">
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="21">
-        <v>0</v>
-      </c>
-      <c r="P10" s="21" t="s">
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="21">
-        <v>0</v>
-      </c>
-      <c r="R10" s="21" t="s">
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="20">
-        <v>0</v>
-      </c>
-      <c r="T10" s="20" t="s">
+      <c r="S10" s="21">
+        <v>0</v>
+      </c>
+      <c r="T10" s="21" t="s">
         <v>80</v>
       </c>
       <c r="X10" s="1" t="s">
@@ -1735,57 +1804,57 @@
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="21">
-        <v>0</v>
-      </c>
-      <c r="L11" s="21" t="s">
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="21">
-        <v>0</v>
-      </c>
-      <c r="N11" s="21" t="s">
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="21">
-        <v>0</v>
-      </c>
-      <c r="P11" s="21" t="s">
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="21">
-        <v>0</v>
-      </c>
-      <c r="R11" s="21" t="s">
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
       <c r="X11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Y11" s="1">
         <f>G15+G17+G19+I19+I17+I15</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>118</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="1"/>
-        <v>-67</v>
+        <v>-118</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -1793,28 +1862,28 @@
       <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="21">
-        <v>0</v>
-      </c>
-      <c r="J12" s="21" t="s">
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="1">
@@ -1864,16 +1933,16 @@
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>67</v>
       </c>
       <c r="K13" s="1">
@@ -1938,34 +2007,34 @@
       <c r="B15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="2">
-        <v>12</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="1">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="1">
-        <v>5</v>
-      </c>
-      <c r="L15" s="1" t="s">
+      <c r="K15" s="22">
+        <v>0</v>
+      </c>
+      <c r="L15" s="22" t="s">
         <v>89</v>
       </c>
       <c r="M15" s="1">
@@ -1991,12 +2060,6 @@
       </c>
       <c r="T15" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="U15" s="1">
-        <v>8</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>21</v>
@@ -2012,27 +2075,27 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AB15" s="19"/>
+      <c r="AB15" s="20"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="1">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K16" s="1">
-        <v>24</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="K16" s="22">
+        <v>0</v>
+      </c>
+      <c r="L16" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M16" s="1">
@@ -2055,12 +2118,6 @@
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="1">
-        <v>24</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="X16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2080,34 +2137,34 @@
       <c r="B17" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="2">
-        <v>12</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="21">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="2">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="1">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="1">
-        <v>5</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="K17" s="22">
+        <v>0</v>
+      </c>
+      <c r="L17" s="22" t="s">
         <v>90</v>
       </c>
       <c r="M17" s="1">
@@ -2133,33 +2190,27 @@
       </c>
       <c r="T17" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="U17" s="1">
-        <v>10</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="1">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="1">
-        <v>24</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="K18" s="22">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M18" s="1">
@@ -2182,12 +2233,6 @@
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="1">
-        <v>20</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="X18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2202,41 +2247,41 @@
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
         <v>7</v>
       </c>
-      <c r="AB18" s="19"/>
+      <c r="AB18" s="20"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="21">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="2">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="2">
-        <v>5</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I19" s="1">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="I19" s="22">
+        <v>0</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="K19" s="1">
-        <v>5</v>
-      </c>
-      <c r="L19" s="1" t="s">
+      <c r="K19" s="22">
+        <v>0</v>
+      </c>
+      <c r="L19" s="22" t="s">
         <v>91</v>
       </c>
       <c r="M19" s="1">
@@ -2263,46 +2308,40 @@
       <c r="T19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="1">
-        <v>5</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="X19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Y19" s="1">
         <f>K15+K17+K19+M15+M17+M19</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="Z19" s="1">
         <v>51</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22">
+        <v>0</v>
+      </c>
+      <c r="J20" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="1">
-        <v>24</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="K20" s="22">
+        <v>0</v>
+      </c>
+      <c r="L20" s="22" t="s">
         <v>95</v>
       </c>
       <c r="M20" s="1">
@@ -2325,7 +2364,7 @@
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="V20" s="22"/>
+      <c r="V20" s="23"/>
       <c r="X20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2341,7 +2380,7 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V21" s="22"/>
+      <c r="V21" s="23"/>
       <c r="X21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2358,58 +2397,58 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="20">
-        <v>0</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0</v>
-      </c>
-      <c r="H22" s="20" t="s">
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I22" s="21">
-        <v>0</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>114</v>
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="K22" s="1">
         <v>5</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M22" s="1">
         <v>12</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O22" s="1">
         <v>29</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="1">
         <v>8</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S22" s="2">
         <v>1</v>
@@ -2421,7 +2460,7 @@
         <v>22</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>28</v>
@@ -2440,41 +2479,41 @@
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21">
-        <v>0</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>118</v>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="K23" s="1">
         <v>20</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M23" s="1">
         <v>15</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O23" s="1">
         <v>3</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q23" s="1">
         <v>15</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -2482,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>29</v>
@@ -2498,60 +2537,60 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="AB23" s="19"/>
+      <c r="AB23" s="20"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="21">
-        <v>0</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>115</v>
+      <c r="I24" s="22">
+        <v>0</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="K24" s="1">
         <v>5</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M24" s="1">
         <v>12</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O24" s="1">
         <v>29</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="1">
         <v>8</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S24" s="2">
         <v>1</v>
@@ -2563,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>30</v>
@@ -2579,46 +2618,46 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="19"/>
+      <c r="AB24" s="20"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21">
-        <v>0</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>118</v>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="K25" s="1">
         <v>20</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M25" s="1">
         <v>15</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O25" s="1">
         <v>3</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="1">
         <v>15</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -2626,25 +2665,25 @@
         <v>10</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2">
         <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -2656,31 +2695,31 @@
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K26" s="1">
         <v>5</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M26" s="1">
         <v>12</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O26" s="1">
         <v>29</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="1">
         <v>8</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="S26" s="2">
         <v>1</v>
@@ -2692,7 +2731,7 @@
         <v>8</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>31</v>
@@ -2721,35 +2760,35 @@
         <v>10</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K27" s="1">
         <v>20</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M27" s="1">
         <v>15</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O27" s="1">
         <v>3</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q27" s="1">
         <v>15</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="V27" s="22"/>
+      <c r="V27" s="23"/>
       <c r="X27" s="1" t="s">
         <v>32</v>
       </c>
@@ -2764,27 +2803,92 @@
         <f>Y27-Z27</f>
         <v>154</v>
       </c>
-      <c r="AB27" s="19"/>
+      <c r="AB27" s="20"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V28" s="22"/>
+      <c r="V28" s="23"/>
       <c r="X28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Y28" s="1">
         <f>I16+I18+I20+K16+K18+K20+U16</f>
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="1">
         <v>307</v>
       </c>
       <c r="AA28" s="1">
         <f>Y28-Z28</f>
-        <v>-175</v>
+        <v>-307</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V29" s="22"/>
+      <c r="A29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="2">
+        <v>12</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I29" s="1">
+        <v>12</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="1">
+        <v>5</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" s="1">
+        <v>12</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O29" s="1">
+        <v>8</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>11</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S29" s="2">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U29" s="1">
+        <v>6</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="X29" s="1" t="s">
         <v>34</v>
       </c>
@@ -2801,10 +2905,118 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V30" s="22"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1">
+        <v>6</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" s="1">
+        <v>12</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M30" s="1">
+        <v>4</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" s="1">
+        <v>4</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>10</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="1">
+        <v>12</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V31" s="22"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="2">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="1">
+        <v>12</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="1">
+        <v>12</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O31" s="1">
+        <v>8</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>11</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S31" s="2">
+        <v>1</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U31" s="1">
+        <v>3</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="X31" s="1" t="s">
         <v>35</v>
       </c>
@@ -2820,6 +3032,52 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="1">
+        <v>12</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M32" s="1">
+        <v>4</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O32" s="1">
+        <v>4</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>10</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="1">
+        <v>6</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="X32" s="1" t="s">
         <v>101</v>
       </c>
@@ -2834,8 +3092,71 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="33" spans="6:28" x14ac:dyDescent="0.2">
-      <c r="F33" s="23"/>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="2">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="2">
+        <v>12</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="1">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" s="1">
+        <v>5</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M33" s="1">
+        <v>12</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O33" s="1">
+        <v>8</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>11</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S33" s="2">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="U33" s="1">
+        <v>12</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="X33" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,9 +3171,50 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="AB33" s="19"/>
-    </row>
-    <row r="34" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="AB33" s="20"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="1">
+        <v>12</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O34" s="1">
+        <v>4</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>10</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="V34" s="23"/>
       <c r="X34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2868,7 +3230,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="35" spans="6:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X35" s="1" t="s">
         <v>38</v>
       </c>
@@ -2884,7 +3246,7 @@
         <v>-88</v>
       </c>
     </row>
-    <row r="36" spans="6:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X36" s="1" t="s">
         <v>39</v>
       </c>
@@ -2899,7 +3261,7 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="37" spans="6:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X37" s="1" t="s">
         <v>40</v>
       </c>
@@ -2914,9 +3276,9 @@
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="AB37" s="19"/>
-    </row>
-    <row r="38" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="AB37" s="20"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X38" s="1" t="s">
         <v>41</v>
       </c>
@@ -2931,7 +3293,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="39" spans="6:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2946,7 +3308,7 @@
         <v>-80</v>
       </c>
     </row>
-    <row r="40" spans="6:28" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X40" s="1" t="s">
         <v>43</v>
       </c>
@@ -2961,7 +3323,7 @@
         <v>-205</v>
       </c>
     </row>
-    <row r="42" spans="6:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X42" s="1" t="s">
         <v>44</v>
       </c>
@@ -2977,7 +3339,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="6:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X43" s="1" t="s">
         <v>45</v>
       </c>
@@ -2992,42 +3354,42 @@
         <f>Y43-Z43</f>
         <v>23</v>
       </c>
-      <c r="AB43" s="19"/>
-    </row>
-    <row r="44" spans="6:28" x14ac:dyDescent="0.2">
+      <c r="AB43" s="20"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X44" s="1" t="s">
         <v>99</v>
       </c>
       <c r="Y44" s="1">
         <f>U17+U18</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="1">
         <v>15</v>
       </c>
       <c r="AA44" s="1">
         <f>Y44-Z44</f>
-        <v>15</v>
-      </c>
-      <c r="AB44" s="19"/>
-    </row>
-    <row r="45" spans="6:28" x14ac:dyDescent="0.2">
+        <v>-15</v>
+      </c>
+      <c r="AB44" s="20"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="Y45" s="1">
         <f>U19</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1">
         <v>92</v>
       </c>
       <c r="AA45" s="1">
         <f t="shared" si="4"/>
-        <v>-87</v>
-      </c>
-    </row>
-    <row r="46" spans="6:28" x14ac:dyDescent="0.2">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X46" s="1" t="s">
         <v>53</v>
       </c>
@@ -3043,7 +3405,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="47" spans="6:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X47" s="1" t="s">
         <v>54</v>
       </c>
@@ -3059,7 +3421,7 @@
         <v>-31</v>
       </c>
     </row>
-    <row r="48" spans="6:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X48" s="1" t="s">
         <v>55</v>
       </c>
@@ -3134,7 +3496,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AB52" s="19"/>
+      <c r="AB52" s="20"/>
     </row>
     <row r="54" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X54" s="1" t="s">
@@ -3142,67 +3504,96 @@
       </c>
       <c r="Y54" s="1">
         <f>M16+M18+M20+O15+O17+O19+U15</f>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Z54" s="1">
         <v>0</v>
       </c>
       <c r="AA54" s="1">
         <f>Y54-Z54</f>
-        <v>53</v>
-      </c>
-      <c r="AB54" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="AB54" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="149">
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
@@ -3227,55 +3618,54 @@
     <mergeCell ref="T10:T11"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="T15:T16"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="S22:S23"/>
-    <mergeCell ref="T22:T23"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -705,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,11 +724,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,7 +1050,7 @@
   <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13:T14"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,42 +1079,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="2">
+      <c r="C1" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7">
         <v>5</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7">
         <v>6</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7">
         <v>7</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7">
         <v>8</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2">
+      <c r="R1" s="7"/>
+      <c r="S1" s="7">
         <v>9</v>
       </c>
-      <c r="T1" s="2"/>
+      <c r="T1" s="7"/>
       <c r="V1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1126,10 +1129,10 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="1">
         <v>15</v>
       </c>
@@ -1166,22 +1169,22 @@
       <c r="N2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="7">
         <v>5</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="2">
-        <v>15</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q2" s="7">
+        <v>15</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="7">
         <v>1</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="7" t="s">
         <v>153</v>
       </c>
       <c r="U2" s="3"/>
@@ -1201,8 +1204,8 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="1">
         <v>15</v>
       </c>
@@ -1239,12 +1242,12 @@
       <c r="N3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
       <c r="X3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1253,16 +1256,16 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="0"/>
-        <v>-48</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1">
         <v>15</v>
       </c>
@@ -1299,22 +1302,22 @@
       <c r="N4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="7">
         <v>5</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="Q4" s="2">
-        <v>15</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="Q4" s="7">
+        <v>15</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="7">
         <v>1</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="7" t="s">
         <v>129</v>
       </c>
       <c r="U4" s="3"/>
@@ -1326,46 +1329,46 @@
         <v>66</v>
       </c>
       <c r="Z4" s="1">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="0"/>
-        <v>-100</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="1">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="1">
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="1">
         <v>15</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="3"/>
       <c r="X5" s="1" t="s">
         <v>3</v>
@@ -1383,36 +1386,36 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
         <v>5</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="Q6" s="2">
-        <v>15</v>
-      </c>
-      <c r="R6" s="2" t="s">
+      <c r="Q6" s="7">
+        <v>15</v>
+      </c>
+      <c r="R6" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="7">
         <v>1</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="7" t="s">
         <v>153</v>
       </c>
       <c r="U6" s="3"/>
@@ -1424,34 +1427,34 @@
         <v>15</v>
       </c>
       <c r="Z6" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="0"/>
-        <v>-21</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
       <c r="U7" s="3"/>
       <c r="X7" s="1" t="s">
         <v>5</v>
@@ -1486,106 +1489,106 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6" t="s">
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="1">
-        <v>15</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-      <c r="T9" s="2" t="s">
+      <c r="S9" s="8">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6" t="s">
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="1">
-        <v>24</v>
-      </c>
-      <c r="R10" s="1" t="s">
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
       <c r="X10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1602,62 +1605,62 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6" t="s">
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6" t="s">
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6" t="s">
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S11" s="5">
-        <v>0</v>
-      </c>
-      <c r="T11" s="5" t="s">
+      <c r="S11" s="8">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8" t="s">
         <v>66</v>
       </c>
       <c r="X11" s="1" t="s">
@@ -1668,54 +1671,54 @@
         <v>15</v>
       </c>
       <c r="Z11" s="1">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="1"/>
-        <v>-57</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6" t="s">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6" t="s">
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6" t="s">
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
       <c r="X12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1724,59 +1727,59 @@
         <v>66</v>
       </c>
       <c r="Z12" s="1">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AB12" s="4"/>
+        <v>-6</v>
+      </c>
+      <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="1">
-        <v>5</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="1">
-        <v>12</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="1">
-        <v>10</v>
-      </c>
-      <c r="P13" s="1" t="s">
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
         <v>59</v>
       </c>
       <c r="Q13" s="1">
@@ -1785,10 +1788,10 @@
       <c r="R13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="7">
         <v>1</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -1807,36 +1810,36 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="1">
-        <v>10</v>
-      </c>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="1">
-        <v>5</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="1">
-        <v>5</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>60</v>
       </c>
       <c r="Q14" s="1">
@@ -1845,8 +1848,8 @@
       <c r="R14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
       <c r="X14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1855,11 +1858,11 @@
         <v>15</v>
       </c>
       <c r="Z14" s="1">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="1"/>
-        <v>-83</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -1880,40 +1883,40 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="8">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6" t="s">
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>75</v>
       </c>
       <c r="M16" s="1">
@@ -1934,10 +1937,10 @@
       <c r="R16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="7">
         <v>1</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="X16" s="1" t="s">
@@ -1956,24 +1959,24 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6" t="s">
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>81</v>
       </c>
       <c r="M17" s="1">
@@ -1994,42 +1997,42 @@
       <c r="R17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>76</v>
       </c>
       <c r="M18" s="1">
@@ -2050,10 +2053,10 @@
       <c r="R18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="7">
         <v>1</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="7" t="s">
         <v>79</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -2061,10 +2064,10 @@
       </c>
       <c r="Y18" s="1">
         <f>M2+K13+M13</f>
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="Z18" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
@@ -2073,24 +2076,24 @@
       <c r="AB18" s="4"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>81</v>
       </c>
       <c r="M19" s="1">
@@ -2111,8 +2114,8 @@
       <c r="R19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
       <c r="X19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2121,47 +2124,47 @@
         <v>51</v>
       </c>
       <c r="Z19" s="1">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="AB19" s="4"/>
+        <v>-8</v>
+      </c>
+      <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="M20" s="1">
@@ -2182,13 +2185,13 @@
       <c r="R20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="7">
         <v>1</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="V20" s="7"/>
+      <c r="V20" s="6"/>
       <c r="X20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2197,33 +2200,33 @@
         <v>66</v>
       </c>
       <c r="Z20" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="s">
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="M21" s="1">
@@ -2244,9 +2247,9 @@
       <c r="R21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="V21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="V21" s="6"/>
       <c r="X21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2263,7 +2266,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V22" s="7"/>
+      <c r="V22" s="6"/>
       <c r="X22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2272,42 +2275,42 @@
         <v>15</v>
       </c>
       <c r="Z22" s="1">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="2"/>
-        <v>-8</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>97</v>
       </c>
       <c r="K23" s="1">
@@ -2334,10 +2337,10 @@
       <c r="R23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="7">
         <v>1</v>
       </c>
-      <c r="T23" s="2" t="s">
+      <c r="T23" s="7" t="s">
         <v>79</v>
       </c>
       <c r="V23" s="3"/>
@@ -2358,18 +2361,18 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K24" s="1">
@@ -2396,8 +2399,8 @@
       <c r="R24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
       <c r="V24" s="3"/>
       <c r="X24" s="1" t="s">
         <v>20</v>
@@ -2416,32 +2419,32 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="5">
-        <v>0</v>
-      </c>
-      <c r="H25" s="5" t="s">
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>98</v>
       </c>
       <c r="K25" s="1">
@@ -2468,27 +2471,27 @@
       <c r="R25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="7">
         <v>1</v>
       </c>
-      <c r="T25" s="2" t="s">
+      <c r="T25" s="7" t="s">
         <v>79</v>
       </c>
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>101</v>
       </c>
       <c r="K26" s="1">
@@ -2515,8 +2518,8 @@
       <c r="R26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
       <c r="U26" s="1">
         <v>10</v>
       </c>
@@ -2530,34 +2533,34 @@
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="AA26" s="1">
         <f>Y26-Z26</f>
-        <v>-482</v>
+        <v>-497</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="7">
         <v>5</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="7">
         <v>12</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="7">
         <v>5</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I27" s="1">
@@ -2590,10 +2593,10 @@
       <c r="R27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="7">
         <v>1</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" s="7" t="s">
         <v>79</v>
       </c>
       <c r="U27" s="1">
@@ -2610,23 +2613,23 @@
         <v>132</v>
       </c>
       <c r="Z27" s="1">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AA27" s="1">
         <f>Y27-Z27</f>
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
       <c r="I28" s="1">
         <v>10</v>
       </c>
@@ -2657,9 +2660,9 @@
       <c r="R28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="V28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="V28" s="6"/>
       <c r="X28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2668,15 +2671,15 @@
         <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="AA28" s="1">
         <f>Y28-Z28</f>
-        <v>-205</v>
+        <v>-230</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="V29" s="7"/>
+      <c r="V29" s="6"/>
       <c r="X29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2685,36 +2688,36 @@
         <v>70</v>
       </c>
       <c r="Z29" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AA29" s="1">
         <f>Y29-Z29</f>
-        <v>-47</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="7">
         <v>5</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="7">
         <v>12</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="7">
         <v>5</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="7" t="s">
         <v>114</v>
       </c>
       <c r="I30" s="1">
@@ -2747,10 +2750,10 @@
       <c r="R30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="7">
         <v>1</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="T30" s="7" t="s">
         <v>124</v>
       </c>
       <c r="U30" s="1">
@@ -2766,22 +2769,22 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="AA30" s="1">
         <f>Y30-Z30</f>
-        <v>-70</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
       <c r="I31" s="1">
         <v>6</v>
       </c>
@@ -2812,8 +2815,8 @@
       <c r="R31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
       <c r="U31" s="1">
         <v>12</v>
       </c>
@@ -2822,26 +2825,26 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="7">
         <v>5</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="7">
         <v>12</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="7">
         <v>5</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="7" t="s">
         <v>114</v>
       </c>
       <c r="I32" s="1">
@@ -2874,10 +2877,10 @@
       <c r="R32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="7">
         <v>1</v>
       </c>
-      <c r="T32" s="2" t="s">
+      <c r="T32" s="7" t="s">
         <v>124</v>
       </c>
       <c r="U32" s="1">
@@ -2894,23 +2897,23 @@
         <v>66</v>
       </c>
       <c r="Z32" s="1">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" ref="AA32:AA40" si="3">Y32-Z32</f>
-        <v>18</v>
-      </c>
-      <c r="AB32" s="4"/>
+        <v>-14</v>
+      </c>
+      <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
       <c r="I33" s="1">
         <v>6</v>
       </c>
@@ -2941,8 +2944,8 @@
       <c r="R33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
       <c r="U33" s="1">
         <v>6</v>
       </c>
@@ -2954,37 +2957,37 @@
       </c>
       <c r="Y33" s="1">
         <f>K14</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="3"/>
-        <v>-17</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="7">
         <v>5</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="7">
         <v>12</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="7">
         <v>5</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="7" t="s">
         <v>114</v>
       </c>
       <c r="I34" s="1">
@@ -3017,10 +3020,10 @@
       <c r="R34" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="7">
         <v>1</v>
       </c>
-      <c r="T34" s="2" t="s">
+      <c r="T34" s="7" t="s">
         <v>124</v>
       </c>
       <c r="U34" s="1">
@@ -3034,25 +3037,25 @@
       </c>
       <c r="Y34" s="1">
         <f>M14+O13</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" si="3"/>
-        <v>-129</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
       <c r="I35" s="1">
         <v>6</v>
       </c>
@@ -3083,22 +3086,22 @@
       <c r="R35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="V35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="V35" s="6"/>
       <c r="X35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Y35" s="1">
         <f>O14+Q13+Q9</f>
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Z35" s="1">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="3"/>
-        <v>-101</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
@@ -3110,11 +3113,11 @@
         <v>42</v>
       </c>
       <c r="Z36" s="1">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="3"/>
-        <v>-34</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
@@ -3123,14 +3126,14 @@
       </c>
       <c r="Y37" s="1">
         <f>Q10+Q14+U26</f>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="Z37" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AB37" s="4"/>
     </row>
@@ -3142,11 +3145,11 @@
         <v>0</v>
       </c>
       <c r="Z38" s="1">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="3"/>
-        <v>-59</v>
+        <v>-67</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
@@ -3157,11 +3160,11 @@
         <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="3"/>
-        <v>-81</v>
+        <v>-101</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
@@ -3172,11 +3175,11 @@
         <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="3"/>
-        <v>-225</v>
+        <v>-247</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
@@ -3188,13 +3191,13 @@
         <v>98</v>
       </c>
       <c r="Z42" s="1">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" ref="AA42:AA53" si="4">Y42-Z42</f>
-        <v>8</v>
-      </c>
-      <c r="AB42" s="4"/>
+        <v>-13</v>
+      </c>
+      <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X43" s="1" t="s">
@@ -3205,11 +3208,11 @@
         <v>123</v>
       </c>
       <c r="Z43" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AA43" s="1">
         <f>Y43-Z43</f>
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AB43" s="4"/>
     </row>
@@ -3221,11 +3224,11 @@
         <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="AA44" s="1">
         <f>Y44-Z44</f>
-        <v>-5</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
@@ -3252,11 +3255,11 @@
         <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="4"/>
-        <v>-99</v>
+        <v>-109</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
@@ -3268,11 +3271,11 @@
         <v>30</v>
       </c>
       <c r="Z47" s="1">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="4"/>
-        <v>-27</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
@@ -3284,11 +3287,11 @@
         <v>54</v>
       </c>
       <c r="Z48" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="4"/>
-        <v>-46</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="49" spans="24:28" x14ac:dyDescent="0.2">
@@ -3299,11 +3302,11 @@
         <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="4"/>
-        <v>-55</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="50" spans="24:28" x14ac:dyDescent="0.2">
@@ -3314,11 +3317,11 @@
         <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="4"/>
-        <v>-76</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="51" spans="24:28" x14ac:dyDescent="0.2">
@@ -3329,11 +3332,11 @@
         <v>0</v>
       </c>
       <c r="Z51" s="1">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA51" s="1">
         <f>Y51-Z51</f>
-        <v>-21</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="52" spans="24:28" x14ac:dyDescent="0.2">
@@ -3344,11 +3347,11 @@
         <v>0</v>
       </c>
       <c r="Z52" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="AA52" s="1">
         <f>Y52-Z52</f>
-        <v>-20</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="53" spans="24:28" x14ac:dyDescent="0.2">
@@ -3357,64 +3360,96 @@
       </c>
       <c r="Y53" s="1">
         <f>S2+S4+S6+S9+S13+S16+S18+S20+S23+S25+S27+S30+S32+S34</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z53" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA53" s="1">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB53" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="G5:H7"/>
-    <mergeCell ref="I6:J7"/>
-    <mergeCell ref="K5:L7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="S34:S35"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="T16:T17"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="B16:B17"/>
@@ -3439,84 +3474,52 @@
     <mergeCell ref="T9:T10"/>
     <mergeCell ref="T11:T12"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="G5:H7"/>
+    <mergeCell ref="I6:J7"/>
+    <mergeCell ref="K5:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="S30:S31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="164">
   <si>
     <t>剑之辉石</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,6 +639,46 @@
   </si>
   <si>
     <t>传承结晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁断书页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间齿轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之逆鳞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,6 +766,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,7 +1117,7 @@
   <dimension ref="A1:AB53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1079,42 +1146,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="7">
+      <c r="C1" s="16">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16">
         <v>3</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16">
         <v>4</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16">
         <v>5</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16">
         <v>6</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16">
         <v>7</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16">
         <v>8</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16">
         <v>9</v>
       </c>
-      <c r="T1" s="7"/>
+      <c r="T1" s="16"/>
       <c r="V1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1129,10 +1196,10 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1">
         <v>15</v>
       </c>
@@ -1169,22 +1236,22 @@
       <c r="N2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="16">
         <v>5</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="7">
-        <v>15</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="Q2" s="16">
+        <v>15</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="16">
         <v>1</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="16" t="s">
         <v>153</v>
       </c>
       <c r="U2" s="3"/>
@@ -1196,16 +1263,16 @@
         <v>15</v>
       </c>
       <c r="Z2" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AA2" s="1">
         <f t="shared" ref="AA2:AA8" si="0">Y2-Z2</f>
-        <v>-59</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="1">
         <v>15</v>
       </c>
@@ -1242,12 +1309,12 @@
       <c r="N3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
       <c r="X3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1256,16 +1323,16 @@
         <v>15</v>
       </c>
       <c r="Z3" s="1">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AA3" s="1">
         <f t="shared" si="0"/>
-        <v>-63</v>
+        <v>-87</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1">
         <v>15</v>
       </c>
@@ -1302,22 +1369,22 @@
       <c r="N4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="16">
         <v>5</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="Q4" s="7">
-        <v>15</v>
-      </c>
-      <c r="R4" s="7" t="s">
+      <c r="Q4" s="16">
+        <v>15</v>
+      </c>
+      <c r="R4" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="16">
         <v>1</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="16" t="s">
         <v>129</v>
       </c>
       <c r="U4" s="3"/>
@@ -1326,49 +1393,49 @@
       </c>
       <c r="Y4" s="1">
         <f>E4+C30+C32+C34+E30+E32+E34</f>
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="Z4" s="1">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="AA4" s="1">
         <f t="shared" si="0"/>
-        <v>-115</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
       <c r="I5" s="1">
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="1">
         <v>15</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
       <c r="U5" s="3"/>
       <c r="X5" s="1" t="s">
         <v>3</v>
@@ -1378,44 +1445,44 @@
         <v>15</v>
       </c>
       <c r="Z5" s="1">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="0"/>
-        <v>-46</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16">
         <v>5</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="Q6" s="7">
-        <v>15</v>
-      </c>
-      <c r="R6" s="7" t="s">
+      <c r="Q6" s="16">
+        <v>15</v>
+      </c>
+      <c r="R6" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="16">
         <v>1</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="16" t="s">
         <v>153</v>
       </c>
       <c r="U6" s="3"/>
@@ -1423,52 +1490,52 @@
         <v>4</v>
       </c>
       <c r="Y6" s="1">
-        <f>C2</f>
-        <v>15</v>
+        <f>C2+C37+C39+C41+E37+E39+E41</f>
+        <v>66</v>
       </c>
       <c r="Z6" s="1">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="AA6" s="1">
         <f t="shared" si="0"/>
-        <v>-37</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="3"/>
       <c r="X7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Y7" s="1">
         <f>C4+C27+E27</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA7" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AB7" s="4"/>
     </row>
@@ -1481,34 +1548,34 @@
         <v>15</v>
       </c>
       <c r="Z8" s="1">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="AA8" s="1">
         <f t="shared" si="0"/>
-        <v>-53</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="17">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="5">
@@ -1541,22 +1608,22 @@
       <c r="R9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="8">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8" t="s">
+      <c r="S9" s="17">
+        <v>0</v>
+      </c>
+      <c r="T9" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="5">
         <v>0</v>
       </c>
@@ -1587,8 +1654,8 @@
       <c r="R10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
       <c r="X10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1597,34 +1664,34 @@
         <v>15</v>
       </c>
       <c r="Z10" s="1">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="AA10" s="1">
         <f t="shared" ref="AA10:AA16" si="1">Y10-Z10</f>
-        <v>1</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="5">
@@ -1657,10 +1724,10 @@
       <c r="R11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S11" s="8">
-        <v>0</v>
-      </c>
-      <c r="T11" s="8" t="s">
+      <c r="S11" s="17">
+        <v>0</v>
+      </c>
+      <c r="T11" s="17" t="s">
         <v>66</v>
       </c>
       <c r="X11" s="1" t="s">
@@ -1671,22 +1738,22 @@
         <v>15</v>
       </c>
       <c r="Z11" s="1">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AA11" s="1">
         <f t="shared" si="1"/>
-        <v>-72</v>
+        <v>-83</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="5">
         <v>0</v>
       </c>
@@ -1717,45 +1784,45 @@
       <c r="R12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
       <c r="X12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y12" s="1">
         <f>I4+G30+G32+G34+I30+I32+I34</f>
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="Z12" s="1">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AA12" s="1">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-43</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="17">
+        <v>0</v>
+      </c>
+      <c r="H13" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="5">
@@ -1782,16 +1849,16 @@
       <c r="P13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q13" s="1">
-        <v>15</v>
-      </c>
-      <c r="R13" s="1" t="s">
+      <c r="Q13" s="8">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="S13" s="7">
-        <v>1</v>
-      </c>
-      <c r="T13" s="7" t="s">
+      <c r="S13" s="17">
+        <v>0</v>
+      </c>
+      <c r="T13" s="17" t="s">
         <v>65</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -1802,22 +1869,22 @@
         <v>15</v>
       </c>
       <c r="Z13" s="1">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="1"/>
-        <v>-57</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="5">
         <v>0</v>
       </c>
@@ -1842,27 +1909,27 @@
       <c r="P14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q14" s="1">
-        <v>24</v>
-      </c>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" s="8">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
       <c r="X14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Y14" s="1">
-        <f>G2</f>
-        <v>15</v>
+        <f>G2+G37+G39+G41+I37+I39+I41</f>
+        <v>66</v>
       </c>
       <c r="Z14" s="1">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AA14" s="1">
         <f t="shared" si="1"/>
-        <v>-102</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
@@ -1874,37 +1941,37 @@
         <v>32</v>
       </c>
       <c r="Z15" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>73</v>
       </c>
       <c r="I16" s="5">
@@ -1919,28 +1986,28 @@
       <c r="L16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="1">
-        <v>12</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="1">
-        <v>10</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Q16" s="1">
-        <v>11</v>
-      </c>
-      <c r="R16" s="1" t="s">
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="7">
-        <v>1</v>
-      </c>
-      <c r="T16" s="7" t="s">
+      <c r="S16" s="17">
+        <v>0</v>
+      </c>
+      <c r="T16" s="17" t="s">
         <v>78</v>
       </c>
       <c r="X16" s="1" t="s">
@@ -1951,22 +2018,22 @@
         <v>15</v>
       </c>
       <c r="Z16" s="1">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="1"/>
-        <v>-178</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="5">
         <v>0</v>
       </c>
@@ -1979,48 +2046,48 @@
       <c r="L17" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="1">
-        <v>5</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="O17" s="1">
-        <v>4</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="Q17" s="1">
-        <v>10</v>
-      </c>
-      <c r="R17" s="1" t="s">
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="17">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17" t="s">
         <v>73</v>
       </c>
       <c r="I18" s="5">
@@ -2035,28 +2102,28 @@
       <c r="L18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="1">
-        <v>12</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O18" s="1">
-        <v>10</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Q18" s="1">
-        <v>11</v>
-      </c>
-      <c r="R18" s="1" t="s">
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="S18" s="7">
-        <v>1</v>
-      </c>
-      <c r="T18" s="7" t="s">
+      <c r="S18" s="17">
+        <v>0</v>
+      </c>
+      <c r="T18" s="17" t="s">
         <v>79</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -2067,23 +2134,23 @@
         <v>15</v>
       </c>
       <c r="Z18" s="1">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AA18" s="1">
         <f t="shared" ref="AA18:AA24" si="2">Y18-Z18</f>
-        <v>15</v>
-      </c>
-      <c r="AB18" s="4"/>
+        <v>-28</v>
+      </c>
+      <c r="AB18" s="11"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="5">
         <v>0</v>
       </c>
@@ -2096,63 +2163,63 @@
       <c r="L19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="1">
-        <v>5</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O19" s="1">
-        <v>4</v>
-      </c>
-      <c r="P19" s="1" t="s">
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="1">
-        <v>10</v>
-      </c>
-      <c r="R19" s="1" t="s">
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
       <c r="X19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Y19" s="1">
         <f>M3+M16+M18+M20</f>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="Z19" s="1">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="AA19" s="1">
         <f t="shared" si="2"/>
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>73</v>
       </c>
       <c r="I20" s="5">
@@ -2167,28 +2234,28 @@
       <c r="L20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="1">
-        <v>12</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="1">
-        <v>10</v>
-      </c>
-      <c r="P20" s="1" t="s">
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Q20" s="1">
-        <v>11</v>
-      </c>
-      <c r="R20" s="1" t="s">
+      <c r="Q20" s="8">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="S20" s="7">
-        <v>1</v>
-      </c>
-      <c r="T20" s="7" t="s">
+      <c r="S20" s="17">
+        <v>0</v>
+      </c>
+      <c r="T20" s="17" t="s">
         <v>79</v>
       </c>
       <c r="V20" s="6"/>
@@ -2197,26 +2264,26 @@
       </c>
       <c r="Y20" s="1">
         <f>M4+K30+K32+K34+M30+M32+M34</f>
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="Z20" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA20" s="1">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="AB20" s="4"/>
+        <v>-7</v>
+      </c>
+      <c r="AB20" s="14"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="5">
         <v>0</v>
       </c>
@@ -2229,26 +2296,26 @@
       <c r="L21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="1">
-        <v>5</v>
-      </c>
-      <c r="N21" s="1" t="s">
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O21" s="1">
-        <v>4</v>
-      </c>
-      <c r="P21" s="1" t="s">
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="Q21" s="1">
-        <v>10</v>
-      </c>
-      <c r="R21" s="1" t="s">
+      <c r="Q21" s="8">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
       <c r="V21" s="6"/>
       <c r="X21" s="1" t="s">
         <v>17</v>
@@ -2258,11 +2325,11 @@
         <v>15</v>
       </c>
       <c r="Z21" s="1">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="2"/>
-        <v>-26</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
@@ -2271,40 +2338,41 @@
         <v>18</v>
       </c>
       <c r="Y22" s="1">
-        <f>K2</f>
-        <v>15</v>
+        <f>K2+K37+K39+K41+M37+M39+M41</f>
+        <v>66</v>
       </c>
       <c r="Z22" s="1">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="AA22" s="1">
         <f t="shared" si="2"/>
-        <v>-26</v>
-      </c>
+        <v>-5</v>
+      </c>
+      <c r="AB22" s="14"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>73</v>
       </c>
       <c r="I23" s="5">
@@ -2313,10 +2381,10 @@
       <c r="J23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="1">
-        <v>5</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12" t="s">
         <v>99</v>
       </c>
       <c r="M23" s="1">
@@ -2337,10 +2405,10 @@
       <c r="R23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="16">
         <v>1</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="16" t="s">
         <v>79</v>
       </c>
       <c r="V23" s="3"/>
@@ -2349,36 +2417,36 @@
       </c>
       <c r="Y23" s="1">
         <f>K4+K23+K25+K27+M23+M25+M27</f>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Z23" s="1">
         <v>6</v>
       </c>
       <c r="AA23" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="5">
         <v>0</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="1">
-        <v>20</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>101</v>
       </c>
       <c r="M24" s="1">
@@ -2399,8 +2467,8 @@
       <c r="R24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
       <c r="V24" s="3"/>
       <c r="X24" s="1" t="s">
         <v>20</v>
@@ -2410,35 +2478,35 @@
         <v>15</v>
       </c>
       <c r="Z24" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AA24" s="1">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="AB24" s="4"/>
+        <v>-4</v>
+      </c>
+      <c r="AB24" s="11"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17" t="s">
         <v>73</v>
       </c>
       <c r="I25" s="5">
@@ -2471,23 +2539,23 @@
       <c r="R25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="16">
         <v>1</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T25" s="16" t="s">
         <v>79</v>
       </c>
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="5">
         <v>0</v>
       </c>
@@ -2518,12 +2586,12 @@
       <c r="R26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="1">
-        <v>10</v>
-      </c>
-      <c r="V26" s="3" t="s">
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="8">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10" t="s">
         <v>105</v>
       </c>
       <c r="X26" s="1" t="s">
@@ -2533,34 +2601,34 @@
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>497</v>
+        <v>399</v>
       </c>
       <c r="AA26" s="1">
         <f>Y26-Z26</f>
-        <v>-497</v>
+        <v>-399</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="16">
+        <v>12</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="16">
         <v>5</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="7">
-        <v>12</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="7">
-        <v>5</v>
-      </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="16" t="s">
         <v>73</v>
       </c>
       <c r="I27" s="1">
@@ -2593,16 +2661,16 @@
       <c r="R27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="16">
         <v>1</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="U27" s="1">
-        <v>8</v>
-      </c>
-      <c r="V27" s="3" t="s">
+      <c r="U27" s="8">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10" t="s">
         <v>106</v>
       </c>
       <c r="X27" s="1" t="s">
@@ -2613,23 +2681,23 @@
         <v>132</v>
       </c>
       <c r="Z27" s="1">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="AA27" s="1">
         <f>Y27-Z27</f>
-        <v>83</v>
-      </c>
-      <c r="AB27" s="4"/>
+        <v>-3</v>
+      </c>
+      <c r="AB27" s="14"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="1">
         <v>10</v>
       </c>
@@ -2660,8 +2728,8 @@
       <c r="R28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
       <c r="V28" s="6"/>
       <c r="X28" s="1" t="s">
         <v>23</v>
@@ -2671,11 +2739,11 @@
         <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AA28" s="1">
         <f>Y28-Z28</f>
-        <v>-230</v>
+        <v>-266</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
@@ -2685,81 +2753,82 @@
       </c>
       <c r="Y29" s="1">
         <f>K24+K26+K28+I28</f>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Z29" s="1">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="AA29" s="1">
         <f>Y29-Z29</f>
-        <v>-49</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="7">
-        <v>5</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="7">
-        <v>12</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="7">
-        <v>5</v>
-      </c>
-      <c r="H30" s="7" t="s">
+      <c r="G30" s="17">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="I30" s="1">
-        <v>12</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K30" s="1">
-        <v>5</v>
-      </c>
-      <c r="L30" s="1" t="s">
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="M30" s="1">
-        <v>12</v>
-      </c>
-      <c r="N30" s="1" t="s">
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="O30" s="1">
-        <v>8</v>
-      </c>
-      <c r="P30" s="1" t="s">
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+      <c r="P30" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="Q30" s="1">
-        <v>11</v>
-      </c>
-      <c r="R30" s="1" t="s">
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="S30" s="7">
-        <v>1</v>
-      </c>
-      <c r="T30" s="7" t="s">
+      <c r="S30" s="17">
+        <v>0</v>
+      </c>
+      <c r="T30" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="U30" s="1">
-        <v>6</v>
-      </c>
-      <c r="V30" s="1" t="s">
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" s="8" t="s">
         <v>121</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -2769,94 +2838,94 @@
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>102</v>
+        <v>506</v>
       </c>
       <c r="AA30" s="1">
         <f>Y30-Z30</f>
-        <v>-102</v>
+        <v>-506</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="1">
-        <v>6</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="K31" s="1">
-        <v>12</v>
-      </c>
-      <c r="L31" s="1" t="s">
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="M31" s="1">
-        <v>4</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="O31" s="1">
-        <v>4</v>
-      </c>
-      <c r="P31" s="1" t="s">
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+      <c r="P31" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="Q31" s="1">
-        <v>10</v>
-      </c>
-      <c r="R31" s="1" t="s">
+      <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="1">
-        <v>12</v>
-      </c>
-      <c r="V31" s="1" t="s">
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="8">
+        <v>0</v>
+      </c>
+      <c r="V31" s="8" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="7">
-        <v>5</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="7">
-        <v>12</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="7">
-        <v>5</v>
-      </c>
-      <c r="H32" s="7" t="s">
+      <c r="G32" s="17">
+        <v>0</v>
+      </c>
+      <c r="H32" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="1">
-        <v>12</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="I32" s="8">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K32" s="1">
-        <v>5</v>
-      </c>
-      <c r="L32" s="1" t="s">
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="12" t="s">
         <v>118</v>
       </c>
       <c r="M32" s="1">
@@ -2877,16 +2946,16 @@
       <c r="R32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="16">
         <v>1</v>
       </c>
-      <c r="T32" s="7" t="s">
+      <c r="T32" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="U32" s="1">
-        <v>3</v>
-      </c>
-      <c r="V32" s="1" t="s">
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" s="8" t="s">
         <v>125</v>
       </c>
       <c r="X32" s="1" t="s">
@@ -2894,36 +2963,36 @@
       </c>
       <c r="Y32" s="1">
         <f>I31+I33+I35+K31+K33+K35+U31</f>
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="AA32" s="1">
         <f t="shared" ref="AA32:AA40" si="3">Y32-Z32</f>
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="1">
-        <v>6</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="8">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K33" s="1">
-        <v>12</v>
-      </c>
-      <c r="L33" s="1" t="s">
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="12" t="s">
         <v>116</v>
       </c>
       <c r="M33" s="1">
@@ -2944,12 +3013,12 @@
       <c r="R33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="1">
-        <v>6</v>
-      </c>
-      <c r="V33" s="1" t="s">
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="V33" s="8" t="s">
         <v>126</v>
       </c>
       <c r="X33" s="1" t="s">
@@ -2960,76 +3029,76 @@
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="AA33" s="1">
         <f t="shared" si="3"/>
-        <v>-18</v>
+        <v>-226</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="7">
-        <v>5</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="7">
-        <v>12</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="17">
+        <v>0</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="7">
-        <v>5</v>
-      </c>
-      <c r="H34" s="7" t="s">
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="I34" s="1">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="I34" s="8">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K34" s="1">
-        <v>5</v>
-      </c>
-      <c r="L34" s="1" t="s">
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="M34" s="1">
-        <v>12</v>
-      </c>
-      <c r="N34" s="1" t="s">
+      <c r="M34" s="12">
+        <v>0</v>
+      </c>
+      <c r="N34" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="O34" s="1">
-        <v>8</v>
-      </c>
-      <c r="P34" s="1" t="s">
+      <c r="O34" s="12">
+        <v>0</v>
+      </c>
+      <c r="P34" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Q34" s="1">
-        <v>11</v>
-      </c>
-      <c r="R34" s="1" t="s">
+      <c r="Q34" s="13">
+        <v>0</v>
+      </c>
+      <c r="R34" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="S34" s="7">
-        <v>1</v>
-      </c>
-      <c r="T34" s="7" t="s">
+      <c r="S34" s="17">
+        <v>0</v>
+      </c>
+      <c r="T34" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="U34" s="1">
-        <v>12</v>
-      </c>
-      <c r="V34" s="1" t="s">
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="V34" s="8" t="s">
         <v>127</v>
       </c>
       <c r="X34" s="1" t="s">
@@ -3040,68 +3109,68 @@
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="AA34" s="1">
         <f t="shared" si="3"/>
-        <v>-153</v>
+        <v>-102</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="1">
-        <v>6</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="1">
-        <v>12</v>
-      </c>
-      <c r="L35" s="1" t="s">
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="M35" s="1">
-        <v>4</v>
-      </c>
-      <c r="N35" s="1" t="s">
+      <c r="M35" s="12">
+        <v>0</v>
+      </c>
+      <c r="N35" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="O35" s="1">
-        <v>4</v>
-      </c>
-      <c r="P35" s="1" t="s">
+      <c r="O35" s="12">
+        <v>0</v>
+      </c>
+      <c r="P35" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="Q35" s="1">
-        <v>10</v>
-      </c>
-      <c r="R35" s="1" t="s">
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
+      <c r="R35" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
       <c r="V35" s="6"/>
       <c r="X35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Y35" s="1">
         <f>O14+Q13+Q9</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="3"/>
-        <v>-116</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
@@ -3110,49 +3179,226 @@
       </c>
       <c r="Y36" s="1">
         <f>M31+M33+M35+O30+O32+O34+U30</f>
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="Z36" s="1">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="3"/>
-        <v>-55</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="16">
+        <v>5</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="16">
+        <v>12</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G37" s="16">
+        <v>5</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="1">
+        <v>12</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K37" s="7">
+        <v>5</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="7">
+        <v>12</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="1">
+        <v>10</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>8</v>
+      </c>
+      <c r="R37" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S37" s="16">
+        <v>1</v>
+      </c>
+      <c r="T37" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U37" s="1">
+        <v>8</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="X37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="Y37" s="1">
-        <f>Q10+Q14+U26</f>
-        <v>34</v>
+        <f>Q10+Q14+U26+M38+M40+M42+O37+O39+O41+U37</f>
+        <v>53</v>
       </c>
       <c r="Z37" s="1">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="AA37" s="1">
         <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="AB37" s="4"/>
+        <v>-123</v>
+      </c>
+      <c r="AB37" s="11"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K38" s="1">
+        <v>10</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M38" s="1">
+        <v>5</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O38" s="1">
+        <v>3</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>10</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="1">
+        <v>10</v>
+      </c>
+      <c r="V38" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="X38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y38" s="1">
-        <v>0</v>
+        <f>I38+I40+I42+K38+K40+K42+U38</f>
+        <v>55</v>
       </c>
       <c r="Z38" s="1">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AA38" s="1">
         <f t="shared" si="3"/>
-        <v>-67</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="16">
+        <v>5</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="16">
+        <v>12</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="16">
+        <v>5</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="1">
+        <v>12</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K39" s="7">
+        <v>5</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="7">
+        <v>12</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O39" s="1">
+        <v>10</v>
+      </c>
+      <c r="P39" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>8</v>
+      </c>
+      <c r="R39" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S39" s="16">
+        <v>1</v>
+      </c>
+      <c r="T39" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U39" s="1">
+        <v>2</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="X39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3160,14 +3406,60 @@
         <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="AA39" s="1">
         <f t="shared" si="3"/>
-        <v>-101</v>
+        <v>-122</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="1">
+        <v>5</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="1">
+        <v>10</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M40" s="1">
+        <v>5</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O40" s="1">
+        <v>3</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>10</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="1">
+        <v>4</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="X40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3175,27 +3467,133 @@
         <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AA40" s="1">
         <f t="shared" si="3"/>
-        <v>-247</v>
+        <v>-249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="16">
+        <v>5</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="16">
+        <v>12</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="16">
+        <v>5</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I41" s="1">
+        <v>12</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" s="7">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" s="7">
+        <v>12</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="O41" s="1">
+        <v>10</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>8</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="S41" s="16">
+        <v>1</v>
+      </c>
+      <c r="T41" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U41" s="1">
+        <v>5</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="1">
+        <v>5</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K42" s="1">
+        <v>10</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M42" s="1">
+        <v>5</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O42" s="1">
+        <v>3</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>10</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
       <c r="X42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Y42" s="1">
         <f>Q24+Q26+Q28+U27+O31+O33+O35+Q30+Q32+Q34</f>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="Z42" s="1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AA42" s="1">
         <f t="shared" ref="AA42:AA53" si="4">Y42-Z42</f>
-        <v>-13</v>
+        <v>-55</v>
       </c>
       <c r="AB42" s="2"/>
     </row>
@@ -3204,15 +3602,15 @@
         <v>35</v>
       </c>
       <c r="Y43" s="1">
-        <f>O2+O4+O6+Q2+Q4+Q6+O24+O26+O28+Q23+Q25+Q27+Q31+Q33+Q35</f>
-        <v>123</v>
+        <f>O2+O4+O6+Q2+Q4+Q6+O24+O26+O28+Q23+Q25+Q27+Q31+Q33+Q35+Q38+Q40+Q42</f>
+        <v>133</v>
       </c>
       <c r="Z43" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA43" s="1">
         <f>Y43-Z43</f>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AB43" s="4"/>
     </row>
@@ -3224,11 +3622,11 @@
         <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <v>20</v>
+        <v>328</v>
       </c>
       <c r="AA44" s="1">
         <f>Y44-Z44</f>
-        <v>-20</v>
+        <v>-328</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
@@ -3237,14 +3635,14 @@
       </c>
       <c r="Y45" s="1">
         <f>O16+O18+O20+M17+M19+M21+U34</f>
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AA45" s="1">
         <f>Y45-Z45</f>
-        <v>-25</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
@@ -3252,14 +3650,15 @@
         <v>36</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <f>U41</f>
+        <v>5</v>
       </c>
       <c r="Z46" s="1">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AA46" s="1">
         <f t="shared" si="4"/>
-        <v>-109</v>
+        <v>-117</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
@@ -3267,15 +3666,15 @@
         <v>41</v>
       </c>
       <c r="Y47" s="1">
-        <f>Q17+Q19+Q21</f>
-        <v>30</v>
+        <f>Q17+Q19+Q21+O38+O40+O42+Q37+Q39+Q41</f>
+        <v>33</v>
       </c>
       <c r="Z47" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="4"/>
-        <v>-39</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
@@ -3284,14 +3683,14 @@
       </c>
       <c r="Y48" s="1">
         <f>O17+O19+O21+Q16+Q18+Q20+U32+U33</f>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="AA48" s="1">
         <f t="shared" si="4"/>
-        <v>-56</v>
+        <v>-62</v>
       </c>
     </row>
     <row r="49" spans="24:28" x14ac:dyDescent="0.2">
@@ -3302,11 +3701,11 @@
         <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AA49" s="1">
         <f t="shared" si="4"/>
-        <v>-56</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="50" spans="24:28" x14ac:dyDescent="0.2">
@@ -3317,11 +3716,11 @@
         <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="AA50" s="1">
         <f t="shared" si="4"/>
-        <v>-87</v>
+        <v>-115</v>
       </c>
     </row>
     <row r="51" spans="24:28" x14ac:dyDescent="0.2">
@@ -3332,11 +3731,11 @@
         <v>0</v>
       </c>
       <c r="Z51" s="1">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="AA51" s="1">
         <f>Y51-Z51</f>
-        <v>-34</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="52" spans="24:28" x14ac:dyDescent="0.2">
@@ -3344,14 +3743,15 @@
         <v>84</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <f>U39+U40</f>
+        <v>6</v>
       </c>
       <c r="Z52" s="1">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="AA52" s="1">
         <f>Y52-Z52</f>
-        <v>-35</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="53" spans="24:28" x14ac:dyDescent="0.2">
@@ -3359,28 +3759,20 @@
         <v>37</v>
       </c>
       <c r="Y53" s="1">
-        <f>S2+S4+S6+S9+S13+S16+S18+S20+S23+S25+S27+S30+S32+S34</f>
-        <v>13</v>
+        <f>S2+S4+S6+S9+S13+S16+S18+S20+S23+S25+S27+S30+S32+S34+S37+S39+S41</f>
+        <v>10</v>
       </c>
       <c r="Z53" s="1">
         <v>3</v>
       </c>
       <c r="AA53" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB53" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="S34:S35"/>
-    <mergeCell ref="T34:T35"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="T32:T33"/>
+  <mergeCells count="175">
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
@@ -3398,18 +3790,32 @@
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="S32:S33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
+    <mergeCell ref="T34:T35"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="T32:T33"/>
     <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S34:S35"/>
     <mergeCell ref="T23:T24"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="F25:F26"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -3423,12 +3829,6 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="F25:F26"/>
     <mergeCell ref="T16:T17"/>
     <mergeCell ref="T18:T19"/>
     <mergeCell ref="T20:T21"/>
@@ -3495,6 +3895,9 @@
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C5:D7"/>
     <mergeCell ref="E6:F7"/>
@@ -3508,9 +3911,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="R6:R7"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="O6:O7"/>
@@ -3520,6 +3920,34 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="S37:S38"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="T41:T42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/技能素材.xlsx
+++ b/技能素材.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="171">
   <si>
     <t>剑之辉石</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -679,6 +679,34 @@
   </si>
   <si>
     <t>龙之逆鳞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚影之尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇之宝玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤凰羽毛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,7 +825,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB43" sqref="AB43"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="Y54" sqref="Y54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,42 +1183,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="16">
+      <c r="C1" s="20">
         <v>1</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20">
         <v>2</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20">
         <v>3</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20">
         <v>4</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20">
         <v>5</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16">
+      <c r="L1" s="20"/>
+      <c r="M1" s="20">
         <v>6</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20">
         <v>7</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16">
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20">
         <v>8</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16">
+      <c r="R1" s="20"/>
+      <c r="S1" s="20">
         <v>9</v>
       </c>
-      <c r="T1" s="16"/>
+      <c r="T1" s="20"/>
       <c r="V1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1196,10 +1233,10 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="1">
         <v>15</v>
       </c>
@@ -1236,22 +1273,22 @@
       <c r="N2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="20">
         <v>5</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="20">
         <v>15</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="20">
         <v>1</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="20" t="s">
         <v>153</v>
       </c>
       <c r="U2" s="3"/>
@@ -1271,8 +1308,8 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1">
         <v>15</v>
       </c>
@@ -1309,12 +1346,12 @@
       <c r="N3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
       <c r="X3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1331,8 +1368,8 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1">
         <v>15</v>
       </c>
@@ -1369,22 +1406,22 @@
       <c r="N4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="20">
         <v>5</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="20">
         <v>15</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="20">
         <v>1</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="20" t="s">
         <v>129</v>
       </c>
       <c r="U4" s="3"/>
@@ -1404,85 +1441,85 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="1">
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="1">
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="1">
         <v>15</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
       <c r="U5" s="3"/>
       <c r="X5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="Y5" s="1">
-        <f>C3</f>
-        <v>15</v>
+        <f>C3+C48+E48</f>
+        <v>27</v>
       </c>
       <c r="Z5" s="1">
         <v>76</v>
       </c>
       <c r="AA5" s="1">
         <f t="shared" si="0"/>
-        <v>-61</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>5</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="20">
         <v>15</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="20">
         <v>1</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="T6" s="20" t="s">
         <v>153</v>
       </c>
       <c r="U6" s="3"/>
@@ -1502,26 +1539,26 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
       <c r="U7" s="3"/>
       <c r="X7" s="1" t="s">
         <v>5</v>
@@ -1556,26 +1593,26 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>51</v>
       </c>
       <c r="I9" s="5">
@@ -1608,22 +1645,22 @@
       <c r="R9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S9" s="17">
-        <v>0</v>
-      </c>
-      <c r="T9" s="17" t="s">
+      <c r="S9" s="18">
+        <v>0</v>
+      </c>
+      <c r="T9" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="5">
         <v>0</v>
       </c>
@@ -1654,8 +1691,8 @@
       <c r="R10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
       <c r="X10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1672,26 +1709,26 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="17">
-        <v>0</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="5">
@@ -1724,10 +1761,10 @@
       <c r="R11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S11" s="17">
-        <v>0</v>
-      </c>
-      <c r="T11" s="17" t="s">
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18" t="s">
         <v>66</v>
       </c>
       <c r="X11" s="1" t="s">
@@ -1746,14 +1783,14 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="5">
         <v>0</v>
       </c>
@@ -1784,8 +1821,8 @@
       <c r="R12" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
       <c r="X12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1803,26 +1840,26 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="5">
@@ -1855,36 +1892,36 @@
       <c r="R13" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="S13" s="17">
-        <v>0</v>
-      </c>
-      <c r="T13" s="17" t="s">
+      <c r="S13" s="18">
+        <v>0</v>
+      </c>
+      <c r="T13" s="18" t="s">
         <v>65</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="Y13" s="1">
-        <f>G3</f>
-        <v>15</v>
+        <f>G3+G48+I44+I46+I48</f>
+        <v>43</v>
       </c>
       <c r="Z13" s="1">
         <v>83</v>
       </c>
       <c r="AA13" s="1">
         <f t="shared" si="1"/>
-        <v>-68</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="5">
         <v>0</v>
       </c>
@@ -1915,8 +1952,8 @@
       <c r="R14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
       <c r="X14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1950,28 +1987,28 @@
       <c r="AB15" s="4"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17" t="s">
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>73</v>
       </c>
       <c r="I16" s="5">
@@ -2004,10 +2041,10 @@
       <c r="R16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="S16" s="17">
-        <v>0</v>
-      </c>
-      <c r="T16" s="17" t="s">
+      <c r="S16" s="18">
+        <v>0</v>
+      </c>
+      <c r="T16" s="18" t="s">
         <v>78</v>
       </c>
       <c r="X16" s="1" t="s">
@@ -2026,14 +2063,14 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="5">
         <v>0</v>
       </c>
@@ -2064,30 +2101,30 @@
       <c r="R17" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="17">
-        <v>0</v>
-      </c>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17" t="s">
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17" t="s">
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>73</v>
       </c>
       <c r="I18" s="5">
@@ -2120,10 +2157,10 @@
       <c r="R18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="S18" s="17">
-        <v>0</v>
-      </c>
-      <c r="T18" s="17" t="s">
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18" t="s">
         <v>79</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -2143,14 +2180,14 @@
       <c r="AB18" s="11"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="5">
         <v>0</v>
       </c>
@@ -2181,8 +2218,8 @@
       <c r="R19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
       <c r="X19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2200,26 +2237,26 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="18">
+        <v>0</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17" t="s">
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>73</v>
       </c>
       <c r="I20" s="5">
@@ -2252,10 +2289,10 @@
       <c r="R20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="S20" s="17">
-        <v>0</v>
-      </c>
-      <c r="T20" s="17" t="s">
+      <c r="S20" s="18">
+        <v>0</v>
+      </c>
+      <c r="T20" s="18" t="s">
         <v>79</v>
       </c>
       <c r="V20" s="6"/>
@@ -2276,14 +2313,14 @@
       <c r="AB20" s="14"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="5">
         <v>0</v>
       </c>
@@ -2314,22 +2351,22 @@
       <c r="R21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
       <c r="V21" s="6"/>
       <c r="X21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="Y21" s="1">
-        <f>K3</f>
-        <v>15</v>
+        <f>K3+K44+K46+K48+M44+M46+M48</f>
+        <v>51</v>
       </c>
       <c r="Z21" s="1">
         <v>71</v>
       </c>
       <c r="AA21" s="1">
         <f t="shared" si="2"/>
-        <v>-56</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
@@ -2351,28 +2388,28 @@
       <c r="AB22" s="14"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="17">
-        <v>0</v>
-      </c>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="18">
+        <v>0</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>73</v>
       </c>
       <c r="I23" s="5">
@@ -2405,10 +2442,10 @@
       <c r="R23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S23" s="16">
+      <c r="S23" s="20">
         <v>1</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="T23" s="20" t="s">
         <v>79</v>
       </c>
       <c r="V23" s="3"/>
@@ -2429,14 +2466,14 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
       <c r="I24" s="5">
         <v>0</v>
       </c>
@@ -2467,8 +2504,8 @@
       <c r="R24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
       <c r="V24" s="3"/>
       <c r="X24" s="1" t="s">
         <v>20</v>
@@ -2487,26 +2524,26 @@
       <c r="AB24" s="11"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17" t="s">
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17" t="s">
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>73</v>
       </c>
       <c r="I25" s="5">
@@ -2539,23 +2576,23 @@
       <c r="R25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S25" s="16">
+      <c r="S25" s="20">
         <v>1</v>
       </c>
-      <c r="T25" s="16" t="s">
+      <c r="T25" s="20" t="s">
         <v>79</v>
       </c>
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="5">
         <v>0</v>
       </c>
@@ -2586,8 +2623,8 @@
       <c r="R26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
       <c r="U26" s="8">
         <v>0</v>
       </c>
@@ -2609,26 +2646,26 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="20">
         <v>12</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="20">
         <v>5</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="20" t="s">
         <v>73</v>
       </c>
       <c r="I27" s="1">
@@ -2661,10 +2698,10 @@
       <c r="R27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S27" s="16">
+      <c r="S27" s="20">
         <v>1</v>
       </c>
-      <c r="T27" s="16" t="s">
+      <c r="T27" s="20" t="s">
         <v>79</v>
       </c>
       <c r="U27" s="8">
@@ -2690,14 +2727,14 @@
       <c r="AB27" s="14"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="1">
         <v>10</v>
       </c>
@@ -2728,8 +2765,8 @@
       <c r="R28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
       <c r="V28" s="6"/>
       <c r="X28" s="1" t="s">
         <v>23</v>
@@ -2752,41 +2789,41 @@
         <v>24</v>
       </c>
       <c r="Y29" s="1">
-        <f>K24+K26+K28+I28</f>
-        <v>50</v>
+        <f>K24+K26+K28+I28+I45+I47+I49+K45+K47+K49</f>
+        <v>110</v>
       </c>
       <c r="Z29" s="1">
         <v>13</v>
       </c>
       <c r="AA29" s="1">
         <f>Y29-Z29</f>
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17" t="s">
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17" t="s">
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>114</v>
       </c>
       <c r="I30" s="8">
@@ -2819,10 +2856,10 @@
       <c r="R30" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="S30" s="17">
-        <v>0</v>
-      </c>
-      <c r="T30" s="17" t="s">
+      <c r="S30" s="18">
+        <v>0</v>
+      </c>
+      <c r="T30" s="18" t="s">
         <v>124</v>
       </c>
       <c r="U30" s="8">
@@ -2846,14 +2883,14 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="8">
         <v>0</v>
       </c>
@@ -2884,8 +2921,8 @@
       <c r="R31" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
       <c r="U31" s="8">
         <v>0</v>
       </c>
@@ -2894,26 +2931,26 @@
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17" t="s">
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17" t="s">
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>114</v>
       </c>
       <c r="I32" s="8">
@@ -2946,10 +2983,10 @@
       <c r="R32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S32" s="16">
+      <c r="S32" s="20">
         <v>1</v>
       </c>
-      <c r="T32" s="16" t="s">
+      <c r="T32" s="20" t="s">
         <v>124</v>
       </c>
       <c r="U32" s="8">
@@ -2975,14 +3012,14 @@
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="8">
         <v>0</v>
       </c>
@@ -3013,8 +3050,8 @@
       <c r="R33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
       <c r="U33" s="8">
         <v>0</v>
       </c>
@@ -3037,26 +3074,26 @@
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
-      <c r="D34" s="17" t="s">
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17" t="s">
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17" t="s">
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18" t="s">
         <v>114</v>
       </c>
       <c r="I34" s="8">
@@ -3089,10 +3126,10 @@
       <c r="R34" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="S34" s="17">
-        <v>0</v>
-      </c>
-      <c r="T34" s="17" t="s">
+      <c r="S34" s="18">
+        <v>0</v>
+      </c>
+      <c r="T34" s="18" t="s">
         <v>124</v>
       </c>
       <c r="U34" s="8">
@@ -3117,14 +3154,14 @@
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="8">
         <v>0</v>
       </c>
@@ -3155,22 +3192,22 @@
       <c r="R35" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
       <c r="V35" s="6"/>
       <c r="X35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="Y35" s="1">
-        <f>O14+Q13+Q9</f>
-        <v>0</v>
+        <f>O14+Q13+Q9+M45+M47+M49+O44+O46+O48</f>
+        <v>27</v>
       </c>
       <c r="Z35" s="1">
         <v>144</v>
       </c>
       <c r="AA35" s="1">
         <f t="shared" si="3"/>
-        <v>-144</v>
+        <v>-117</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
@@ -3178,40 +3215,40 @@
         <v>29</v>
       </c>
       <c r="Y36" s="1">
-        <f>M31+M33+M35+O30+O32+O34+U30</f>
-        <v>12</v>
+        <f>M31+M33+M35+O30+O32+O34+U30+Q45+Q47+Q49</f>
+        <v>51</v>
       </c>
       <c r="Z36" s="1">
         <v>92</v>
       </c>
       <c r="AA36" s="1">
         <f t="shared" si="3"/>
-        <v>-80</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="20">
         <v>5</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="20">
         <v>12</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="20">
         <v>5</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="19" t="s">
         <v>159</v>
       </c>
       <c r="I37" s="1">
@@ -3244,10 +3281,10 @@
       <c r="R37" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="S37" s="16">
+      <c r="S37" s="20">
         <v>1</v>
       </c>
-      <c r="T37" s="16" t="s">
+      <c r="T37" s="20" t="s">
         <v>37</v>
       </c>
       <c r="U37" s="1">
@@ -3273,14 +3310,14 @@
       <c r="AB37" s="11"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
       <c r="I38" s="1">
         <v>5</v>
       </c>
@@ -3311,8 +3348,8 @@
       <c r="R38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
       <c r="U38" s="1">
         <v>10</v>
       </c>
@@ -3335,26 +3372,26 @@
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="20">
         <v>5</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="20">
         <v>12</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="20">
         <v>5</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="19" t="s">
         <v>159</v>
       </c>
       <c r="I39" s="1">
@@ -3387,10 +3424,10 @@
       <c r="R39" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="S39" s="16">
+      <c r="S39" s="20">
         <v>1</v>
       </c>
-      <c r="T39" s="16" t="s">
+      <c r="T39" s="20" t="s">
         <v>37</v>
       </c>
       <c r="U39" s="1">
@@ -3414,14 +3451,14 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="1">
         <v>5</v>
       </c>
@@ -3452,8 +3489,8 @@
       <c r="R40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
       <c r="U40" s="1">
         <v>4</v>
       </c>
@@ -3475,26 +3512,26 @@
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="20"/>
+      <c r="B41" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="20">
         <v>5</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="20">
         <v>12</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="20">
         <v>5</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="19" t="s">
         <v>159</v>
       </c>
       <c r="I41" s="1">
@@ -3527,10 +3564,10 @@
       <c r="R41" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="S41" s="16">
+      <c r="S41" s="20">
         <v>1</v>
       </c>
-      <c r="T41" s="16" t="s">
+      <c r="T41" s="20" t="s">
         <v>37</v>
       </c>
       <c r="U41" s="1">
@@ -3541,14 +3578,14 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
       <c r="I42" s="1">
         <v>5</v>
       </c>
@@ -3579,8 +3616,8 @@
       <c r="R42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
       <c r="X42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3602,19 +3639,79 @@
         <v>35</v>
       </c>
       <c r="Y43" s="1">
-        <f>O2+O4+O6+Q2+Q4+Q6+O24+O26+O28+Q23+Q25+Q27+Q31+Q33+Q35+Q38+Q40+Q42</f>
-        <v>133</v>
+        <f>O2+O4+O6+Q2+Q4+Q6+O24+O26+O28+Q23+Q25+Q27+Q31+Q33+Q35+Q38+Q40+Q42+O45+O47+O49+Q44+Q46+Q48</f>
+        <v>154</v>
       </c>
       <c r="Z43" s="1">
         <v>24</v>
       </c>
       <c r="AA43" s="1">
         <f>Y43-Z43</f>
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="AB43" s="4"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="18">
+        <v>0</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I44" s="1">
+        <v>8</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" s="1">
+        <v>4</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" s="1">
+        <v>8</v>
+      </c>
+      <c r="N44" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O44" s="1">
+        <v>6</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>5</v>
+      </c>
+      <c r="R44" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S44" s="20">
+        <v>1</v>
+      </c>
+      <c r="T44" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="X44" s="1" t="s">
         <v>85</v>
       </c>
@@ -3630,6 +3727,46 @@
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="1">
+        <v>7</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K45" s="1">
+        <v>13</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M45" s="1">
+        <v>3</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O45" s="1">
+        <v>2</v>
+      </c>
+      <c r="P45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>13</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
       <c r="X45" s="1" t="s">
         <v>82</v>
       </c>
@@ -3646,6 +3783,64 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="18">
+        <v>0</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="18">
+        <v>0</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="1">
+        <v>8</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="1">
+        <v>4</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M46" s="1">
+        <v>8</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O46" s="1">
+        <v>6</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>5</v>
+      </c>
+      <c r="R46" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S46" s="20">
+        <v>1</v>
+      </c>
+      <c r="T46" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="X46" s="1" t="s">
         <v>36</v>
       </c>
@@ -3662,6 +3857,46 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="1">
+        <v>7</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K47" s="1">
+        <v>13</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M47" s="1">
+        <v>3</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O47" s="1">
+        <v>2</v>
+      </c>
+      <c r="P47" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>13</v>
+      </c>
+      <c r="R47" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
       <c r="X47" s="1" t="s">
         <v>41</v>
       </c>
@@ -3678,6 +3913,64 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="20">
+        <v>4</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="20">
+        <v>8</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="20">
+        <v>4</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48" s="1">
+        <v>8</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="1">
+        <v>4</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M48" s="1">
+        <v>8</v>
+      </c>
+      <c r="N48" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O48" s="1">
+        <v>6</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>5</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S48" s="20">
+        <v>1</v>
+      </c>
+      <c r="T48" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="X48" s="1" t="s">
         <v>42</v>
       </c>
@@ -3693,7 +3986,47 @@
         <v>-62</v>
       </c>
     </row>
-    <row r="49" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="1">
+        <v>7</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K49" s="1">
+        <v>13</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="M49" s="1">
+        <v>3</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O49" s="1">
+        <v>2</v>
+      </c>
+      <c r="P49" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>13</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
       <c r="X49" s="1" t="s">
         <v>43</v>
       </c>
@@ -3708,7 +4041,7 @@
         <v>-46</v>
       </c>
     </row>
-    <row r="50" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X50" s="1" t="s">
         <v>44</v>
       </c>
@@ -3723,7 +4056,7 @@
         <v>-115</v>
       </c>
     </row>
-    <row r="51" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X51" s="1" t="s">
         <v>86</v>
       </c>
@@ -3738,7 +4071,7 @@
         <v>-74</v>
       </c>
     </row>
-    <row r="52" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X52" s="1" t="s">
         <v>84</v>
       </c>
@@ -3754,25 +4087,25 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="53" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X53" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Y53" s="1">
-        <f>S2+S4+S6+S9+S13+S16+S18+S20+S23+S25+S27+S30+S32+S34+S37+S39+S41</f>
-        <v>10</v>
+        <f>S2+S4+S6+S9+S13+S16+S18+S20+S23+S25+S27+S30+S32+S34+S37+S39+S41+S44+S46+S48</f>
+        <v>13</v>
       </c>
       <c r="Z53" s="1">
         <v>3</v>
       </c>
       <c r="AA53" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AB53" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="203">
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
@@ -3948,6 +4281,34 @@
     <mergeCell ref="T37:T38"/>
     <mergeCell ref="T39:T40"/>
     <mergeCell ref="T41:T42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="S46:S47"/>
+    <mergeCell ref="S48:S49"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="T46:T47"/>
+    <mergeCell ref="T48:T49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
